--- a/example.xlsx
+++ b/example.xlsx
@@ -8,14 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\MunchkinML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{804EB7B8-1F89-4307-93D8-41D36C534F03}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F398F6BC-3AD7-4874-B9B8-AA9B0BAA4E67}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="2" xr2:uid="{756F23DA-8B2B-43D1-941C-E221060CE055}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="4" xr2:uid="{756F23DA-8B2B-43D1-941C-E221060CE055}"/>
   </bookViews>
   <sheets>
     <sheet name="monsters" sheetId="1" r:id="rId1"/>
     <sheet name="treasures" sheetId="2" r:id="rId2"/>
     <sheet name="races" sheetId="3" r:id="rId3"/>
+    <sheet name="classes" sheetId="5" r:id="rId4"/>
+    <sheet name="doors_other" sheetId="4" r:id="rId5"/>
+    <sheet name="curses" sheetId="6" r:id="rId6"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -38,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="73" uniqueCount="57">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="765" uniqueCount="423">
   <si>
     <t>were_turtle</t>
   </si>
@@ -46,36 +49,24 @@
     <t>monster</t>
   </si>
   <si>
-    <t>run_away_buff(+2)</t>
-  </si>
-  <si>
     <t>update_pclass_race('race', n=-1)</t>
   </si>
   <si>
     <t>cat_girl</t>
   </si>
   <si>
-    <t>monster_buff(+5, condition='race==ork')</t>
-  </si>
-  <si>
     <t>update_hand(n=-roll_dice(), which=which_cards_to_drop)</t>
   </si>
   <si>
     <t>the_mighty_germ</t>
   </si>
   <si>
-    <t>monster_kill(all=False, treasures=True, levels=False, condition='race=='halfling')))</t>
-  </si>
-  <si>
     <t>update_hand(n=-2, which=which_cards_to_drop)</t>
   </si>
   <si>
     <t>lord_yahoo</t>
   </si>
   <si>
-    <t>monster_buff(+5, condition='race==elf');monster_buff(+5, condition='race==halfling');monster_buff(+5, condition='plcass==bard')</t>
-  </si>
-  <si>
     <t>lose_equiped(condition="self.equiped.eq_type!='head'")</t>
   </si>
   <si>
@@ -209,13 +200,1148 @@
   </si>
   <si>
     <t>dwarf_01</t>
+  </si>
+  <si>
+    <t>gummi_golem</t>
+  </si>
+  <si>
+    <t>self.monster.update_escape(+2)</t>
+  </si>
+  <si>
+    <t>pack_rat</t>
+  </si>
+  <si>
+    <t>always offer help for free untill someone agrees</t>
+  </si>
+  <si>
+    <t>update_hand(n=-1, condition='max price');update_hand(+1, treasure, open)</t>
+  </si>
+  <si>
+    <r>
+      <t xml:space="preserve">if no equiped, take 2 from 1 treasures by your choice </t>
+    </r>
+    <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="204"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t>or</t>
+    </r>
+    <r>
+      <rPr>
+        <sz val="11"/>
+        <color theme="1"/>
+        <rFont val="Calibri"/>
+        <family val="2"/>
+        <charset val="238"/>
+        <scheme val="minor"/>
+      </rPr>
+      <t xml:space="preserve"> fight</t>
+    </r>
+  </si>
+  <si>
+    <t>frost_giant</t>
+  </si>
+  <si>
+    <t>update_hand(condition='name==&lt;self.flame lst&gt;')</t>
+  </si>
+  <si>
+    <t>rapier_twit</t>
+  </si>
+  <si>
+    <t>lose_equiped(armor')</t>
+  </si>
+  <si>
+    <t>self.monster.update_multiplier(+1)</t>
+  </si>
+  <si>
+    <t>np.where(jest bronik, '', update_level(-1))</t>
+  </si>
+  <si>
+    <t>over_bear</t>
+  </si>
+  <si>
+    <t>tongue_demon</t>
+  </si>
+  <si>
+    <t>seven_year_lich</t>
+  </si>
+  <si>
+    <t>die();update_level(-1)</t>
+  </si>
+  <si>
+    <t>self.monster.kill(condition='self.player.level&lt;=2', levels=False, treasures=False)</t>
+  </si>
+  <si>
+    <t>gelatinous_octahedron</t>
+  </si>
+  <si>
+    <t>self.monster_update_escape(-1)</t>
+  </si>
+  <si>
+    <t>lose_equiped(all big)</t>
+  </si>
+  <si>
+    <t>self.monster_update_escape(+1)</t>
+  </si>
+  <si>
+    <t>update_level(-2)</t>
+  </si>
+  <si>
+    <t>flying_frogs</t>
+  </si>
+  <si>
+    <t>tentacle_demon</t>
+  </si>
+  <si>
+    <t>die()</t>
+  </si>
+  <si>
+    <t>ghoulfriends</t>
+  </si>
+  <si>
+    <t>self.player.update_temp_bonus(-1, condition='fight level only')</t>
+  </si>
+  <si>
+    <t>self.player.update_temp_bonus(1, condition='&lt;flame clothes&gt;', multiplier=2)</t>
+  </si>
+  <si>
+    <t>update_level(n=global_minimum level)</t>
+  </si>
+  <si>
+    <t>judge_fredd</t>
+  </si>
+  <si>
+    <t>die(maroders=FALSE)</t>
+  </si>
+  <si>
+    <t>dryad</t>
+  </si>
+  <si>
+    <t>np.where('wizzard' in self.player.plcass, lose_class(wizzard), '')</t>
+  </si>
+  <si>
+    <t>lose_equipted(all with bonus &gt;=2)</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+3, condition='\'halfling\'  in self.player.race', levels=False, treasures=False);self.monster.update_level(+3, condition='\'dwarf\'  in self.player.race', levels=False, treasures=False)</t>
+  </si>
+  <si>
+    <t>bigfoot</t>
+  </si>
+  <si>
+    <t>lose_head()</t>
+  </si>
+  <si>
+    <t>redneck_tree</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+5, condition='\'elf\'  in self.player.race');self.monster.update_level(+5, condition='\'halfling\'  in self.player.race');self.monster.update_level(+5, condition='\'bard\'  in self.player.plcass')</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+5, condition='\'orc\'  in self.player.race');self.monster.update_level(+5, condition='\'warrior\'  in self.player.plcass')</t>
+  </si>
+  <si>
+    <t>lose_equipted(armor);update_levels(-2);be afraid of grasses-10</t>
+  </si>
+  <si>
+    <t>lose_equiped(head)</t>
+  </si>
+  <si>
+    <t>lose_equiped(head);update_level(-1)</t>
+  </si>
+  <si>
+    <t>face_sucker</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+6, condition='\'elf\'  in self.player.race')</t>
+  </si>
+  <si>
+    <t>self.monster.kill(condition='\'halfling\'  in self.player.race', levels=True, treasures=True)</t>
+  </si>
+  <si>
+    <t>lame_goblin</t>
+  </si>
+  <si>
+    <t>update_level(-1)</t>
+  </si>
+  <si>
+    <t>grassy_troll</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+5, condition='\'human\'  in self.player.race')</t>
+  </si>
+  <si>
+    <t>update_level(-3) or lose up to 3 eliksirs</t>
+  </si>
+  <si>
+    <t>monster_the_gm_made_up_himself</t>
+  </si>
+  <si>
+    <t>np.where(race==halfling, lose_level(2));np..where(sex=='male',lose_level(1));np..where(sex=='male',lose_card(1));else everyone drop 2 cards</t>
+  </si>
+  <si>
+    <t>self.player.update_temp_bonus(-1, condition='no hands')</t>
+  </si>
+  <si>
+    <t>open cards and let each player select</t>
+  </si>
+  <si>
+    <t>moon_maidens</t>
+  </si>
+  <si>
+    <t>lost_cards(left, right players decides)</t>
+  </si>
+  <si>
+    <t>leperchaun</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+5, condition='\'orc\'  in self.player.race')</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+5, condition='\'elf\'  in self.player.race')</t>
+  </si>
+  <si>
+    <t>male_chauvinist_pig</t>
+  </si>
+  <si>
+    <t>np..where(sex==male, lose_level,lose_armor)</t>
+  </si>
+  <si>
+    <t>lose_level(3)</t>
+  </si>
+  <si>
+    <t>m_t_suit</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+5, condition='self.player.sex == \'female\'');self.monster.update_treasures(+1, condition='self.player.sex == \'female\'')</t>
+  </si>
+  <si>
+    <t>self.player.update_equiped(-1); self.monster.update_level(+5, condition='\'thief\'  in self.player.plcass')</t>
+  </si>
+  <si>
+    <t>self.player.update_equiped(-1);self.monster.update_level(+5, condition='\'cliric\'  in self.player.plcass')</t>
+  </si>
+  <si>
+    <t>lose_level(2) or lose all hand</t>
+  </si>
+  <si>
+    <t>platycore</t>
+  </si>
+  <si>
+    <t>self.player.update_temp_bonus(-1, condition='no level')</t>
+  </si>
+  <si>
+    <t>insurance_salesman</t>
+  </si>
+  <si>
+    <t>lose_equiped(price=1000);else lose all equiped</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+2, condition='\'halfling\'  in self.player.race')</t>
+  </si>
+  <si>
+    <t>barrel_of_monkeys</t>
+  </si>
+  <si>
+    <t>mr_bones</t>
+  </si>
+  <si>
+    <t>even_if_escaped</t>
+  </si>
+  <si>
+    <t>lose_level(2)</t>
+  </si>
+  <si>
+    <t>lose_level(1)</t>
+  </si>
+  <si>
+    <t>lose_level(1);lose_1small_stuff</t>
+  </si>
+  <si>
+    <t>harpies</t>
+  </si>
+  <si>
+    <t>goldfish</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+5, condition='\'wizzard\'  in self.player.pclass')</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+6, condition='\'wizzard\'  in self.player.pclass')</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+5, condition='\'wizzard\'  in self.player.pclass');self.monster.update_level(+5, condition='\'thief\'  in self.player.pclass')</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+4, condition='\'dwarf\'  in self.player.race');self.monster.update_level(+2, condition='self.player.sex == \'male\'');self.monster.update_level(-3, condition='\'wizzard\'  in self.player.pclass');self.monster.update_level(-2, condition='datetime.now().weekday == 5')</t>
+  </si>
+  <si>
+    <t>resident_weevil</t>
+  </si>
+  <si>
+    <t>beeing_laughed() :)</t>
+  </si>
+  <si>
+    <t>lose_equiped(1)</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+3, condition='len(self.player.pclass)==0')</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+4, condition='\'halfling\'  in self.player.race')</t>
+  </si>
+  <si>
+    <t>medusa</t>
+  </si>
+  <si>
+    <t>bullrog</t>
+  </si>
+  <si>
+    <t>self.monster.kill(condition='self.player.level&lt;=4', levels=False, treasures=False)</t>
+  </si>
+  <si>
+    <t>hyppogriff</t>
+  </si>
+  <si>
+    <t>self.monster.kill(condition='self.player.level&lt;=3', levels=False, treasures=False)</t>
+  </si>
+  <si>
+    <t>from right player take any card equiped or from hand</t>
+  </si>
+  <si>
+    <t>np.where(race==elf, update_level(-3), update_level(-2)</t>
+  </si>
+  <si>
+    <t>plutonium_dragon</t>
+  </si>
+  <si>
+    <t>self.monster.kill(condition='self.player.level&lt;=5', levels=False, treasures=False)</t>
+  </si>
+  <si>
+    <t>pterodactyl</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+5, condition='\'halfling\'  in self.player.race')</t>
+  </si>
+  <si>
+    <t>drop all hand or all small stuff</t>
+  </si>
+  <si>
+    <t>drop boots if exists else lose level</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+4, condition='\'elf\'  in self.player.race')</t>
+  </si>
+  <si>
+    <t>drooling_slime</t>
+  </si>
+  <si>
+    <t>jabberwock</t>
+  </si>
+  <si>
+    <t>lose_level(-99) or lose all equiped</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+3, condition='\'dwarf\'  in self.player.race');self.monster.update_level(+3, condition='\'wizzard\'  in self.player.pclass');self.monster.kill(condition='self.player.level&lt;=4', levels=False, treasures=False)</t>
+  </si>
+  <si>
+    <t>die();laugh('Monty pythoooon')</t>
+  </si>
+  <si>
+    <t>perfectly_ordinary_bunny_rabbit</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+13, condition='roll_dice()==6')</t>
+  </si>
+  <si>
+    <t>maul_rate</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+3, condition='\'wizzard\'  in self.player.pclass')</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+3, condition='\'cliric\'  in self.player.pclass')</t>
+  </si>
+  <si>
+    <t>3872_orcs</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+6, condition='\'dwarf\'  in self.player.race')</t>
+  </si>
+  <si>
+    <t>np..where(roll_dice&lt;=2, die(), lose_level(roll_dice))</t>
+  </si>
+  <si>
+    <t>give all hand; if hand &gt;1 take one treasure</t>
+  </si>
+  <si>
+    <t>teddy_bear</t>
+  </si>
+  <si>
+    <t>scary_clowns</t>
+  </si>
+  <si>
+    <t>lose level 3</t>
+  </si>
+  <si>
+    <t>filthy_geats</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(-3, condition='\'bard\'  in self.player.pclass')</t>
+  </si>
+  <si>
+    <t>lose boots</t>
+  </si>
+  <si>
+    <t>shrieking_geek</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+6, condition='\'warrior\'  in self.player.pclass')</t>
+  </si>
+  <si>
+    <t>lose all races and clases</t>
+  </si>
+  <si>
+    <t>kali</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+5, condition='\'cliric\'  in self.player.pclass');self.monster.update_level(+5, condition='self.player.pclass hands &lt;= 2');</t>
+  </si>
+  <si>
+    <t>die();skip_round()</t>
+  </si>
+  <si>
+    <t>self.monster.update_escape(-1);self.monster.update_level(+5, condition='\'elf\'  in self.player.race')</t>
+  </si>
+  <si>
+    <t>lose_levels(roll_dice())</t>
+  </si>
+  <si>
+    <t>the_dead_sea_trolls</t>
+  </si>
+  <si>
+    <t>lose 2 cards from hand</t>
+  </si>
+  <si>
+    <t>tequila_mockingbird</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+5, condition='\'bard\'  in self.player.pclass')</t>
+  </si>
+  <si>
+    <t>bad_ass</t>
+  </si>
+  <si>
+    <t>show hand and drop all monsters</t>
+  </si>
+  <si>
+    <t>kamikaze_kobolds</t>
+  </si>
+  <si>
+    <t>lose equiped 2; everyone else lose 1 equiped</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+5, condition='\'dwarf\'  in self.player.race')</t>
+  </si>
+  <si>
+    <t>undead_horse</t>
+  </si>
+  <si>
+    <t>lose_levels(2)</t>
+  </si>
+  <si>
+    <t>squidzilla</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+4, condition='\'elf\'  in self.player.race');self.monster.kill(condition='self.player.level&lt;=4 and not(\'elf\'  in self.player.race)', levels=False, treasures=False)</t>
+  </si>
+  <si>
+    <t>giant_cockroach</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+5, condition='\'elf\'  in self.player.race');self.monster.update_level(+5, condition='\'human\'  in self.player.race')</t>
+  </si>
+  <si>
+    <t>lose_level(2) if max level u playera</t>
+  </si>
+  <si>
+    <t>lose all hand and lose all equiped</t>
+  </si>
+  <si>
+    <t>king_tut</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+5, condition='\'warrior\'  in self.player.pclass')</t>
+  </si>
+  <si>
+    <t>lose all equiped with class restriction</t>
+  </si>
+  <si>
+    <t>thing_with_a_name_so_long_there_is_no_room_for_a_picture_on_the_card</t>
+  </si>
+  <si>
+    <t>lose 3 levels and armor</t>
+  </si>
+  <si>
+    <t>auntie_paladin</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+5, condition='\'cliric\'  in self.player.pclass');self.monster.update_level(+5, condition='self.player.sex == \'male\'')</t>
+  </si>
+  <si>
+    <t>lose armor and head</t>
+  </si>
+  <si>
+    <t>poison_ivy_kudzu_flytrap</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(-4, condition='\'elf\'  in self.player.race')</t>
+  </si>
+  <si>
+    <t>give 2 small equiped</t>
+  </si>
+  <si>
+    <t>dopplegangsters</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+3, condition='\'bard\'  in self.player.pclass')</t>
+  </si>
+  <si>
+    <t>unspeakably_awful_indescribable_horror</t>
+  </si>
+  <si>
+    <t>if class wizzard lose wizzard else die</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+4, condition='\'warrior\'  in self.player.pclass')</t>
+  </si>
+  <si>
+    <t>potted_plant</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+5, condition='\'halfling\'  in self.player.race');self.monster.update_level(+5, condition='\'dwarf\'  in self.player.race')</t>
+  </si>
+  <si>
+    <t>self.monster.update_treasures(+1, condition='\'elf\'  in self.player.race')</t>
+  </si>
+  <si>
+    <t>drop 2 from hand or 2 equiped</t>
+  </si>
+  <si>
+    <t>snails_on_speed</t>
+  </si>
+  <si>
+    <t>crabs</t>
+  </si>
+  <si>
+    <t>lose all armor and in &lt;everything_beneath_list&gt;</t>
+  </si>
+  <si>
+    <t>self.extendable=FALSE</t>
+  </si>
+  <si>
+    <t>gazebo</t>
+  </si>
+  <si>
+    <t>lose 3 levels</t>
+  </si>
+  <si>
+    <t>amazon</t>
+  </si>
+  <si>
+    <t>lose all classes if none lose all levels</t>
+  </si>
+  <si>
+    <t>plague_rats</t>
+  </si>
+  <si>
+    <t>lose 2 levels</t>
+  </si>
+  <si>
+    <t>net_troll</t>
+  </si>
+  <si>
+    <t>give equiped to all players</t>
+  </si>
+  <si>
+    <t>self.monster.update_treasures(-1, condition='self.player.sex==\'female\'');self.monster.kill(condition='self.player.sex==\'female\'', levels=False, treasures=True)</t>
+  </si>
+  <si>
+    <t>self.monster_update_escape(+1);self.monster.kill(condition='\'orc\'  in self.player.race', levels=False, treasures=True)</t>
+  </si>
+  <si>
+    <t>self.monster.kill(condition='self.player.sex==\'female\'', levels=False, treasures=True);self.monster.kill(condition='self.player.equiped has shipowanny gulf', levels=False, treasures=True)</t>
+  </si>
+  <si>
+    <t>psycho_squirrel</t>
+  </si>
+  <si>
+    <t>wight_brothers</t>
+  </si>
+  <si>
+    <t>lose_level(-99)</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(-5, condition='\'elf\'  in self.player.race')</t>
+  </si>
+  <si>
+    <t>santa</t>
+  </si>
+  <si>
+    <t>no treasures untill monster kill</t>
+  </si>
+  <si>
+    <t>stick_figure</t>
+  </si>
+  <si>
+    <t>lose sex until someone change</t>
+  </si>
+  <si>
+    <t>floating_nose</t>
+  </si>
+  <si>
+    <t>self.monster.kill(condition='&lt;player sell stuff on 200 gold&gt;', levels=False, treasures=False)</t>
+  </si>
+  <si>
+    <t>fungus</t>
+  </si>
+  <si>
+    <t>if enormous used, self.monster.update_level(+25)</t>
+  </si>
+  <si>
+    <t>lose 2 level if elf else 1; double if enormous</t>
+  </si>
+  <si>
+    <t>crawling_hand</t>
+  </si>
+  <si>
+    <t>if give ring, take stuff small +3</t>
+  </si>
+  <si>
+    <t>lose level 2</t>
+  </si>
+  <si>
+    <t>fowl_friend</t>
+  </si>
+  <si>
+    <t>self.monster.kill(condition='&lt;player has han on head&gt;', levels=False, treasures=True);self.monster.update_treasures(-2, condition='&lt;player has han on head&gt;')</t>
+  </si>
+  <si>
+    <t>lose hand if exists else lose level 2</t>
+  </si>
+  <si>
+    <t>lose han if exists</t>
+  </si>
+  <si>
+    <t>gothyanki</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+5, condition='len(self.player.race) &gt; 1');self.monster.update_level(+5, condition='len(self.player.pclass) &gt; 1'</t>
+  </si>
+  <si>
+    <t>lose levels (number of players);other gain levels (number of players)</t>
+  </si>
+  <si>
+    <t>the_shadow_nose</t>
+  </si>
+  <si>
+    <t>lose levels 3</t>
+  </si>
+  <si>
+    <t>snot_elemental</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+4, condition='\'elf\'  in self.player.race');if with noses, each gain +10!!!</t>
+  </si>
+  <si>
+    <t>lose all equiped to your class</t>
+  </si>
+  <si>
+    <t>stoned_golem</t>
+  </si>
+  <si>
+    <t>fight or not, exception - halfling</t>
+  </si>
+  <si>
+    <t>bobble_head</t>
+  </si>
+  <si>
+    <t>self.monster.kill(condition='\'elf\'  in self.player.race', levels=False, treasures=False); elf cannot join!</t>
+  </si>
+  <si>
+    <t>each orc in game select card from hand</t>
+  </si>
+  <si>
+    <t>wannabe_vampire</t>
+  </si>
+  <si>
+    <t>can just take treasures if cliric</t>
+  </si>
+  <si>
+    <t>pit_bull</t>
+  </si>
+  <si>
+    <t>can just lose posoch or palka</t>
+  </si>
+  <si>
+    <t>lawyers</t>
+  </si>
+  <si>
+    <t>self.monster.kill(condition='\'thief\'  in self.player.pclass', levels=False, treasures=False)</t>
+  </si>
+  <si>
+    <t>thief can drop 2 cards and take 2 new if want</t>
+  </si>
+  <si>
+    <t>each player from left take cards from hand; drop the rest</t>
+  </si>
+  <si>
+    <t>lust_monster</t>
+  </si>
+  <si>
+    <t>if no help from another sex - self.monster.update_level(+999)</t>
+  </si>
+  <si>
+    <t>lose level 2; next battle - no bonus from weapon</t>
+  </si>
+  <si>
+    <t>hydrant</t>
+  </si>
+  <si>
+    <t>if no help - self.monster.update_level(+5);self.monster.kill(condition='self.player.level&lt;=2', levels=False, treasures=False)</t>
+  </si>
+  <si>
+    <t>lose level (roll_dice())</t>
+  </si>
+  <si>
+    <t>giant_skunk</t>
+  </si>
+  <si>
+    <t>no interference except monster buffs and bodiaczaja twar</t>
+  </si>
+  <si>
+    <t xml:space="preserve">until not drop armor -their cost reduces, no one help you </t>
+  </si>
+  <si>
+    <t>pinata</t>
+  </si>
+  <si>
+    <t>treasure to every munchkin!</t>
+  </si>
+  <si>
+    <t>left player drop your equiped 1</t>
+  </si>
+  <si>
+    <t>lose all hand</t>
+  </si>
+  <si>
+    <t>lose level 1</t>
+  </si>
+  <si>
+    <t>pukachu</t>
+  </si>
+  <si>
+    <t>large_angry_chicken</t>
+  </si>
+  <si>
+    <t>self.monster_update_reward_level(+1, condition='player has fire stuff')</t>
+  </si>
+  <si>
+    <t>self.monster_update_reward_level(+1, condition='player killed with bonus only')</t>
+  </si>
+  <si>
+    <t>dwarf_02</t>
+  </si>
+  <si>
+    <t>dwarf_03</t>
+  </si>
+  <si>
+    <t>dwarf_04</t>
+  </si>
+  <si>
+    <t>dwarf_05</t>
+  </si>
+  <si>
+    <t>halfling_01</t>
+  </si>
+  <si>
+    <t>retry_second_get_away(drop card); sell_for_twice_price(1)</t>
+  </si>
+  <si>
+    <t>halfling_02</t>
+  </si>
+  <si>
+    <t>halfling_03</t>
+  </si>
+  <si>
+    <t>halfling_04</t>
+  </si>
+  <si>
+    <t>halfling_05</t>
+  </si>
+  <si>
+    <t>gnome;halfling</t>
+  </si>
+  <si>
+    <t>add_monster-as_buff;starts_from_n_g_add_1;if_nose_auto_escape</t>
+  </si>
+  <si>
+    <t>gnome_01</t>
+  </si>
+  <si>
+    <t>gnome_02</t>
+  </si>
+  <si>
+    <t>gnome_03</t>
+  </si>
+  <si>
+    <t>gnome_04</t>
+  </si>
+  <si>
+    <t>gnome_05</t>
+  </si>
+  <si>
+    <t>elf_01</t>
+  </si>
+  <si>
+    <t>add_level_for_help_fight;add_buff_for_escape(+1)</t>
+  </si>
+  <si>
+    <t>elf_02</t>
+  </si>
+  <si>
+    <t>elf_03</t>
+  </si>
+  <si>
+    <t>elf_04</t>
+  </si>
+  <si>
+    <t>elf_05</t>
+  </si>
+  <si>
+    <t>orc_01</t>
+  </si>
+  <si>
+    <t>orc_02</t>
+  </si>
+  <si>
+    <t>orc_03</t>
+  </si>
+  <si>
+    <t>orc_04</t>
+  </si>
+  <si>
+    <t>orc_05</t>
+  </si>
+  <si>
+    <t>orc</t>
+  </si>
+  <si>
+    <t>exclude_curse(level&gt;1);add_level_for_fight(+1, +11)</t>
+  </si>
+  <si>
+    <t>pclass</t>
+  </si>
+  <si>
+    <t>bard</t>
+  </si>
+  <si>
+    <t>bard_01</t>
+  </si>
+  <si>
+    <t>bard_02</t>
+  </si>
+  <si>
+    <t>bard_03</t>
+  </si>
+  <si>
+    <t>bard_04</t>
+  </si>
+  <si>
+    <t>bard_05</t>
+  </si>
+  <si>
+    <t>freeze(drop card, roll dice, another player roll dice, if helped - he fights for free); bards_luck(take one treasure more, wath and drop one card)</t>
+  </si>
+  <si>
+    <t>freeze(drop card, roll dice, another player roll dice, if helped - he fights for free); bards_luck(take one treasure more, watch and drop one card)</t>
+  </si>
+  <si>
+    <t>cliric</t>
+  </si>
+  <si>
+    <t>cliric_01</t>
+  </si>
+  <si>
+    <t>cliric_02</t>
+  </si>
+  <si>
+    <t>cliric_03</t>
+  </si>
+  <si>
+    <t>cliric_04</t>
+  </si>
+  <si>
+    <t>cliric_05</t>
+  </si>
+  <si>
+    <t>ressurection(when time to take open, take from drop, but drop card from hand for each);exile(drop up to 3 cardsagain undead, each +3 temp bonus)</t>
+  </si>
+  <si>
+    <t>thief_01</t>
+  </si>
+  <si>
+    <t>thief_02</t>
+  </si>
+  <si>
+    <t>thief_03</t>
+  </si>
+  <si>
+    <t>thief_04</t>
+  </si>
+  <si>
+    <t>thief_05</t>
+  </si>
+  <si>
+    <t>pruning(-2 temp bonus when fights for another player);theft(roll dice, 4+, take selected card, else lose level 1)</t>
+  </si>
+  <si>
+    <t>warrior</t>
+  </si>
+  <si>
+    <t>warrior_01</t>
+  </si>
+  <si>
+    <t>warrior_02</t>
+  </si>
+  <si>
+    <t>warrior_03</t>
+  </si>
+  <si>
+    <t>warrior_04</t>
+  </si>
+  <si>
+    <t>warrior_05</t>
+  </si>
+  <si>
+    <t>rampage(up to 3 cards drop, each+1 in fight);icrease bonus +1</t>
+  </si>
+  <si>
+    <t>rampage(up to 3 cards drop, each+1 in fight);icrease bonus +2</t>
+  </si>
+  <si>
+    <t>rampage(up to 3 cards drop, each+1 in fight);icrease bonus +3</t>
+  </si>
+  <si>
+    <t>rampage(up to 3 cards drop, each+1 in fight);icrease bonus +4</t>
+  </si>
+  <si>
+    <t>rampage(up to 3 cards drop, each+1 in fight);icrease bonus +5</t>
+  </si>
+  <si>
+    <t>wizzard</t>
+  </si>
+  <si>
+    <t>wizzard_01</t>
+  </si>
+  <si>
+    <t>wizzard_02</t>
+  </si>
+  <si>
+    <t>wizzard_03</t>
+  </si>
+  <si>
+    <t>wizzard_04</t>
+  </si>
+  <si>
+    <t>wizzard_05</t>
+  </si>
+  <si>
+    <t>flight(up to 3 cards drop, each +1 escape);pacification(drop hand (no less than 3 cards) and monster.kill())</t>
+  </si>
+  <si>
+    <t>other_type</t>
+  </si>
+  <si>
+    <t>wandering_monster_01</t>
+  </si>
+  <si>
+    <t>buff</t>
+  </si>
+  <si>
+    <t>wandering_monster_02</t>
+  </si>
+  <si>
+    <t>wandering_monster_03</t>
+  </si>
+  <si>
+    <t>wandering_monster_04</t>
+  </si>
+  <si>
+    <t>wandering_monster_05</t>
+  </si>
+  <si>
+    <t>wandering_monster_06</t>
+  </si>
+  <si>
+    <t>wandering_monster_07</t>
+  </si>
+  <si>
+    <t>battle.extend_monster()</t>
+  </si>
+  <si>
+    <t>sleeping</t>
+  </si>
+  <si>
+    <t>monster_buff</t>
+  </si>
+  <si>
+    <t>monster_wandering</t>
+  </si>
+  <si>
+    <t>baby</t>
+  </si>
+  <si>
+    <t>monster_update_level(-5, 'monster_buff');make_baby() or store somehow in memory, like monster statuses;treasure-1 but no more than 0</t>
+  </si>
+  <si>
+    <t>monster_update_level(-5, 'monster_buff');cant be played with enraged, miliaga;treasure-1  but no more than 0</t>
+  </si>
+  <si>
+    <t>monster_update_level(-5, 'monster_buff');cant be played with enraged;treasure-1  but no more than 0</t>
+  </si>
+  <si>
+    <t>very_depressed</t>
+  </si>
+  <si>
+    <t>big_honking_sword_of_character_whupping</t>
+  </si>
+  <si>
+    <t>monster_update_level(+10, 'monster_buff'); treasures+=2</t>
+  </si>
+  <si>
+    <t>humongous</t>
+  </si>
+  <si>
+    <t>if monster_name == 'rib' monster_update_level(+25, 'monster_buff'); else +10; treasures+=2</t>
+  </si>
+  <si>
+    <t>ancient</t>
+  </si>
+  <si>
+    <t>enraged</t>
+  </si>
+  <si>
+    <t>underdressed</t>
+  </si>
+  <si>
+    <t>intelligent</t>
+  </si>
+  <si>
+    <t>monster_update_level(+5, 'monster_buff'); treasures+=1</t>
+  </si>
+  <si>
+    <t>undead_01</t>
+  </si>
+  <si>
+    <t>monster_update_level(+5, 'monster_buff'); treasures+=2;make_undead()</t>
+  </si>
+  <si>
+    <t>undead_02</t>
+  </si>
+  <si>
+    <t>monster_update_level(+5, 'monster_buff'); treasures+=1;against clirics +5</t>
+  </si>
+  <si>
+    <t>from_hell</t>
+  </si>
+  <si>
+    <t>half_breed_01</t>
+  </si>
+  <si>
+    <t>half_breed_02</t>
+  </si>
+  <si>
+    <t>half_breed_03</t>
+  </si>
+  <si>
+    <t>half_breed_04</t>
+  </si>
+  <si>
+    <t>half_breed</t>
+  </si>
+  <si>
+    <t>extend_race()</t>
+  </si>
+  <si>
+    <t>super_munchkin_01</t>
+  </si>
+  <si>
+    <t>super_munchkin_02</t>
+  </si>
+  <si>
+    <t>super_munchkin_03</t>
+  </si>
+  <si>
+    <t>super_munchkin_04</t>
+  </si>
+  <si>
+    <t>super_munchkin</t>
+  </si>
+  <si>
+    <t>extend_pclass()</t>
+  </si>
+  <si>
+    <t>cheat</t>
+  </si>
+  <si>
+    <t>allow_notallowed()</t>
+  </si>
+  <si>
+    <t>cheat_01</t>
+  </si>
+  <si>
+    <t>cheat_02</t>
+  </si>
+  <si>
+    <t>cheat_03</t>
+  </si>
+  <si>
+    <t>anihilation</t>
+  </si>
+  <si>
+    <t>anihilation()</t>
+  </si>
+  <si>
+    <t>divine_interdiction</t>
+  </si>
+  <si>
+    <t>divine_interdiction()</t>
+  </si>
+  <si>
+    <t>find_a_map</t>
+  </si>
+  <si>
+    <t>find_a_map - watch 3 upper cards</t>
+  </si>
+  <si>
+    <t>help_me_out_here</t>
+  </si>
+  <si>
+    <t>take_cards_from_player(condition='fight;helps to win')</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="4" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -224,13 +1350,43 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFF0000"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="8"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -245,8 +1401,11 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="1">
+  <cellXfs count="4">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -561,10 +1720,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835D834E-D9E6-49F6-98E3-A07AA920BC51}">
-  <dimension ref="A1:I5"/>
+  <dimension ref="A1:J92"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="F8" sqref="F8"/>
+    <sheetView topLeftCell="A66" workbookViewId="0">
+      <selection activeCell="E91" sqref="E91"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -573,43 +1732,47 @@
     <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="5.42578125" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="7.7109375" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="59.5703125" customWidth="1"/>
-    <col min="6" max="6" width="9.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="53.7109375" bestFit="1" customWidth="1"/>
-    <col min="8" max="8" width="12.7109375" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="156.85546875" customWidth="1"/>
+    <col min="6" max="6" width="16.140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="48.7109375" customWidth="1"/>
+    <col min="9" max="9" width="5.140625" customWidth="1"/>
+    <col min="10" max="10" width="3.85546875" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>11</v>
+      </c>
+      <c r="D1" t="s">
+        <v>12</v>
+      </c>
+      <c r="E1" t="s">
         <v>13</v>
       </c>
-      <c r="B1" t="s">
+      <c r="F1" t="s">
+        <v>128</v>
+      </c>
+      <c r="G1" t="s">
         <v>14</v>
       </c>
-      <c r="C1" t="s">
+      <c r="H1" t="s">
         <v>15</v>
       </c>
-      <c r="D1" t="s">
+      <c r="I1" t="s">
         <v>16</v>
       </c>
-      <c r="E1" t="s">
+      <c r="J1" t="s">
         <v>17</v>
       </c>
-      <c r="F1" t="s">
-        <v>18</v>
-      </c>
-      <c r="G1" t="s">
-        <v>19</v>
-      </c>
-      <c r="H1" t="s">
-        <v>20</v>
-      </c>
-      <c r="I1" t="s">
-        <v>21</v>
-      </c>
-    </row>
-    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
         <v>0</v>
       </c>
@@ -623,24 +1786,24 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
+        <v>54</v>
+      </c>
+      <c r="G2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H2" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="F2" t="b">
-        <v>1</v>
-      </c>
-      <c r="G2" t="s">
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>3</v>
-      </c>
-      <c r="H2">
-        <v>1</v>
-      </c>
-      <c r="I2">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
-        <v>4</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -651,25 +1814,26 @@
       <c r="D3" t="b">
         <v>0</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="2" t="s">
+        <v>111</v>
+      </c>
+      <c r="F3" s="2"/>
+      <c r="G3" t="b">
+        <v>1</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>5</v>
-      </c>
-      <c r="F3" t="b">
-        <v>1</v>
-      </c>
-      <c r="G3" t="s">
-        <v>6</v>
-      </c>
-      <c r="H3">
-        <v>1</v>
-      </c>
-      <c r="I3">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>7</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -681,24 +1845,24 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>8</v>
-      </c>
-      <c r="F4" t="b">
-        <v>1</v>
-      </c>
-      <c r="G4" t="s">
-        <v>9</v>
-      </c>
-      <c r="H4">
-        <v>1</v>
+        <v>98</v>
+      </c>
+      <c r="G4" t="b">
+        <v>1</v>
+      </c>
+      <c r="H4" s="1" t="s">
+        <v>6</v>
       </c>
       <c r="I4">
         <v>1</v>
       </c>
-    </row>
-    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="J4">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -710,19 +1874,2550 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
+        <v>91</v>
+      </c>
+      <c r="G5" t="b">
+        <v>1</v>
+      </c>
+      <c r="H5" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>53</v>
+      </c>
+      <c r="B6" t="s">
+        <v>1</v>
+      </c>
+      <c r="C6">
+        <v>4</v>
+      </c>
+      <c r="D6" t="b">
+        <v>0</v>
+      </c>
+      <c r="E6" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F6" s="1"/>
+      <c r="G6" t="b">
+        <v>1</v>
+      </c>
+      <c r="H6" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="I6">
+        <v>1</v>
+      </c>
+      <c r="J6">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>55</v>
+      </c>
+      <c r="B7" t="s">
+        <v>1</v>
+      </c>
+      <c r="C7">
+        <v>3</v>
+      </c>
+      <c r="D7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E7" s="1" t="s">
+        <v>58</v>
+      </c>
+      <c r="F7" s="1"/>
+      <c r="G7" t="b">
+        <v>1</v>
+      </c>
+      <c r="H7" s="1" t="s">
+        <v>57</v>
+      </c>
+      <c r="I7">
+        <v>1</v>
+      </c>
+      <c r="J7">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>59</v>
+      </c>
+      <c r="B8" t="s">
+        <v>1</v>
+      </c>
+      <c r="C8">
+        <v>15</v>
+      </c>
+      <c r="D8" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>80</v>
+      </c>
+      <c r="F8" s="1"/>
+      <c r="G8" t="b">
+        <v>1</v>
+      </c>
+      <c r="H8" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="I8">
+        <v>2</v>
+      </c>
+      <c r="J8">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>61</v>
+      </c>
+      <c r="B9" t="s">
+        <v>1</v>
+      </c>
+      <c r="C9">
+        <v>3</v>
+      </c>
+      <c r="D9" t="b">
+        <v>0</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>63</v>
+      </c>
+      <c r="F9" s="2"/>
+      <c r="G9" t="b">
+        <v>1</v>
+      </c>
+      <c r="H9" s="1" t="s">
+        <v>62</v>
+      </c>
+      <c r="I9">
+        <v>1</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>65</v>
+      </c>
+      <c r="B10" t="s">
+        <v>1</v>
+      </c>
+      <c r="C10">
+        <v>14</v>
+      </c>
+      <c r="D10" t="b">
+        <v>0</v>
+      </c>
+      <c r="E10" t="s">
+        <v>219</v>
+      </c>
+      <c r="G10" t="b">
+        <v>1</v>
+      </c>
+      <c r="H10" s="1" t="s">
+        <v>64</v>
+      </c>
+      <c r="I10">
+        <v>1</v>
+      </c>
+      <c r="J10">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>66</v>
+      </c>
+      <c r="B11" t="s">
+        <v>1</v>
+      </c>
+      <c r="C11">
+        <v>12</v>
+      </c>
+      <c r="D11" t="b">
+        <v>0</v>
+      </c>
+      <c r="E11" s="2" t="s">
+        <v>119</v>
+      </c>
+      <c r="F11" s="2"/>
+      <c r="G11" t="b">
+        <v>1</v>
+      </c>
+      <c r="H11" s="1" t="s">
+        <v>149</v>
+      </c>
+      <c r="I11">
+        <v>1</v>
+      </c>
+      <c r="J11">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>67</v>
+      </c>
+      <c r="B12" t="s">
+        <v>1</v>
+      </c>
+      <c r="C12">
+        <v>17</v>
+      </c>
+      <c r="D12" t="b">
+        <v>1</v>
+      </c>
+      <c r="E12" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" t="b">
+        <v>1</v>
+      </c>
+      <c r="H12" s="1" t="s">
+        <v>68</v>
+      </c>
+      <c r="I12">
+        <v>2</v>
+      </c>
+      <c r="J12">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>70</v>
+      </c>
+      <c r="B13" t="s">
+        <v>1</v>
+      </c>
+      <c r="C13">
+        <v>2</v>
+      </c>
+      <c r="D13" t="b">
+        <v>0</v>
+      </c>
+      <c r="E13" t="s">
+        <v>71</v>
+      </c>
+      <c r="G13" t="b">
+        <v>1</v>
+      </c>
+      <c r="H13" s="1" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>75</v>
+      </c>
+      <c r="B14" t="s">
+        <v>1</v>
+      </c>
+      <c r="C14">
+        <v>2</v>
+      </c>
+      <c r="D14" t="b">
+        <v>0</v>
+      </c>
+      <c r="E14" t="s">
+        <v>73</v>
+      </c>
+      <c r="G14" t="b">
+        <v>1</v>
+      </c>
+      <c r="H14" s="1" t="s">
+        <v>74</v>
+      </c>
+      <c r="I14">
+        <v>1</v>
+      </c>
+      <c r="J14">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>76</v>
+      </c>
+      <c r="B15" t="s">
+        <v>1</v>
+      </c>
+      <c r="C15">
+        <v>15</v>
+      </c>
+      <c r="D15" t="b">
+        <v>0</v>
+      </c>
+      <c r="E15" t="s">
+        <v>69</v>
+      </c>
+      <c r="G15" t="b">
+        <v>1</v>
+      </c>
+      <c r="H15" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I15">
+        <v>2</v>
+      </c>
+      <c r="J15">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>78</v>
+      </c>
+      <c r="B16" t="s">
+        <v>1</v>
+      </c>
+      <c r="C16">
+        <v>8</v>
+      </c>
+      <c r="D16" t="b">
+        <v>0</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>79</v>
+      </c>
+      <c r="F16" s="1"/>
+      <c r="G16" t="b">
+        <v>1</v>
+      </c>
+      <c r="H16" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="I16">
+        <v>1</v>
+      </c>
+      <c r="J16">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>82</v>
+      </c>
+      <c r="B17" t="s">
+        <v>1</v>
+      </c>
+      <c r="C17">
+        <v>17</v>
+      </c>
+      <c r="D17" t="b">
+        <v>0</v>
+      </c>
+      <c r="E17" s="2" t="s">
+        <v>118</v>
+      </c>
+      <c r="F17" s="2"/>
+      <c r="G17" t="b">
+        <v>1</v>
+      </c>
+      <c r="H17" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I17">
+        <v>2</v>
+      </c>
+      <c r="J17">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>84</v>
+      </c>
+      <c r="B18" t="s">
+        <v>1</v>
+      </c>
+      <c r="C18">
+        <v>9</v>
+      </c>
+      <c r="D18" t="b">
+        <v>0</v>
+      </c>
+      <c r="E18" s="1" t="s">
+        <v>85</v>
+      </c>
+      <c r="F18" s="1"/>
+      <c r="G18" t="b">
+        <v>1</v>
+      </c>
+      <c r="H18" s="1" t="s">
+        <v>86</v>
+      </c>
+      <c r="I18">
+        <v>1</v>
+      </c>
+      <c r="J18">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>88</v>
+      </c>
+      <c r="B19" t="s">
+        <v>1</v>
+      </c>
+      <c r="C19">
+        <v>12</v>
+      </c>
+      <c r="D19" t="b">
+        <v>0</v>
+      </c>
+      <c r="E19" s="2" t="s">
+        <v>87</v>
+      </c>
+      <c r="F19" s="2"/>
+      <c r="G19" t="b">
+        <v>1</v>
+      </c>
+      <c r="H19" s="1" t="s">
+        <v>94</v>
+      </c>
+      <c r="I19">
+        <v>1</v>
+      </c>
+      <c r="J19">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>90</v>
+      </c>
+      <c r="B20" t="s">
+        <v>1</v>
+      </c>
+      <c r="C20">
+        <v>13</v>
+      </c>
+      <c r="D20" t="b">
+        <v>0</v>
+      </c>
+      <c r="E20" t="s">
+        <v>92</v>
+      </c>
+      <c r="G20" t="b">
+        <v>1</v>
+      </c>
+      <c r="H20" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="I20">
+        <v>1</v>
+      </c>
+      <c r="J20">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="21" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>96</v>
+      </c>
+      <c r="B21" t="s">
+        <v>1</v>
+      </c>
+      <c r="C21">
+        <v>8</v>
+      </c>
+      <c r="D21" t="b">
+        <v>0</v>
+      </c>
+      <c r="E21" t="s">
+        <v>97</v>
+      </c>
+      <c r="G21" t="b">
+        <v>1</v>
+      </c>
+      <c r="H21" s="1" t="s">
+        <v>95</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>99</v>
+      </c>
+      <c r="B22" t="s">
+        <v>1</v>
+      </c>
+      <c r="C22">
+        <v>1</v>
+      </c>
+      <c r="D22" t="b">
+        <v>0</v>
+      </c>
+      <c r="E22" t="s">
+        <v>71</v>
+      </c>
+      <c r="G22" t="b">
+        <v>1</v>
+      </c>
+      <c r="H22" s="1" t="s">
+        <v>100</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="23" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>101</v>
+      </c>
+      <c r="B23" t="s">
+        <v>1</v>
+      </c>
+      <c r="C23">
+        <v>7</v>
+      </c>
+      <c r="D23" t="b">
+        <v>0</v>
+      </c>
+      <c r="E23" t="s">
+        <v>102</v>
+      </c>
+      <c r="G23" t="b">
+        <v>1</v>
+      </c>
+      <c r="H23" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>104</v>
+      </c>
+      <c r="B24" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24">
+        <v>7</v>
+      </c>
+      <c r="D24" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" t="s">
+        <v>137</v>
+      </c>
+      <c r="G24" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="1" t="s">
+        <v>105</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="25" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>108</v>
+      </c>
+      <c r="B25" t="s">
+        <v>1</v>
+      </c>
+      <c r="C25">
+        <v>7</v>
+      </c>
+      <c r="D25" t="b">
+        <v>0</v>
+      </c>
+      <c r="E25" s="1" t="s">
+        <v>106</v>
+      </c>
+      <c r="F25" s="1"/>
+      <c r="G25" t="b">
+        <v>1</v>
+      </c>
+      <c r="H25" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="I25">
+        <v>1</v>
+      </c>
+      <c r="J25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>110</v>
+      </c>
+      <c r="B26" t="s">
+        <v>1</v>
+      </c>
+      <c r="C26">
+        <v>4</v>
+      </c>
+      <c r="D26" t="b">
+        <v>0</v>
+      </c>
+      <c r="E26" t="s">
+        <v>112</v>
+      </c>
+      <c r="G26" t="b">
+        <v>1</v>
+      </c>
+      <c r="H26" s="1" t="s">
+        <v>109</v>
+      </c>
+      <c r="I26">
+        <v>1</v>
+      </c>
+      <c r="J26">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="27" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>113</v>
+      </c>
+      <c r="B27" t="s">
+        <v>1</v>
+      </c>
+      <c r="C27">
+        <v>8</v>
+      </c>
+      <c r="D27" t="b">
+        <v>0</v>
+      </c>
+      <c r="E27" t="s">
+        <v>117</v>
+      </c>
+      <c r="G27" t="b">
+        <v>1</v>
+      </c>
+      <c r="H27" s="1" t="s">
+        <v>114</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>116</v>
+      </c>
+      <c r="B28" t="s">
+        <v>1</v>
+      </c>
+      <c r="C28">
         <v>11</v>
       </c>
-      <c r="F5" t="b">
-        <v>1</v>
-      </c>
-      <c r="G5" t="s">
+      <c r="D28" t="b">
+        <v>1</v>
+      </c>
+      <c r="E28" t="s">
+        <v>136</v>
+      </c>
+      <c r="G28" t="b">
+        <v>1</v>
+      </c>
+      <c r="H28" s="1" t="s">
+        <v>115</v>
+      </c>
+      <c r="I28">
+        <v>1</v>
+      </c>
+      <c r="J28">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>121</v>
+      </c>
+      <c r="B29" t="s">
+        <v>1</v>
+      </c>
+      <c r="C29">
+        <v>6</v>
+      </c>
+      <c r="D29" t="b">
+        <v>0</v>
+      </c>
+      <c r="E29" t="s">
+        <v>135</v>
+      </c>
+      <c r="G29" t="b">
+        <v>1</v>
+      </c>
+      <c r="H29" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="I29">
+        <v>1</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="30" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>123</v>
+      </c>
+      <c r="B30" t="s">
+        <v>1</v>
+      </c>
+      <c r="C30">
+        <v>14</v>
+      </c>
+      <c r="D30" t="b">
+        <v>0</v>
+      </c>
+      <c r="E30" s="1" t="s">
+        <v>122</v>
+      </c>
+      <c r="F30" s="1"/>
+      <c r="G30" t="b">
+        <v>1</v>
+      </c>
+      <c r="H30" s="1" t="s">
+        <v>124</v>
+      </c>
+      <c r="I30">
+        <v>1</v>
+      </c>
+      <c r="J30">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="31" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>126</v>
+      </c>
+      <c r="B31" t="s">
+        <v>1</v>
+      </c>
+      <c r="C31">
+        <v>6</v>
+      </c>
+      <c r="D31" t="b">
+        <v>0</v>
+      </c>
+      <c r="E31" t="s">
+        <v>125</v>
+      </c>
+      <c r="G31" t="b">
+        <v>1</v>
+      </c>
+      <c r="H31" s="1" t="s">
+        <v>131</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="32" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>127</v>
+      </c>
+      <c r="B32" t="s">
+        <v>1</v>
+      </c>
+      <c r="C32">
+        <v>2</v>
+      </c>
+      <c r="D32" t="b">
+        <v>1</v>
+      </c>
+      <c r="F32" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="G32" t="b">
+        <v>1</v>
+      </c>
+      <c r="H32" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="33" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>132</v>
+      </c>
+      <c r="B33" t="s">
+        <v>1</v>
+      </c>
+      <c r="C33">
+        <v>4</v>
+      </c>
+      <c r="D33" t="b">
+        <v>0</v>
+      </c>
+      <c r="E33" t="s">
+        <v>134</v>
+      </c>
+      <c r="G33" t="b">
+        <v>1</v>
+      </c>
+      <c r="H33" s="1" t="s">
+        <v>129</v>
+      </c>
+      <c r="I33">
+        <v>1</v>
+      </c>
+      <c r="J33">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="34" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>133</v>
+      </c>
+      <c r="B34" t="s">
+        <v>1</v>
+      </c>
+      <c r="C34">
+        <v>1</v>
+      </c>
+      <c r="D34" t="b">
+        <v>0</v>
+      </c>
+      <c r="G34" t="b">
+        <v>1</v>
+      </c>
+      <c r="H34" s="1" t="s">
+        <v>139</v>
+      </c>
+      <c r="I34">
+        <v>1</v>
+      </c>
+      <c r="J34">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="35" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>138</v>
+      </c>
+      <c r="B35" t="s">
+        <v>1</v>
+      </c>
+      <c r="C35">
+        <v>2</v>
+      </c>
+      <c r="D35" t="b">
+        <v>0</v>
+      </c>
+      <c r="E35" t="s">
+        <v>141</v>
+      </c>
+      <c r="G35" t="b">
+        <v>1</v>
+      </c>
+      <c r="H35" s="1" t="s">
+        <v>140</v>
+      </c>
+      <c r="I35">
+        <v>1</v>
+      </c>
+      <c r="J35">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="36" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>143</v>
+      </c>
+      <c r="B36" t="s">
+        <v>1</v>
+      </c>
+      <c r="C36">
+        <v>19</v>
+      </c>
+      <c r="D36" t="b">
+        <v>0</v>
+      </c>
+      <c r="E36" t="s">
+        <v>142</v>
+      </c>
+      <c r="G36" t="b">
+        <v>1</v>
+      </c>
+      <c r="H36" s="1" t="s">
+        <v>83</v>
+      </c>
+      <c r="I36">
+        <v>2</v>
+      </c>
+      <c r="J36">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="37" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>144</v>
+      </c>
+      <c r="B37" t="s">
+        <v>1</v>
+      </c>
+      <c r="C37">
+        <v>18</v>
+      </c>
+      <c r="D37" t="b">
+        <v>0</v>
+      </c>
+      <c r="E37" t="s">
+        <v>145</v>
+      </c>
+      <c r="G37" t="b">
+        <v>1</v>
+      </c>
+      <c r="H37" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I37">
+        <v>2</v>
+      </c>
+      <c r="J37">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="38" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>146</v>
+      </c>
+      <c r="B38" t="s">
+        <v>1</v>
+      </c>
+      <c r="C38">
+        <v>16</v>
+      </c>
+      <c r="D38" t="b">
+        <v>0</v>
+      </c>
+      <c r="E38" t="s">
+        <v>147</v>
+      </c>
+      <c r="G38" t="b">
+        <v>1</v>
+      </c>
+      <c r="H38" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="I38">
+        <v>2</v>
+      </c>
+      <c r="J38">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>150</v>
+      </c>
+      <c r="B39" t="s">
+        <v>1</v>
+      </c>
+      <c r="C39">
+        <v>20</v>
+      </c>
+      <c r="D39" t="b">
+        <v>0</v>
+      </c>
+      <c r="E39" t="s">
+        <v>151</v>
+      </c>
+      <c r="G39" t="b">
+        <v>1</v>
+      </c>
+      <c r="H39" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I39">
+        <v>2</v>
+      </c>
+      <c r="J39">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>152</v>
+      </c>
+      <c r="B40" t="s">
+        <v>1</v>
+      </c>
+      <c r="C40">
+        <v>11</v>
+      </c>
+      <c r="D40" t="b">
+        <v>0</v>
+      </c>
+      <c r="E40" t="s">
+        <v>153</v>
+      </c>
+      <c r="G40" t="b">
+        <v>1</v>
+      </c>
+      <c r="H40" s="1" t="s">
+        <v>154</v>
+      </c>
+      <c r="I40">
+        <v>1</v>
+      </c>
+      <c r="J40">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>157</v>
+      </c>
+      <c r="B41" t="s">
+        <v>1</v>
+      </c>
+      <c r="C41">
+        <v>1</v>
+      </c>
+      <c r="D41" t="b">
+        <v>0</v>
+      </c>
+      <c r="E41" t="s">
+        <v>156</v>
+      </c>
+      <c r="G41" t="b">
+        <v>1</v>
+      </c>
+      <c r="H41" s="1" t="s">
+        <v>155</v>
+      </c>
+      <c r="I41">
+        <v>1</v>
+      </c>
+      <c r="J41">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>158</v>
+      </c>
+      <c r="B42" t="s">
+        <v>1</v>
+      </c>
+      <c r="C42">
+        <v>17</v>
+      </c>
+      <c r="D42" t="b">
+        <v>0</v>
+      </c>
+      <c r="E42" t="s">
+        <v>160</v>
+      </c>
+      <c r="G42" t="b">
+        <v>1</v>
+      </c>
+      <c r="H42" s="1" t="s">
+        <v>159</v>
+      </c>
+      <c r="I42">
+        <v>2</v>
+      </c>
+      <c r="J42">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>162</v>
+      </c>
+      <c r="B43" t="s">
+        <v>1</v>
+      </c>
+      <c r="C43">
+        <v>2</v>
+      </c>
+      <c r="D43" t="b">
+        <v>0</v>
+      </c>
+      <c r="E43" t="s">
+        <v>163</v>
+      </c>
+      <c r="G43" t="b">
+        <v>1</v>
+      </c>
+      <c r="H43" s="1" t="s">
+        <v>161</v>
+      </c>
+      <c r="I43">
+        <v>1</v>
+      </c>
+      <c r="J43">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>164</v>
+      </c>
+      <c r="B44" t="s">
+        <v>1</v>
+      </c>
+      <c r="C44">
+        <v>1</v>
+      </c>
+      <c r="D44" t="b">
+        <v>0</v>
+      </c>
+      <c r="E44" t="s">
+        <v>166</v>
+      </c>
+      <c r="G44" t="b">
+        <v>1</v>
+      </c>
+      <c r="H44" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I44">
+        <v>1</v>
+      </c>
+      <c r="J44">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A45" t="s">
+        <v>167</v>
+      </c>
+      <c r="B45" t="s">
+        <v>1</v>
+      </c>
+      <c r="C45">
+        <v>10</v>
+      </c>
+      <c r="D45" t="b">
+        <v>0</v>
+      </c>
+      <c r="E45" t="s">
+        <v>168</v>
+      </c>
+      <c r="G45" t="b">
+        <v>1</v>
+      </c>
+      <c r="H45" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="I45">
+        <v>1</v>
+      </c>
+      <c r="J45">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A46" t="s">
+        <v>171</v>
+      </c>
+      <c r="B46" t="s">
+        <v>1</v>
+      </c>
+      <c r="C46">
+        <v>5</v>
+      </c>
+      <c r="D46" t="b">
+        <v>0</v>
+      </c>
+      <c r="E46" t="s">
+        <v>111</v>
+      </c>
+      <c r="G46" t="b">
+        <v>1</v>
+      </c>
+      <c r="H46" s="1" t="s">
+        <v>170</v>
+      </c>
+      <c r="I46">
+        <v>1</v>
+      </c>
+      <c r="J46">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A47" t="s">
+        <v>172</v>
+      </c>
+      <c r="B47" t="s">
+        <v>1</v>
+      </c>
+      <c r="C47">
+        <v>9</v>
+      </c>
+      <c r="D47" t="b">
+        <v>1</v>
+      </c>
+      <c r="E47" t="s">
+        <v>153</v>
+      </c>
+      <c r="G47" t="b">
+        <v>1</v>
+      </c>
+      <c r="H47" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I47">
+        <v>1</v>
+      </c>
+      <c r="J47">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A48" t="s">
+        <v>174</v>
+      </c>
+      <c r="B48" t="s">
+        <v>1</v>
+      </c>
+      <c r="C48">
+        <v>11</v>
+      </c>
+      <c r="D48" t="b">
+        <v>0</v>
+      </c>
+      <c r="E48" t="s">
+        <v>175</v>
+      </c>
+      <c r="G48" t="b">
+        <v>1</v>
+      </c>
+      <c r="H48" s="1" t="s">
+        <v>176</v>
+      </c>
+      <c r="I48">
+        <v>1</v>
+      </c>
+      <c r="J48">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="49" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A49" t="s">
+        <v>177</v>
+      </c>
+      <c r="B49" t="s">
+        <v>1</v>
+      </c>
+      <c r="C49">
+        <v>6</v>
+      </c>
+      <c r="D49" t="b">
+        <v>0</v>
+      </c>
+      <c r="E49" t="s">
+        <v>178</v>
+      </c>
+      <c r="G49" t="b">
+        <v>1</v>
+      </c>
+      <c r="H49" s="1" t="s">
+        <v>179</v>
+      </c>
+      <c r="I49">
+        <v>1</v>
+      </c>
+      <c r="J49">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50" spans="1:10" ht="15.75" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A50" t="s">
+        <v>180</v>
+      </c>
+      <c r="B50" t="s">
+        <v>1</v>
+      </c>
+      <c r="C50">
+        <v>20</v>
+      </c>
+      <c r="D50" t="b">
+        <v>0</v>
+      </c>
+      <c r="E50" s="1" t="s">
+        <v>181</v>
+      </c>
+      <c r="G50" t="b">
+        <v>1</v>
+      </c>
+      <c r="H50" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="I50">
+        <v>2</v>
+      </c>
+      <c r="J50">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="51" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A51" t="s">
+        <v>185</v>
+      </c>
+      <c r="B51" t="s">
+        <v>1</v>
+      </c>
+      <c r="C51">
         <v>12</v>
       </c>
-      <c r="H5">
-        <v>1</v>
-      </c>
-      <c r="I5">
+      <c r="D51" t="b">
+        <v>1</v>
+      </c>
+      <c r="E51" t="s">
+        <v>183</v>
+      </c>
+      <c r="G51" t="b">
+        <v>1</v>
+      </c>
+      <c r="H51" s="1" t="s">
+        <v>184</v>
+      </c>
+      <c r="I51">
+        <v>1</v>
+      </c>
+      <c r="J51">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="52" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A52" t="s">
+        <v>187</v>
+      </c>
+      <c r="B52" t="s">
+        <v>1</v>
+      </c>
+      <c r="C52">
+        <v>1</v>
+      </c>
+      <c r="D52" t="b">
+        <v>0</v>
+      </c>
+      <c r="E52" t="s">
+        <v>188</v>
+      </c>
+      <c r="G52" t="b">
+        <v>1</v>
+      </c>
+      <c r="H52" s="1" t="s">
+        <v>186</v>
+      </c>
+      <c r="I52">
+        <v>1</v>
+      </c>
+      <c r="J52">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="53" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A53" t="s">
+        <v>189</v>
+      </c>
+      <c r="B53" t="s">
+        <v>1</v>
+      </c>
+      <c r="C53">
+        <v>5</v>
+      </c>
+      <c r="D53" t="b">
+        <v>0</v>
+      </c>
+      <c r="E53" t="s">
+        <v>111</v>
+      </c>
+      <c r="G53" t="b">
+        <v>1</v>
+      </c>
+      <c r="H53" s="1" t="s">
+        <v>190</v>
+      </c>
+      <c r="I53">
+        <v>1</v>
+      </c>
+      <c r="J53">
         <v>2</v>
+      </c>
+    </row>
+    <row r="54" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A54" t="s">
+        <v>191</v>
+      </c>
+      <c r="B54" t="s">
+        <v>1</v>
+      </c>
+      <c r="C54">
+        <v>7</v>
+      </c>
+      <c r="D54" t="b">
+        <v>0</v>
+      </c>
+      <c r="E54" t="s">
+        <v>165</v>
+      </c>
+      <c r="G54" t="b">
+        <v>1</v>
+      </c>
+      <c r="H54" s="1" t="s">
+        <v>192</v>
+      </c>
+      <c r="I54">
+        <v>1</v>
+      </c>
+      <c r="J54">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="55" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A55" t="s">
+        <v>194</v>
+      </c>
+      <c r="B55" t="s">
+        <v>1</v>
+      </c>
+      <c r="C55">
+        <v>4</v>
+      </c>
+      <c r="D55" t="b">
+        <v>1</v>
+      </c>
+      <c r="E55" t="s">
+        <v>193</v>
+      </c>
+      <c r="G55" t="b">
+        <v>1</v>
+      </c>
+      <c r="H55" s="1" t="s">
+        <v>195</v>
+      </c>
+      <c r="I55">
+        <v>1</v>
+      </c>
+      <c r="J55">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="56" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A56" t="s">
+        <v>196</v>
+      </c>
+      <c r="B56" t="s">
+        <v>1</v>
+      </c>
+      <c r="C56">
+        <v>18</v>
+      </c>
+      <c r="D56" t="b">
+        <v>0</v>
+      </c>
+      <c r="E56" t="s">
+        <v>197</v>
+      </c>
+      <c r="G56" t="b">
+        <v>1</v>
+      </c>
+      <c r="H56" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I56">
+        <v>2</v>
+      </c>
+      <c r="J56">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="57" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A57" t="s">
+        <v>198</v>
+      </c>
+      <c r="B57" t="s">
+        <v>1</v>
+      </c>
+      <c r="C57">
+        <v>7</v>
+      </c>
+      <c r="D57" t="b">
+        <v>0</v>
+      </c>
+      <c r="E57" t="s">
+        <v>199</v>
+      </c>
+      <c r="G57" t="b">
+        <v>1</v>
+      </c>
+      <c r="H57" s="1" t="s">
+        <v>89</v>
+      </c>
+      <c r="I57">
+        <v>1</v>
+      </c>
+      <c r="J57">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="58" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A58" t="s">
+        <v>202</v>
+      </c>
+      <c r="B58" t="s">
+        <v>1</v>
+      </c>
+      <c r="C58">
+        <v>16</v>
+      </c>
+      <c r="D58" t="b">
+        <v>1</v>
+      </c>
+      <c r="E58" t="s">
+        <v>147</v>
+      </c>
+      <c r="F58" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G58" t="b">
+        <v>1</v>
+      </c>
+      <c r="H58" s="1" t="s">
+        <v>201</v>
+      </c>
+      <c r="I58">
+        <v>2</v>
+      </c>
+      <c r="J58">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="59" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A59" t="s">
+        <v>205</v>
+      </c>
+      <c r="B59" t="s">
+        <v>1</v>
+      </c>
+      <c r="C59">
+        <v>13</v>
+      </c>
+      <c r="D59" t="b">
+        <v>0</v>
+      </c>
+      <c r="E59" t="s">
+        <v>203</v>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" s="1" t="s">
+        <v>204</v>
+      </c>
+      <c r="I59">
+        <v>1</v>
+      </c>
+      <c r="J59">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A60" t="s">
+        <v>207</v>
+      </c>
+      <c r="B60" t="s">
+        <v>1</v>
+      </c>
+      <c r="C60">
+        <v>18</v>
+      </c>
+      <c r="D60" t="b">
+        <v>0</v>
+      </c>
+      <c r="E60" t="s">
+        <v>208</v>
+      </c>
+      <c r="G60" t="b">
+        <v>1</v>
+      </c>
+      <c r="H60" s="1" t="s">
+        <v>206</v>
+      </c>
+      <c r="I60">
+        <v>2</v>
+      </c>
+      <c r="J60">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A61" t="s">
+        <v>210</v>
+      </c>
+      <c r="B61" t="s">
+        <v>1</v>
+      </c>
+      <c r="C61">
+        <v>15</v>
+      </c>
+      <c r="D61" t="b">
+        <v>0</v>
+      </c>
+      <c r="E61" t="s">
+        <v>211</v>
+      </c>
+      <c r="G61" t="b">
+        <v>1</v>
+      </c>
+      <c r="H61" s="1" t="s">
+        <v>209</v>
+      </c>
+      <c r="I61">
+        <v>2</v>
+      </c>
+      <c r="J61">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="62" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A62" t="s">
+        <v>213</v>
+      </c>
+      <c r="B62" t="s">
+        <v>1</v>
+      </c>
+      <c r="C62">
+        <v>10</v>
+      </c>
+      <c r="D62" t="b">
+        <v>0</v>
+      </c>
+      <c r="E62" t="s">
+        <v>214</v>
+      </c>
+      <c r="G62" t="b">
+        <v>1</v>
+      </c>
+      <c r="H62" s="1" t="s">
+        <v>212</v>
+      </c>
+      <c r="I62">
+        <v>1</v>
+      </c>
+      <c r="J62">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A63" t="s">
+        <v>215</v>
+      </c>
+      <c r="B63" t="s">
+        <v>1</v>
+      </c>
+      <c r="C63">
+        <v>14</v>
+      </c>
+      <c r="D63" t="b">
+        <v>0</v>
+      </c>
+      <c r="E63" t="s">
+        <v>217</v>
+      </c>
+      <c r="G63" t="b">
+        <v>1</v>
+      </c>
+      <c r="H63" s="1" t="s">
+        <v>216</v>
+      </c>
+      <c r="I63">
+        <v>1</v>
+      </c>
+      <c r="J63">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A64" t="s">
+        <v>218</v>
+      </c>
+      <c r="B64" t="s">
+        <v>1</v>
+      </c>
+      <c r="C64">
+        <v>1</v>
+      </c>
+      <c r="D64" t="b">
+        <v>0</v>
+      </c>
+      <c r="E64" t="s">
+        <v>220</v>
+      </c>
+      <c r="G64" t="b">
+        <v>1</v>
+      </c>
+      <c r="I64">
+        <v>1</v>
+      </c>
+      <c r="J64">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="65" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A65" t="s">
+        <v>222</v>
+      </c>
+      <c r="B65" t="s">
+        <v>1</v>
+      </c>
+      <c r="C65">
+        <v>4</v>
+      </c>
+      <c r="D65" t="b">
+        <v>0</v>
+      </c>
+      <c r="E65" t="s">
+        <v>54</v>
+      </c>
+      <c r="G65" t="b">
+        <v>1</v>
+      </c>
+      <c r="H65" s="1" t="s">
+        <v>221</v>
+      </c>
+      <c r="I65">
+        <v>1</v>
+      </c>
+      <c r="J65">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="66" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A66" t="s">
+        <v>223</v>
+      </c>
+      <c r="B66" t="s">
+        <v>1</v>
+      </c>
+      <c r="C66">
+        <v>1</v>
+      </c>
+      <c r="D66" t="b">
+        <v>0</v>
+      </c>
+      <c r="G66" t="b">
+        <v>0</v>
+      </c>
+      <c r="H66" s="1" t="s">
+        <v>224</v>
+      </c>
+      <c r="I66">
+        <v>1</v>
+      </c>
+      <c r="J66">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="67" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A67" t="s">
+        <v>226</v>
+      </c>
+      <c r="B67" t="s">
+        <v>1</v>
+      </c>
+      <c r="C67">
+        <v>8</v>
+      </c>
+      <c r="D67" t="b">
+        <v>0</v>
+      </c>
+      <c r="E67" s="1" t="s">
+        <v>225</v>
+      </c>
+      <c r="G67" t="b">
+        <v>1</v>
+      </c>
+      <c r="H67" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I67">
+        <v>1</v>
+      </c>
+      <c r="J67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A68" t="s">
+        <v>228</v>
+      </c>
+      <c r="B68" t="s">
+        <v>1</v>
+      </c>
+      <c r="C68">
+        <v>8</v>
+      </c>
+      <c r="D68" t="b">
+        <v>0</v>
+      </c>
+      <c r="E68" t="s">
+        <v>234</v>
+      </c>
+      <c r="G68" t="b">
+        <v>1</v>
+      </c>
+      <c r="H68" s="1" t="s">
+        <v>229</v>
+      </c>
+      <c r="I68">
+        <v>1</v>
+      </c>
+      <c r="J68">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="69" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A69" t="s">
+        <v>230</v>
+      </c>
+      <c r="B69" t="s">
+        <v>1</v>
+      </c>
+      <c r="C69">
+        <v>5</v>
+      </c>
+      <c r="D69" t="b">
+        <v>0</v>
+      </c>
+      <c r="E69" t="s">
+        <v>235</v>
+      </c>
+      <c r="G69" t="b">
+        <v>1</v>
+      </c>
+      <c r="H69" s="1" t="s">
+        <v>231</v>
+      </c>
+      <c r="I69">
+        <v>1</v>
+      </c>
+      <c r="J69">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="70" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A70" t="s">
+        <v>232</v>
+      </c>
+      <c r="B70" t="s">
+        <v>1</v>
+      </c>
+      <c r="C70">
+        <v>10</v>
+      </c>
+      <c r="D70" t="b">
+        <v>0</v>
+      </c>
+      <c r="G70" t="b">
+        <v>1</v>
+      </c>
+      <c r="H70" s="1" t="s">
+        <v>233</v>
+      </c>
+      <c r="I70">
+        <v>1</v>
+      </c>
+      <c r="J70">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A71" t="s">
+        <v>237</v>
+      </c>
+      <c r="B71" t="s">
+        <v>1</v>
+      </c>
+      <c r="C71">
+        <v>3</v>
+      </c>
+      <c r="D71" t="b">
+        <v>0</v>
+      </c>
+      <c r="E71" s="1" t="s">
+        <v>236</v>
+      </c>
+      <c r="G71" t="b">
+        <v>1</v>
+      </c>
+      <c r="H71" s="1" t="s">
+        <v>130</v>
+      </c>
+      <c r="I71">
+        <v>1</v>
+      </c>
+      <c r="J71">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="72" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A72" t="s">
+        <v>238</v>
+      </c>
+      <c r="B72" t="s">
+        <v>1</v>
+      </c>
+      <c r="C72">
+        <v>16</v>
+      </c>
+      <c r="D72" t="b">
+        <v>1</v>
+      </c>
+      <c r="E72" t="s">
+        <v>147</v>
+      </c>
+      <c r="F72" s="3" t="s">
+        <v>200</v>
+      </c>
+      <c r="G72" t="b">
+        <v>1</v>
+      </c>
+      <c r="H72" s="1" t="s">
+        <v>239</v>
+      </c>
+      <c r="I72">
+        <v>2</v>
+      </c>
+      <c r="J72">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="73" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A73" t="s">
+        <v>241</v>
+      </c>
+      <c r="B73" t="s">
+        <v>1</v>
+      </c>
+      <c r="C73">
+        <v>9</v>
+      </c>
+      <c r="D73" t="b">
+        <v>0</v>
+      </c>
+      <c r="E73" t="s">
+        <v>240</v>
+      </c>
+      <c r="G73" t="b">
+        <v>1</v>
+      </c>
+      <c r="H73" s="1" t="s">
+        <v>242</v>
+      </c>
+      <c r="I73">
+        <v>1</v>
+      </c>
+      <c r="J73">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="74" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A74" t="s">
+        <v>243</v>
+      </c>
+      <c r="B74" t="s">
+        <v>1</v>
+      </c>
+      <c r="C74">
+        <v>1</v>
+      </c>
+      <c r="D74" t="b">
+        <v>0</v>
+      </c>
+      <c r="E74" t="s">
+        <v>142</v>
+      </c>
+      <c r="G74" t="b">
+        <v>1</v>
+      </c>
+      <c r="H74" s="1" t="s">
+        <v>244</v>
+      </c>
+      <c r="I74">
+        <v>1</v>
+      </c>
+      <c r="J74">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="75" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A75" t="s">
+        <v>245</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1</v>
+      </c>
+      <c r="C75">
+        <v>10</v>
+      </c>
+      <c r="D75" t="b">
+        <v>0</v>
+      </c>
+      <c r="E75" s="1" t="s">
+        <v>246</v>
+      </c>
+      <c r="G75" t="b">
+        <v>0</v>
+      </c>
+      <c r="H75" s="1" t="s">
+        <v>227</v>
+      </c>
+      <c r="I75">
+        <v>1</v>
+      </c>
+      <c r="J75">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="76" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A76" t="s">
+        <v>247</v>
+      </c>
+      <c r="B76" t="s">
+        <v>1</v>
+      </c>
+      <c r="C76">
+        <v>5</v>
+      </c>
+      <c r="D76" t="b">
+        <v>0</v>
+      </c>
+      <c r="E76" s="1" t="s">
+        <v>248</v>
+      </c>
+      <c r="G76" t="b">
+        <v>1</v>
+      </c>
+      <c r="H76" s="1" t="s">
+        <v>249</v>
+      </c>
+      <c r="I76">
+        <v>1</v>
+      </c>
+      <c r="J76">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="77" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A77" t="s">
+        <v>250</v>
+      </c>
+      <c r="B77" t="s">
+        <v>1</v>
+      </c>
+      <c r="C77">
+        <v>5</v>
+      </c>
+      <c r="D77" t="b">
+        <v>1</v>
+      </c>
+      <c r="E77" t="s">
+        <v>251</v>
+      </c>
+      <c r="G77" t="b">
+        <v>1</v>
+      </c>
+      <c r="H77" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I77">
+        <v>1</v>
+      </c>
+      <c r="J77">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="78" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A78" t="s">
+        <v>253</v>
+      </c>
+      <c r="B78" t="s">
+        <v>1</v>
+      </c>
+      <c r="C78">
+        <v>16</v>
+      </c>
+      <c r="D78" t="b">
+        <v>0</v>
+      </c>
+      <c r="E78" s="1" t="s">
+        <v>254</v>
+      </c>
+      <c r="F78" s="3" t="s">
+        <v>256</v>
+      </c>
+      <c r="G78" t="b">
+        <v>1</v>
+      </c>
+      <c r="H78" s="1" t="s">
+        <v>255</v>
+      </c>
+      <c r="I78">
+        <v>2</v>
+      </c>
+      <c r="J78">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="79" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A79" t="s">
+        <v>257</v>
+      </c>
+      <c r="B79" t="s">
+        <v>1</v>
+      </c>
+      <c r="C79">
+        <v>4</v>
+      </c>
+      <c r="D79" t="b">
+        <v>0</v>
+      </c>
+      <c r="E79" t="s">
+        <v>258</v>
+      </c>
+      <c r="G79" t="b">
+        <v>1</v>
+      </c>
+      <c r="H79" s="1" t="s">
+        <v>259</v>
+      </c>
+      <c r="I79">
+        <v>1</v>
+      </c>
+      <c r="J79">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="80" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A80" t="s">
+        <v>260</v>
+      </c>
+      <c r="B80" t="s">
+        <v>1</v>
+      </c>
+      <c r="C80">
+        <v>11</v>
+      </c>
+      <c r="D80" t="b">
+        <v>1</v>
+      </c>
+      <c r="G80" t="b">
+        <v>0</v>
+      </c>
+      <c r="H80" s="1" t="s">
+        <v>261</v>
+      </c>
+      <c r="I80">
+        <v>1</v>
+      </c>
+      <c r="J80">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="81" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A81" t="s">
+        <v>262</v>
+      </c>
+      <c r="B81" t="s">
+        <v>1</v>
+      </c>
+      <c r="C81">
+        <v>13</v>
+      </c>
+      <c r="D81" t="b">
+        <v>0</v>
+      </c>
+      <c r="E81" s="3" t="s">
+        <v>263</v>
+      </c>
+      <c r="G81" t="b">
+        <v>1</v>
+      </c>
+      <c r="H81" s="1" t="s">
+        <v>264</v>
+      </c>
+      <c r="I81">
+        <v>1</v>
+      </c>
+      <c r="J81">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A82" t="s">
+        <v>265</v>
+      </c>
+      <c r="B82" t="s">
+        <v>1</v>
+      </c>
+      <c r="C82">
+        <v>14</v>
+      </c>
+      <c r="D82" t="b">
+        <v>0</v>
+      </c>
+      <c r="E82" s="3" t="s">
+        <v>266</v>
+      </c>
+      <c r="G82" t="b">
+        <v>1</v>
+      </c>
+      <c r="H82" s="1" t="s">
+        <v>77</v>
+      </c>
+      <c r="I82">
+        <v>1</v>
+      </c>
+      <c r="J82">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A83" t="s">
+        <v>267</v>
+      </c>
+      <c r="B83" t="s">
+        <v>1</v>
+      </c>
+      <c r="C83">
+        <v>2</v>
+      </c>
+      <c r="D83" t="b">
+        <v>0</v>
+      </c>
+      <c r="E83" s="3" t="s">
+        <v>268</v>
+      </c>
+      <c r="G83" t="b">
+        <v>1</v>
+      </c>
+      <c r="H83" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="I83">
+        <v>1</v>
+      </c>
+      <c r="J83">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="84" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A84" t="s">
+        <v>270</v>
+      </c>
+      <c r="B84" t="s">
+        <v>1</v>
+      </c>
+      <c r="C84">
+        <v>12</v>
+      </c>
+      <c r="D84" t="b">
+        <v>0</v>
+      </c>
+      <c r="E84" s="3" t="s">
+        <v>271</v>
+      </c>
+      <c r="G84" t="b">
+        <v>1</v>
+      </c>
+      <c r="H84" s="1" t="s">
+        <v>173</v>
+      </c>
+      <c r="I84">
+        <v>1</v>
+      </c>
+      <c r="J84">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A85" t="s">
+        <v>272</v>
+      </c>
+      <c r="B85" t="s">
+        <v>1</v>
+      </c>
+      <c r="C85">
+        <v>2</v>
+      </c>
+      <c r="D85" t="b">
+        <v>0</v>
+      </c>
+      <c r="E85" s="3" t="s">
+        <v>273</v>
+      </c>
+      <c r="G85" t="b">
+        <v>1</v>
+      </c>
+      <c r="H85" s="1" t="s">
+        <v>252</v>
+      </c>
+      <c r="I85">
+        <v>1</v>
+      </c>
+      <c r="J85">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A86" t="s">
+        <v>274</v>
+      </c>
+      <c r="B86" t="s">
+        <v>1</v>
+      </c>
+      <c r="C86">
+        <v>6</v>
+      </c>
+      <c r="D86" t="b">
+        <v>0</v>
+      </c>
+      <c r="E86" t="s">
+        <v>275</v>
+      </c>
+      <c r="F86" s="3" t="s">
+        <v>276</v>
+      </c>
+      <c r="G86" t="b">
+        <v>1</v>
+      </c>
+      <c r="H86" s="1" t="s">
+        <v>277</v>
+      </c>
+      <c r="I86">
+        <v>1</v>
+      </c>
+      <c r="J86">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="87" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A87" t="s">
+        <v>278</v>
+      </c>
+      <c r="B87" t="s">
+        <v>1</v>
+      </c>
+      <c r="C87">
+        <v>13</v>
+      </c>
+      <c r="D87" t="b">
+        <v>0</v>
+      </c>
+      <c r="E87" s="3" t="s">
+        <v>279</v>
+      </c>
+      <c r="G87" t="b">
+        <v>1</v>
+      </c>
+      <c r="H87" s="1" t="s">
+        <v>280</v>
+      </c>
+      <c r="I87">
+        <v>1</v>
+      </c>
+      <c r="J87">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A88" t="s">
+        <v>281</v>
+      </c>
+      <c r="B88" t="s">
+        <v>1</v>
+      </c>
+      <c r="C88">
+        <v>15</v>
+      </c>
+      <c r="D88" t="b">
+        <v>0</v>
+      </c>
+      <c r="E88" s="3" t="s">
+        <v>282</v>
+      </c>
+      <c r="G88" t="b">
+        <v>1</v>
+      </c>
+      <c r="H88" s="1" t="s">
+        <v>283</v>
+      </c>
+      <c r="I88">
+        <v>2</v>
+      </c>
+      <c r="J88">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="89" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A89" t="s">
+        <v>284</v>
+      </c>
+      <c r="B89" t="s">
+        <v>1</v>
+      </c>
+      <c r="C89">
+        <v>9</v>
+      </c>
+      <c r="D89" t="b">
+        <v>0</v>
+      </c>
+      <c r="E89" s="3" t="s">
+        <v>285</v>
+      </c>
+      <c r="G89" t="b">
+        <v>1</v>
+      </c>
+      <c r="H89" s="1" t="s">
+        <v>286</v>
+      </c>
+      <c r="I89">
+        <v>1</v>
+      </c>
+      <c r="J89">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A90" t="s">
+        <v>287</v>
+      </c>
+      <c r="B90" t="s">
+        <v>1</v>
+      </c>
+      <c r="C90">
+        <v>3</v>
+      </c>
+      <c r="D90" t="b">
+        <v>0</v>
+      </c>
+      <c r="E90" s="3" t="s">
+        <v>288</v>
+      </c>
+      <c r="G90" t="b">
+        <v>1</v>
+      </c>
+      <c r="H90" s="1" t="s">
+        <v>289</v>
+      </c>
+      <c r="I90">
+        <v>1</v>
+      </c>
+      <c r="J90">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="91" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A91" t="s">
+        <v>292</v>
+      </c>
+      <c r="B91" t="s">
+        <v>1</v>
+      </c>
+      <c r="C91">
+        <v>6</v>
+      </c>
+      <c r="D91" t="b">
+        <v>0</v>
+      </c>
+      <c r="E91" s="3" t="s">
+        <v>295</v>
+      </c>
+      <c r="G91" t="b">
+        <v>1</v>
+      </c>
+      <c r="H91" s="1" t="s">
+        <v>290</v>
+      </c>
+      <c r="I91">
+        <v>1</v>
+      </c>
+      <c r="J91">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="92" spans="1:10" x14ac:dyDescent="0.25">
+      <c r="A92" t="s">
+        <v>293</v>
+      </c>
+      <c r="B92" t="s">
+        <v>1</v>
+      </c>
+      <c r="C92">
+        <v>2</v>
+      </c>
+      <c r="D92" t="b">
+        <v>0</v>
+      </c>
+      <c r="E92" s="3" t="s">
+        <v>294</v>
+      </c>
+      <c r="G92" t="b">
+        <v>1</v>
+      </c>
+      <c r="H92" s="1" t="s">
+        <v>291</v>
+      </c>
+      <c r="I92">
+        <v>1</v>
+      </c>
+      <c r="J92">
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -742,42 +4437,42 @@
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C1" t="s">
+        <v>19</v>
+      </c>
+      <c r="D1" t="s">
+        <v>20</v>
+      </c>
+      <c r="E1" t="s">
+        <v>21</v>
+      </c>
+      <c r="F1" t="s">
         <v>22</v>
       </c>
-      <c r="C1" t="s">
+      <c r="G1" t="s">
         <v>23</v>
       </c>
-      <c r="D1" t="s">
+      <c r="H1" t="s">
         <v>24</v>
-      </c>
-      <c r="E1" t="s">
-        <v>25</v>
-      </c>
-      <c r="F1" t="s">
-        <v>26</v>
-      </c>
-      <c r="G1" t="s">
-        <v>27</v>
-      </c>
-      <c r="H1" t="s">
-        <v>28</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>29</v>
+        <v>25</v>
       </c>
       <c r="B2" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C2" t="b">
         <v>0</v>
       </c>
       <c r="G2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="H2">
         <v>1300</v>
@@ -785,27 +4480,27 @@
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>32</v>
+        <v>28</v>
       </c>
       <c r="B3" t="s">
+        <v>26</v>
+      </c>
+      <c r="C3" t="b">
+        <v>0</v>
+      </c>
+      <c r="G3" t="s">
+        <v>29</v>
+      </c>
+      <c r="H3" t="s">
         <v>30</v>
-      </c>
-      <c r="C3" t="b">
-        <v>0</v>
-      </c>
-      <c r="G3" t="s">
-        <v>33</v>
-      </c>
-      <c r="H3" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>35</v>
+        <v>31</v>
       </c>
       <c r="B4" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C4" t="b">
         <v>0</v>
@@ -814,7 +4509,7 @@
         <v>3</v>
       </c>
       <c r="G4" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="H4">
         <v>200</v>
@@ -822,27 +4517,27 @@
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="B5" t="s">
+        <v>26</v>
+      </c>
+      <c r="C5" t="b">
+        <v>0</v>
+      </c>
+      <c r="G5" t="s">
+        <v>29</v>
+      </c>
+      <c r="H5" t="s">
         <v>30</v>
-      </c>
-      <c r="C5" t="b">
-        <v>0</v>
-      </c>
-      <c r="G5" t="s">
-        <v>33</v>
-      </c>
-      <c r="H5" t="s">
-        <v>34</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>38</v>
+        <v>34</v>
       </c>
       <c r="B6" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C6" t="b">
         <v>0</v>
@@ -856,16 +4551,16 @@
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>39</v>
+        <v>35</v>
       </c>
       <c r="B7" t="s">
-        <v>40</v>
+        <v>36</v>
       </c>
       <c r="C7" t="b">
         <v>1</v>
       </c>
       <c r="D7" t="s">
-        <v>41</v>
+        <v>37</v>
       </c>
       <c r="E7">
         <v>3</v>
@@ -876,16 +4571,16 @@
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>42</v>
+        <v>38</v>
       </c>
       <c r="B8" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C8" t="b">
         <v>0</v>
       </c>
       <c r="D8" t="s">
-        <v>44</v>
+        <v>40</v>
       </c>
       <c r="E8">
         <v>3</v>
@@ -899,16 +4594,16 @@
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>45</v>
+        <v>41</v>
       </c>
       <c r="B9" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C9" t="b">
         <v>0</v>
       </c>
       <c r="D9" t="s">
-        <v>46</v>
+        <v>42</v>
       </c>
       <c r="E9">
         <v>3</v>
@@ -922,10 +4617,10 @@
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>47</v>
+        <v>43</v>
       </c>
       <c r="B10" t="s">
-        <v>30</v>
+        <v>26</v>
       </c>
       <c r="C10" t="b">
         <v>0</v>
@@ -939,10 +4634,10 @@
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>48</v>
+        <v>44</v>
       </c>
       <c r="B11" t="s">
-        <v>49</v>
+        <v>45</v>
       </c>
       <c r="C11" t="b">
         <v>1</v>
@@ -953,16 +4648,16 @@
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>50</v>
+        <v>46</v>
       </c>
       <c r="B12" t="s">
-        <v>43</v>
+        <v>39</v>
       </c>
       <c r="C12" t="b">
         <v>1</v>
       </c>
       <c r="D12" t="s">
-        <v>51</v>
+        <v>47</v>
       </c>
       <c r="E12">
         <v>4</v>
@@ -981,10 +4676,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{9C68B534-F588-49B5-8895-CFA45CEC9E3A}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:D26"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -994,33 +4689,1290 @@
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>13</v>
+        <v>9</v>
       </c>
       <c r="B1" t="s">
-        <v>14</v>
+        <v>10</v>
       </c>
       <c r="C1" t="s">
-        <v>55</v>
+        <v>51</v>
       </c>
       <c r="D1" t="s">
-        <v>27</v>
+        <v>23</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>52</v>
       </c>
       <c r="B2" t="s">
-        <v>53</v>
+        <v>49</v>
       </c>
       <c r="C2" t="s">
-        <v>52</v>
+        <v>48</v>
       </c>
       <c r="D2" t="s">
-        <v>54</v>
+        <v>50</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>296</v>
+      </c>
+      <c r="B3" t="s">
+        <v>49</v>
+      </c>
+      <c r="C3" t="s">
+        <v>48</v>
+      </c>
+      <c r="D3" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>297</v>
+      </c>
+      <c r="B4" t="s">
+        <v>49</v>
+      </c>
+      <c r="C4" t="s">
+        <v>48</v>
+      </c>
+      <c r="D4" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>298</v>
+      </c>
+      <c r="B5" t="s">
+        <v>49</v>
+      </c>
+      <c r="C5" t="s">
+        <v>48</v>
+      </c>
+      <c r="D5" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>299</v>
+      </c>
+      <c r="B6" t="s">
+        <v>49</v>
+      </c>
+      <c r="C6" t="s">
+        <v>48</v>
+      </c>
+      <c r="D6" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>300</v>
+      </c>
+      <c r="B7" t="s">
+        <v>49</v>
+      </c>
+      <c r="C7" t="s">
+        <v>37</v>
+      </c>
+      <c r="D7" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>302</v>
+      </c>
+      <c r="B8" t="s">
+        <v>49</v>
+      </c>
+      <c r="C8" t="s">
+        <v>37</v>
+      </c>
+      <c r="D8" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>303</v>
+      </c>
+      <c r="B9" t="s">
+        <v>49</v>
+      </c>
+      <c r="C9" t="s">
+        <v>37</v>
+      </c>
+      <c r="D9" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>304</v>
+      </c>
+      <c r="B10" t="s">
+        <v>49</v>
+      </c>
+      <c r="C10" t="s">
+        <v>37</v>
+      </c>
+      <c r="D10" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>305</v>
+      </c>
+      <c r="B11" t="s">
+        <v>49</v>
+      </c>
+      <c r="C11" t="s">
+        <v>37</v>
+      </c>
+      <c r="D11" t="s">
+        <v>301</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>308</v>
+      </c>
+      <c r="B12" t="s">
+        <v>49</v>
+      </c>
+      <c r="C12" t="s">
+        <v>306</v>
+      </c>
+      <c r="D12" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>309</v>
+      </c>
+      <c r="B13" t="s">
+        <v>49</v>
+      </c>
+      <c r="C13" t="s">
+        <v>306</v>
+      </c>
+      <c r="D13" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>310</v>
+      </c>
+      <c r="B14" t="s">
+        <v>49</v>
+      </c>
+      <c r="C14" t="s">
+        <v>306</v>
+      </c>
+      <c r="D14" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>311</v>
+      </c>
+      <c r="B15" t="s">
+        <v>49</v>
+      </c>
+      <c r="C15" t="s">
+        <v>306</v>
+      </c>
+      <c r="D15" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>312</v>
+      </c>
+      <c r="B16" t="s">
+        <v>49</v>
+      </c>
+      <c r="C16" t="s">
+        <v>306</v>
+      </c>
+      <c r="D16" t="s">
+        <v>307</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>313</v>
+      </c>
+      <c r="B17" t="s">
+        <v>49</v>
+      </c>
+      <c r="C17" t="s">
+        <v>42</v>
+      </c>
+      <c r="D17" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>315</v>
+      </c>
+      <c r="B18" t="s">
+        <v>49</v>
+      </c>
+      <c r="C18" t="s">
+        <v>42</v>
+      </c>
+      <c r="D18" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>316</v>
+      </c>
+      <c r="B19" t="s">
+        <v>49</v>
+      </c>
+      <c r="C19" t="s">
+        <v>42</v>
+      </c>
+      <c r="D19" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>317</v>
+      </c>
+      <c r="B20" t="s">
+        <v>49</v>
+      </c>
+      <c r="C20" t="s">
+        <v>42</v>
+      </c>
+      <c r="D20" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>318</v>
+      </c>
+      <c r="B21" t="s">
+        <v>49</v>
+      </c>
+      <c r="C21" t="s">
+        <v>42</v>
+      </c>
+      <c r="D21" t="s">
+        <v>314</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>319</v>
+      </c>
+      <c r="B22" t="s">
+        <v>49</v>
+      </c>
+      <c r="C22" t="s">
+        <v>324</v>
+      </c>
+      <c r="D22" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>320</v>
+      </c>
+      <c r="B23" t="s">
+        <v>49</v>
+      </c>
+      <c r="C23" t="s">
+        <v>324</v>
+      </c>
+      <c r="D23" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>321</v>
+      </c>
+      <c r="B24" t="s">
+        <v>49</v>
+      </c>
+      <c r="C24" t="s">
+        <v>324</v>
+      </c>
+      <c r="D24" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>322</v>
+      </c>
+      <c r="B25" t="s">
+        <v>49</v>
+      </c>
+      <c r="C25" t="s">
+        <v>324</v>
+      </c>
+      <c r="D25" t="s">
+        <v>325</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>323</v>
+      </c>
+      <c r="B26" t="s">
+        <v>49</v>
+      </c>
+      <c r="C26" t="s">
+        <v>324</v>
+      </c>
+      <c r="D26" t="s">
+        <v>325</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{39618C8F-B340-4969-AF8F-5A82CBAC6BE5}">
+  <dimension ref="A1:D26"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:B1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>328</v>
+      </c>
+      <c r="B2" t="s">
+        <v>326</v>
+      </c>
+      <c r="C2" t="s">
+        <v>327</v>
+      </c>
+      <c r="D2" t="s">
+        <v>334</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>329</v>
+      </c>
+      <c r="B3" t="s">
+        <v>326</v>
+      </c>
+      <c r="C3" t="s">
+        <v>327</v>
+      </c>
+      <c r="D3" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>330</v>
+      </c>
+      <c r="B4" t="s">
+        <v>326</v>
+      </c>
+      <c r="C4" t="s">
+        <v>327</v>
+      </c>
+      <c r="D4" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>331</v>
+      </c>
+      <c r="B5" t="s">
+        <v>326</v>
+      </c>
+      <c r="C5" t="s">
+        <v>327</v>
+      </c>
+      <c r="D5" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>332</v>
+      </c>
+      <c r="B6" t="s">
+        <v>326</v>
+      </c>
+      <c r="C6" t="s">
+        <v>327</v>
+      </c>
+      <c r="D6" t="s">
+        <v>333</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>336</v>
+      </c>
+      <c r="B7" t="s">
+        <v>326</v>
+      </c>
+      <c r="C7" t="s">
+        <v>335</v>
+      </c>
+      <c r="D7" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>337</v>
+      </c>
+      <c r="B8" t="s">
+        <v>326</v>
+      </c>
+      <c r="C8" t="s">
+        <v>335</v>
+      </c>
+      <c r="D8" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>338</v>
+      </c>
+      <c r="B9" t="s">
+        <v>326</v>
+      </c>
+      <c r="C9" t="s">
+        <v>335</v>
+      </c>
+      <c r="D9" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>339</v>
+      </c>
+      <c r="B10" t="s">
+        <v>326</v>
+      </c>
+      <c r="C10" t="s">
+        <v>335</v>
+      </c>
+      <c r="D10" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>340</v>
+      </c>
+      <c r="B11" t="s">
+        <v>326</v>
+      </c>
+      <c r="C11" t="s">
+        <v>335</v>
+      </c>
+      <c r="D11" t="s">
+        <v>341</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>342</v>
+      </c>
+      <c r="B12" t="s">
+        <v>326</v>
+      </c>
+      <c r="C12" t="s">
+        <v>40</v>
+      </c>
+      <c r="D12" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>343</v>
+      </c>
+      <c r="B13" t="s">
+        <v>326</v>
+      </c>
+      <c r="C13" t="s">
+        <v>40</v>
+      </c>
+      <c r="D13" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>344</v>
+      </c>
+      <c r="B14" t="s">
+        <v>326</v>
+      </c>
+      <c r="C14" t="s">
+        <v>40</v>
+      </c>
+      <c r="D14" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>345</v>
+      </c>
+      <c r="B15" t="s">
+        <v>326</v>
+      </c>
+      <c r="C15" t="s">
+        <v>40</v>
+      </c>
+      <c r="D15" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>346</v>
+      </c>
+      <c r="B16" t="s">
+        <v>326</v>
+      </c>
+      <c r="C16" t="s">
+        <v>40</v>
+      </c>
+      <c r="D16" t="s">
+        <v>347</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>349</v>
+      </c>
+      <c r="B17" t="s">
+        <v>326</v>
+      </c>
+      <c r="C17" t="s">
+        <v>348</v>
+      </c>
+      <c r="D17" t="s">
+        <v>354</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>350</v>
+      </c>
+      <c r="B18" t="s">
+        <v>326</v>
+      </c>
+      <c r="C18" t="s">
+        <v>348</v>
+      </c>
+      <c r="D18" t="s">
+        <v>355</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>351</v>
+      </c>
+      <c r="B19" t="s">
+        <v>326</v>
+      </c>
+      <c r="C19" t="s">
+        <v>348</v>
+      </c>
+      <c r="D19" t="s">
+        <v>356</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>352</v>
+      </c>
+      <c r="B20" t="s">
+        <v>326</v>
+      </c>
+      <c r="C20" t="s">
+        <v>348</v>
+      </c>
+      <c r="D20" t="s">
+        <v>357</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>353</v>
+      </c>
+      <c r="B21" t="s">
+        <v>326</v>
+      </c>
+      <c r="C21" t="s">
+        <v>348</v>
+      </c>
+      <c r="D21" t="s">
+        <v>358</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>360</v>
+      </c>
+      <c r="B22" t="s">
+        <v>326</v>
+      </c>
+      <c r="C22" t="s">
+        <v>359</v>
+      </c>
+      <c r="D22" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>361</v>
+      </c>
+      <c r="B23" t="s">
+        <v>326</v>
+      </c>
+      <c r="C23" t="s">
+        <v>359</v>
+      </c>
+      <c r="D23" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>362</v>
+      </c>
+      <c r="B24" t="s">
+        <v>326</v>
+      </c>
+      <c r="C24" t="s">
+        <v>359</v>
+      </c>
+      <c r="D24" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>363</v>
+      </c>
+      <c r="B25" t="s">
+        <v>326</v>
+      </c>
+      <c r="C25" t="s">
+        <v>359</v>
+      </c>
+      <c r="D25" t="s">
+        <v>365</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>364</v>
+      </c>
+      <c r="B26" t="s">
+        <v>326</v>
+      </c>
+      <c r="C26" t="s">
+        <v>359</v>
+      </c>
+      <c r="D26" t="s">
+        <v>365</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{10DF2612-0327-4E5E-8151-854530FD8DC7}">
+  <dimension ref="A1:D36"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A16" workbookViewId="0">
+      <selection activeCell="D44" sqref="D44"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="22.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="5.85546875" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19.140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="73.42578125" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>9</v>
+      </c>
+      <c r="B1" t="s">
+        <v>10</v>
+      </c>
+      <c r="C1" t="s">
+        <v>366</v>
+      </c>
+      <c r="D1" t="s">
+        <v>368</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>367</v>
+      </c>
+      <c r="B2" t="s">
+        <v>36</v>
+      </c>
+      <c r="C2" t="s">
+        <v>378</v>
+      </c>
+      <c r="D2" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>369</v>
+      </c>
+      <c r="B3" t="s">
+        <v>36</v>
+      </c>
+      <c r="C3" t="s">
+        <v>378</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>370</v>
+      </c>
+      <c r="B4" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" t="s">
+        <v>378</v>
+      </c>
+      <c r="D4" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>371</v>
+      </c>
+      <c r="B5" t="s">
+        <v>36</v>
+      </c>
+      <c r="C5" t="s">
+        <v>378</v>
+      </c>
+      <c r="D5" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>372</v>
+      </c>
+      <c r="B6" t="s">
+        <v>36</v>
+      </c>
+      <c r="C6" t="s">
+        <v>378</v>
+      </c>
+      <c r="D6" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>373</v>
+      </c>
+      <c r="B7" t="s">
+        <v>36</v>
+      </c>
+      <c r="C7" t="s">
+        <v>378</v>
+      </c>
+      <c r="D7" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>374</v>
+      </c>
+      <c r="B8" t="s">
+        <v>36</v>
+      </c>
+      <c r="C8" t="s">
+        <v>378</v>
+      </c>
+      <c r="D8" s="1" t="s">
+        <v>375</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>376</v>
+      </c>
+      <c r="B9" t="s">
+        <v>36</v>
+      </c>
+      <c r="C9" t="s">
+        <v>377</v>
+      </c>
+      <c r="D9" s="1" t="s">
+        <v>381</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>379</v>
+      </c>
+      <c r="B10" t="s">
+        <v>36</v>
+      </c>
+      <c r="C10" t="s">
+        <v>377</v>
+      </c>
+      <c r="D10" s="1" t="s">
+        <v>380</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>383</v>
+      </c>
+      <c r="B11" t="s">
+        <v>36</v>
+      </c>
+      <c r="C11" t="s">
+        <v>377</v>
+      </c>
+      <c r="D11" s="1" t="s">
+        <v>382</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>384</v>
+      </c>
+      <c r="B12" t="s">
+        <v>36</v>
+      </c>
+      <c r="C12" t="s">
+        <v>377</v>
+      </c>
+      <c r="D12" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>384</v>
+      </c>
+      <c r="B13" t="s">
+        <v>36</v>
+      </c>
+      <c r="C13" t="s">
+        <v>377</v>
+      </c>
+      <c r="D13" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>386</v>
+      </c>
+      <c r="B14" t="s">
+        <v>36</v>
+      </c>
+      <c r="C14" t="s">
+        <v>377</v>
+      </c>
+      <c r="D14" s="1" t="s">
+        <v>387</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>388</v>
+      </c>
+      <c r="B15" t="s">
+        <v>36</v>
+      </c>
+      <c r="C15" t="s">
+        <v>377</v>
+      </c>
+      <c r="D15" s="1" t="s">
+        <v>385</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>389</v>
+      </c>
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+      <c r="C16" t="s">
+        <v>377</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>390</v>
+      </c>
+      <c r="B17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C17" t="s">
+        <v>377</v>
+      </c>
+      <c r="D17" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>391</v>
+      </c>
+      <c r="B18" t="s">
+        <v>36</v>
+      </c>
+      <c r="C18" t="s">
+        <v>377</v>
+      </c>
+      <c r="D18" s="1" t="s">
+        <v>392</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>393</v>
+      </c>
+      <c r="B19" t="s">
+        <v>36</v>
+      </c>
+      <c r="C19" t="s">
+        <v>377</v>
+      </c>
+      <c r="D19" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>395</v>
+      </c>
+      <c r="B20" t="s">
+        <v>36</v>
+      </c>
+      <c r="C20" t="s">
+        <v>377</v>
+      </c>
+      <c r="D20" s="1" t="s">
+        <v>394</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>397</v>
+      </c>
+      <c r="B21" t="s">
+        <v>36</v>
+      </c>
+      <c r="C21" t="s">
+        <v>377</v>
+      </c>
+      <c r="D21" s="1" t="s">
+        <v>396</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>398</v>
+      </c>
+      <c r="B22" t="s">
+        <v>36</v>
+      </c>
+      <c r="C22" t="s">
+        <v>402</v>
+      </c>
+      <c r="D22" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>399</v>
+      </c>
+      <c r="B23" t="s">
+        <v>36</v>
+      </c>
+      <c r="C23" t="s">
+        <v>402</v>
+      </c>
+      <c r="D23" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>400</v>
+      </c>
+      <c r="B24" t="s">
+        <v>36</v>
+      </c>
+      <c r="C24" t="s">
+        <v>402</v>
+      </c>
+      <c r="D24" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>401</v>
+      </c>
+      <c r="B25" t="s">
+        <v>36</v>
+      </c>
+      <c r="C25" t="s">
+        <v>402</v>
+      </c>
+      <c r="D25" s="1" t="s">
+        <v>403</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>404</v>
+      </c>
+      <c r="B26" t="s">
+        <v>36</v>
+      </c>
+      <c r="C26" t="s">
+        <v>408</v>
+      </c>
+      <c r="D26" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>405</v>
+      </c>
+      <c r="B27" t="s">
+        <v>36</v>
+      </c>
+      <c r="C27" t="s">
+        <v>408</v>
+      </c>
+      <c r="D27" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>406</v>
+      </c>
+      <c r="B28" t="s">
+        <v>36</v>
+      </c>
+      <c r="C28" t="s">
+        <v>408</v>
+      </c>
+      <c r="D28" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>407</v>
+      </c>
+      <c r="B29" t="s">
+        <v>36</v>
+      </c>
+      <c r="C29" t="s">
+        <v>408</v>
+      </c>
+      <c r="D29" s="1" t="s">
+        <v>409</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>412</v>
+      </c>
+      <c r="B30" t="s">
+        <v>36</v>
+      </c>
+      <c r="C30" t="s">
+        <v>410</v>
+      </c>
+      <c r="D30" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>413</v>
+      </c>
+      <c r="B31" t="s">
+        <v>36</v>
+      </c>
+      <c r="C31" t="s">
+        <v>410</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>414</v>
+      </c>
+      <c r="B32" t="s">
+        <v>36</v>
+      </c>
+      <c r="C32" t="s">
+        <v>410</v>
+      </c>
+      <c r="D32" s="3" t="s">
+        <v>411</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>415</v>
+      </c>
+      <c r="B33" t="s">
+        <v>36</v>
+      </c>
+      <c r="C33" t="s">
+        <v>415</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>416</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>417</v>
+      </c>
+      <c r="B34" t="s">
+        <v>36</v>
+      </c>
+      <c r="C34" t="s">
+        <v>417</v>
+      </c>
+      <c r="D34" s="3" t="s">
+        <v>418</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>419</v>
+      </c>
+      <c r="B35" t="s">
+        <v>36</v>
+      </c>
+      <c r="C35" t="s">
+        <v>419</v>
+      </c>
+      <c r="D35" s="3" t="s">
+        <v>420</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>421</v>
+      </c>
+      <c r="B36" t="s">
+        <v>36</v>
+      </c>
+      <c r="C36" t="s">
+        <v>421</v>
+      </c>
+      <c r="D36" s="3" t="s">
+        <v>422</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="3" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E4AF1ADB-F82E-4AEC-A3F6-C49582E6D931}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="J31" sqref="J31"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/example.xlsx
+++ b/example.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\MunchkinML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{5C3E6EE6-1641-4FD6-B559-4C95CD465CEE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B1F16D-F11D-4D67-960B-378019A95FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{756F23DA-8B2B-43D1-941C-E221060CE055}"/>
   </bookViews>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1527" uniqueCount="784">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="790">
   <si>
     <t>were_turtle</t>
   </si>
@@ -197,9 +197,6 @@
     <t>seven_year_lich</t>
   </si>
   <si>
-    <t>self.monster.kill(condition='self.player.level&lt;=2', levels=False, treasures=False)</t>
-  </si>
-  <si>
     <t>gelatinous_octahedron</t>
   </si>
   <si>
@@ -233,18 +230,9 @@
     <t>redneck_tree</t>
   </si>
   <si>
-    <t>self.monster.update_level(+5, condition='\'elf\'  in self.player.race');self.monster.update_level(+5, condition='\'halfling\'  in self.player.race');self.monster.update_level(+5, condition='\'bard\'  in self.player.plcass')</t>
-  </si>
-  <si>
-    <t>self.monster.update_level(+5, condition='\'orc\'  in self.player.race');self.monster.update_level(+5, condition='\'warrior\'  in self.player.plcass')</t>
-  </si>
-  <si>
     <t>face_sucker</t>
   </si>
   <si>
-    <t>self.monster.kill(condition='\'halfling\'  in self.player.race', levels=True, treasures=True)</t>
-  </si>
-  <si>
     <t>lame_goblin</t>
   </si>
   <si>
@@ -284,15 +272,6 @@
     <t>m_t_suit</t>
   </si>
   <si>
-    <t>self.monster.update_level(+5, condition='self.player.sex == \'female\'');self.monster.update_treasures(+1, condition='self.player.sex == \'female\'')</t>
-  </si>
-  <si>
-    <t>self.player.update_equiped(-1); self.monster.update_level(+5, condition='\'thief\'  in self.player.plcass')</t>
-  </si>
-  <si>
-    <t>self.player.update_equiped(-1);self.monster.update_level(+5, condition='\'cliric\'  in self.player.plcass')</t>
-  </si>
-  <si>
     <t>platycore</t>
   </si>
   <si>
@@ -317,9 +296,6 @@
     <t>resident_weevil</t>
   </si>
   <si>
-    <t>self.monster.update_level(+3, condition='len(self.player.pclass)==0')</t>
-  </si>
-  <si>
     <t>self.monster.update_level(+4, condition='\'halfling\'  in self.player.race')</t>
   </si>
   <si>
@@ -341,15 +317,9 @@
     <t>plutonium_dragon</t>
   </si>
   <si>
-    <t>self.monster.kill(condition='self.player.level&lt;=5', levels=False, treasures=False)</t>
-  </si>
-  <si>
     <t>pterodactyl</t>
   </si>
   <si>
-    <t>self.monster.update_level(+5, condition='\'halfling\'  in self.player.race')</t>
-  </si>
-  <si>
     <t>drooling_slime</t>
   </si>
   <si>
@@ -359,15 +329,9 @@
     <t>perfectly_ordinary_bunny_rabbit</t>
   </si>
   <si>
-    <t>self.monster.update_level(+13, condition='roll_dice()==6')</t>
-  </si>
-  <si>
     <t>maul_rate</t>
   </si>
   <si>
-    <t>self.monster.update_level(+3, condition='\'cliric\'  in self.player.pclass')</t>
-  </si>
-  <si>
     <t>3872_orcs</t>
   </si>
   <si>
@@ -389,24 +353,15 @@
     <t>shrieking_geek</t>
   </si>
   <si>
-    <t>self.monster.update_level(+6, condition='\'warrior\'  in self.player.pclass')</t>
-  </si>
-  <si>
     <t>kali</t>
   </si>
   <si>
-    <t>self.monster.update_escape(-1);self.monster.update_level(+5, condition='\'elf\'  in self.player.race')</t>
-  </si>
-  <si>
     <t>the_dead_sea_trolls</t>
   </si>
   <si>
     <t>tequila_mockingbird</t>
   </si>
   <si>
-    <t>self.monster.update_level(+5, condition='\'bard\'  in self.player.pclass')</t>
-  </si>
-  <si>
     <t>bad_ass</t>
   </si>
   <si>
@@ -416,9 +371,6 @@
     <t>lose equiped 2; everyone else lose 1 equiped</t>
   </si>
   <si>
-    <t>self.monster.update_level(+5, condition='\'dwarf\'  in self.player.race')</t>
-  </si>
-  <si>
     <t>undead_horse</t>
   </si>
   <si>
@@ -428,9 +380,6 @@
     <t>squidzilla</t>
   </si>
   <si>
-    <t>self.monster.update_level(+4, condition='\'elf\'  in self.player.race');self.monster.kill(condition='self.player.level&lt;=4 and not(\'elf\'  in self.player.race)', levels=False, treasures=False)</t>
-  </si>
-  <si>
     <t>giant_cockroach</t>
   </si>
   <si>
@@ -452,27 +401,15 @@
     <t>poison_ivy_kudzu_flytrap</t>
   </si>
   <si>
-    <t>self.monster.update_level(-4, condition='\'elf\'  in self.player.race')</t>
-  </si>
-  <si>
     <t>dopplegangsters</t>
   </si>
   <si>
     <t>unspeakably_awful_indescribable_horror</t>
   </si>
   <si>
-    <t>self.monster.update_level(+4, condition='\'warrior\'  in self.player.pclass')</t>
-  </si>
-  <si>
     <t>potted_plant</t>
   </si>
   <si>
-    <t>self.monster.update_level(+5, condition='\'halfling\'  in self.player.race');self.monster.update_level(+5, condition='\'dwarf\'  in self.player.race')</t>
-  </si>
-  <si>
-    <t>self.monster.update_treasures(+1, condition='\'elf\'  in self.player.race')</t>
-  </si>
-  <si>
     <t>snails_on_speed</t>
   </si>
   <si>
@@ -497,18 +434,12 @@
     <t>self.monster.update_treasures(-1, condition='self.player.sex==\'female\'');self.monster.kill(condition='self.player.sex==\'female\'', levels=False, treasures=True)</t>
   </si>
   <si>
-    <t>self.monster_update_escape(+1);self.monster.kill(condition='\'orc\'  in self.player.race', levels=False, treasures=True)</t>
-  </si>
-  <si>
     <t>psycho_squirrel</t>
   </si>
   <si>
     <t>wight_brothers</t>
   </si>
   <si>
-    <t>self.monster.update_level(-5, condition='\'elf\'  in self.player.race')</t>
-  </si>
-  <si>
     <t>santa</t>
   </si>
   <si>
@@ -1563,9 +1494,6 @@
   </si>
   <si>
     <t>swiss_army_polearm</t>
-  </si>
-  <si>
-    <t>self.player.update_pclass_race('race', n=-1)</t>
   </si>
   <si>
     <t>self.player.update_hand(n=-roll_dice())</t>
@@ -2197,9 +2125,6 @@
     <t>if player want sell stuff on 200 gold self.monster.kill(levels=False, treasures=False)</t>
   </si>
   <si>
-    <t>np.where(self.player.level &gt;= GLOBAL_LEVEL_MAX, self.player.update_level(-2)</t>
-  </si>
-  <si>
     <t>add player statuses that evaluates before fight</t>
   </si>
   <si>
@@ -2215,9 +2140,6 @@
     <t>oil_of_boiling</t>
   </si>
   <si>
-    <t>self.monster.kill(condition='self.player.sex==\'female\'', levels=False, treasures=True);self.monster.kill(condition='self.player.equiped.name.isin(['spiked_codpiece']).any()', levels=False, treasures=True)</t>
-  </si>
-  <si>
     <t>develop equip</t>
   </si>
   <si>
@@ -2314,12 +2236,6 @@
     <t>fight_level_only</t>
   </si>
   <si>
-    <t>self.monster.update_level(+5, condition='\'wizard\'  in self.player.pclass');self.monster.update_level(+5, condition='\'thief\'  in self.player.pclass')</t>
-  </si>
-  <si>
-    <t>self.monster.update_level(+6, condition='\'wizard\'  in self.player.pclass')</t>
-  </si>
-  <si>
     <t>self.monster.update_level(+3, condition='\'wizard\'  in self.player.pclass')</t>
   </si>
   <si>
@@ -2420,6 +2336,108 @@
   </si>
   <si>
     <t xml:space="preserve">self.monster.update_level(+3) if 'dwarf'  in self.player.race else '';self.monster.update_level(+3) if 'wizard'  in self.player.pclass else '';self.monster.kill(levels=False, treasures=False) if self.player.level&lt;=4 else '' </t>
+  </si>
+  <si>
+    <t>self.player.update_equiped(-1); self.monster.update_level(+5) if  'thief'  in self.player.plcass else ''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">self.monster.kill(levels=False, treasures=False) if self.player.level&lt;=3 else '' </t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+5) if 'elf' in self.player.race else'';self.monster.update_level(+5) if 'halfling' in self.player.race else '';self.monster.update_level(+5) if 'bard' in self.player.plcass else ''</t>
+  </si>
+  <si>
+    <t>self.player.update_level(-2) if self.player.level &gt;= GLOBAL_LEVEL_MAX else ''</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+5) if 'wizard'  in self.player.pclass else '';self.monster.update_level(+5) if 'thief' in self.player.pclass else ''</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+5) if self.player.sex == 'female' else '';self.monster.update_treasures(+1) if self.player.sex == 'female' else ''</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+3) if 'cliric'  in self.player.pclass else ''</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+4) if 'halfling' in self.player.race else ''</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+5) if 'halfling' in self.player.race else '';self.monster.update_level(+5) if 'dwarf' in self.player.race else ''</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+13) if roll_dice()==6 else ''</t>
+  </si>
+  <si>
+    <t>self.monster_update_escape(+1);self.monster.kill(levels=False, treasures=True) if 'orc' in self.player.race else ''</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+6) if 'wizard' in self.player.pclass else ''</t>
+  </si>
+  <si>
+    <t>self.monster.kill(levels=False, treasures=False) if self.player.level&lt;=5 else ''</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(-4) if 'elf' in self.player.race else ''</t>
+  </si>
+  <si>
+    <t>self.monster.update_treasures(+1) if 'elf' in self.player.race else ''</t>
+  </si>
+  <si>
+    <t>self.monster.kill(levels=False, treasures=True) if self.player.sex=='female' else '';self.monster.kill(levels=False, treasures=True) if self.player.equiped.name.isin(['spiked_codpiece']).any() else ''</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+5) if 'halfling'  in self.player.race else ''</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+5) if 'orc' in self.player.race else '';self.monster.update_level(+5) if 'warrior'  in self.player.plcass else ''</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+3) if len(self.player.pclass)==0 else ''</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+5) if 'halfling' in self.player.race else ''</t>
+  </si>
+  <si>
+    <t>self.monster.kill(levels=False, treasures=False) if self.player.level&lt;=2 else ''</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+6) if 'warrior' in self.player.pclass else ''</t>
+  </si>
+  <si>
+    <t xml:space="preserve">self.monster.update_level(+4) if 'elf' in self.player.race else '';self.monster.kill(levels=False, treasures=False) if (self.player.level&lt;=4 and not('elf'  in self.player.race)) else '' </t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+5) if 'bard' in self.player.pclass else ''</t>
+  </si>
+  <si>
+    <t>self.monster.update_escape(-1);self.monster.update_level(+5) if 'elf' in self.player.race else ''</t>
+  </si>
+  <si>
+    <t>self.monster.kill(levels=True, treasures=True) if 'halfling' in self.player.race else ''</t>
+  </si>
+  <si>
+    <t>self.player.update_equiped(-1);self.monster.update_level(+5) if 'cliric' in self.player.plcass else ''</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+5) if 'dwarf' in self.player.race else ''</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+4) if 'warrior' in self.player.pclass else ''</t>
+  </si>
+  <si>
+    <t>self.monster.kill(levels=False, treasures=False) if self.player.level&lt;=3 else ''</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(-5) if 'elf' in self.player.race else ''</t>
+  </si>
+  <si>
+    <t>""</t>
+  </si>
+  <si>
+    <t>self.monster.update_escape(-2)</t>
+  </si>
+  <si>
+    <t>self.player.update_pclass_race('race', n=-1, make_decision=True)</t>
   </si>
 </sst>
 </file>
@@ -2490,7 +2508,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="5">
+  <fills count="6">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2513,6 +2531,12 @@
       <patternFill patternType="solid">
         <fgColor theme="4"/>
         <bgColor theme="4"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF92D050"/>
+        <bgColor indexed="64"/>
       </patternFill>
     </fill>
   </fills>
@@ -2568,7 +2592,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="14">
+  <cellXfs count="17">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
@@ -2583,6 +2607,9 @@
     <xf numFmtId="0" fontId="6" fillId="4" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="6" fillId="4" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" quotePrefix="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" quotePrefix="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -2899,8 +2926,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835D834E-D9E6-49F6-98E3-A07AA920BC51}">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="E24" sqref="E24"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="G51" sqref="G51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2909,7 +2936,7 @@
     <col min="2" max="2" width="8.42578125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="7.5703125" customWidth="1"/>
     <col min="4" max="4" width="9.85546875" customWidth="1"/>
-    <col min="5" max="5" width="75.5703125" customWidth="1"/>
+    <col min="5" max="5" width="71.42578125" customWidth="1"/>
     <col min="6" max="6" width="18.140625" customWidth="1"/>
     <col min="7" max="7" width="12" customWidth="1"/>
     <col min="8" max="8" width="48.7109375" customWidth="1"/>
@@ -2934,7 +2961,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="12" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G1" s="12" t="s">
         <v>10</v>
@@ -2951,7 +2978,7 @@
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>107</v>
+        <v>95</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -2963,13 +2990,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>769</v>
+        <v>741</v>
+      </c>
+      <c r="F2" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
       <c r="H2" t="s">
-        <v>730</v>
+        <v>704</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -2980,7 +3010,7 @@
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>133</v>
+        <v>116</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -2992,13 +3022,16 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>770</v>
+        <v>742</v>
+      </c>
+      <c r="F3" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
       </c>
       <c r="H3" t="s">
-        <v>733</v>
+        <v>707</v>
       </c>
       <c r="I3">
         <v>2</v>
@@ -3009,7 +3042,7 @@
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>120</v>
+        <v>105</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -3021,13 +3054,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>771</v>
+        <v>743</v>
+      </c>
+      <c r="F4" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>764</v>
+        <v>736</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -3038,7 +3074,7 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>84</v>
+        <v>77</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -3050,13 +3086,16 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>772</v>
+        <v>744</v>
+      </c>
+      <c r="F5" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
       </c>
       <c r="H5" t="s">
-        <v>528</v>
+        <v>504</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -3067,7 +3106,7 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>60</v>
+        <v>59</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -3079,13 +3118,16 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>774</v>
+        <v>746</v>
+      </c>
+      <c r="F6" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
       </c>
       <c r="H6" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -3096,7 +3138,7 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>93</v>
+        <v>85</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -3108,13 +3150,16 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>773</v>
+        <v>745</v>
+      </c>
+      <c r="F7" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="H7" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
       <c r="I7">
         <v>2</v>
@@ -3137,13 +3182,16 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>771</v>
+        <v>743</v>
+      </c>
+      <c r="F8" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
       </c>
       <c r="H8" t="s">
-        <v>507</v>
+        <v>483</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -3154,7 +3202,7 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>143</v>
+        <v>122</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -3165,11 +3213,17 @@
       <c r="D9" t="b">
         <v>0</v>
       </c>
+      <c r="E9" t="s">
+        <v>787</v>
+      </c>
+      <c r="F9" s="15" t="s">
+        <v>787</v>
+      </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>767</v>
+        <v>739</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -3180,7 +3234,7 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>136</v>
+        <v>118</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -3192,13 +3246,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>775</v>
+        <v>747</v>
+      </c>
+      <c r="F10" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>765</v>
+        <v>737</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -3209,7 +3266,7 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>101</v>
+        <v>91</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -3221,13 +3278,16 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>776</v>
+        <v>748</v>
+      </c>
+      <c r="F11" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
       <c r="H11" t="s">
-        <v>726</v>
+        <v>700</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -3238,7 +3298,7 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>59</v>
+        <v>58</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -3250,13 +3310,16 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>777</v>
+        <v>749</v>
+      </c>
+      <c r="F12" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
       </c>
       <c r="H12" t="s">
-        <v>513</v>
+        <v>489</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -3267,7 +3330,7 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>64</v>
+        <v>61</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -3279,13 +3342,16 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>778</v>
+        <v>750</v>
+      </c>
+      <c r="F13" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13" t="s">
-        <v>516</v>
+        <v>492</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -3296,7 +3362,7 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>111</v>
+        <v>99</v>
       </c>
       <c r="B14" t="s">
         <v>1</v>
@@ -3308,13 +3374,16 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>779</v>
+        <v>751</v>
+      </c>
+      <c r="F14" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
       </c>
       <c r="H14" t="s">
-        <v>527</v>
+        <v>503</v>
       </c>
       <c r="I14">
         <v>1</v>
@@ -3325,7 +3394,7 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="B15" t="s">
         <v>1</v>
@@ -3337,13 +3406,16 @@
         <v>0</v>
       </c>
       <c r="E15" t="s">
-        <v>53</v>
+        <v>52</v>
+      </c>
+      <c r="F15" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
       </c>
       <c r="H15" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="I15">
         <v>1</v>
@@ -3366,13 +3438,16 @@
         <v>0</v>
       </c>
       <c r="E16" t="s">
-        <v>746</v>
+        <v>720</v>
+      </c>
+      <c r="F16" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
       <c r="H16" t="s">
-        <v>722</v>
+        <v>696</v>
       </c>
       <c r="I16">
         <v>2</v>
@@ -3383,7 +3458,7 @@
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -3395,13 +3470,16 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="F17" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
       <c r="H17" t="s">
-        <v>519</v>
+        <v>495</v>
       </c>
       <c r="I17">
         <v>1</v>
@@ -3412,7 +3490,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
@@ -3424,13 +3502,16 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>755</v>
+        <v>727</v>
+      </c>
+      <c r="F18" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18" t="s">
-        <v>712</v>
+        <v>687</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -3441,7 +3522,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>128</v>
+        <v>111</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
@@ -3453,13 +3534,16 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>780</v>
+        <v>752</v>
+      </c>
+      <c r="F19" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
       </c>
       <c r="H19" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -3470,7 +3554,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>88</v>
+        <v>81</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
@@ -3481,8 +3565,17 @@
       <c r="D20" t="b">
         <v>0</v>
       </c>
+      <c r="E20" t="s">
+        <v>787</v>
+      </c>
+      <c r="F20" s="15" t="s">
+        <v>787</v>
+      </c>
       <c r="G20" t="b">
         <v>1</v>
+      </c>
+      <c r="H20" t="s">
+        <v>787</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -3493,7 +3586,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>68</v>
+        <v>64</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -3505,13 +3598,16 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>781</v>
+        <v>753</v>
+      </c>
+      <c r="F21" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>762</v>
+        <v>734</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -3522,7 +3618,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>87</v>
+        <v>80</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
@@ -3534,13 +3630,16 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>782</v>
+        <v>754</v>
+      </c>
+      <c r="F22" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -3551,7 +3650,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>102</v>
+        <v>92</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -3563,13 +3662,16 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>783</v>
+        <v>755</v>
+      </c>
+      <c r="F23" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23" t="s">
-        <v>736</v>
+        <v>710</v>
       </c>
       <c r="I23">
         <v>2</v>
@@ -3578,38 +3680,41 @@
         <v>4</v>
       </c>
     </row>
-    <row r="24" spans="1:10" s="1" customFormat="1" x14ac:dyDescent="0.25">
-      <c r="A24" s="1" t="s">
-        <v>58</v>
-      </c>
-      <c r="B24" s="1" t="s">
-        <v>1</v>
-      </c>
-      <c r="C24" s="1">
+    <row r="24" spans="1:10" s="2" customFormat="1" x14ac:dyDescent="0.25">
+      <c r="A24" s="2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B24" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C24" s="2">
         <v>17</v>
       </c>
-      <c r="D24" s="1" t="b">
-        <v>0</v>
-      </c>
-      <c r="E24" s="1" t="s">
-        <v>80</v>
-      </c>
-      <c r="G24" s="1" t="b">
-        <v>1</v>
-      </c>
-      <c r="H24" s="1" t="s">
-        <v>520</v>
-      </c>
-      <c r="I24" s="1">
+      <c r="D24" s="2" t="b">
+        <v>0</v>
+      </c>
+      <c r="E24" s="2" t="s">
+        <v>756</v>
+      </c>
+      <c r="F24" s="15" t="s">
+        <v>787</v>
+      </c>
+      <c r="G24" s="2" t="b">
+        <v>1</v>
+      </c>
+      <c r="H24" s="2" t="s">
+        <v>496</v>
+      </c>
+      <c r="I24" s="2">
         <v>2</v>
       </c>
-      <c r="J24" s="1">
+      <c r="J24" s="2">
         <v>4</v>
       </c>
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>129</v>
+        <v>112</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
@@ -3621,16 +3726,16 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>95</v>
+        <v>757</v>
       </c>
       <c r="F25" t="s">
-        <v>709</v>
+        <v>759</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>768</v>
+        <v>740</v>
       </c>
       <c r="I25">
         <v>2</v>
@@ -3641,7 +3746,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
@@ -3653,13 +3758,16 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>52</v>
+        <v>51</v>
+      </c>
+      <c r="F26" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -3682,13 +3790,16 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>62</v>
+        <v>758</v>
+      </c>
+      <c r="F27" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27" t="s">
-        <v>509</v>
+        <v>485</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -3699,7 +3810,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>78</v>
+        <v>74</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
@@ -3711,13 +3822,16 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>748</v>
+        <v>760</v>
+      </c>
+      <c r="F28" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
       </c>
       <c r="H28" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -3728,7 +3842,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>77</v>
+        <v>73</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
@@ -3740,13 +3854,16 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>79</v>
+        <v>761</v>
+      </c>
+      <c r="F29" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
       </c>
       <c r="H29" t="s">
-        <v>724</v>
+        <v>698</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -3757,7 +3874,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>105</v>
+        <v>94</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
@@ -3769,13 +3886,16 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>106</v>
+        <v>762</v>
+      </c>
+      <c r="F30" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="H30" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -3786,7 +3906,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>92</v>
+        <v>84</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
@@ -3798,13 +3918,16 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>91</v>
+        <v>763</v>
+      </c>
+      <c r="F31" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31" t="s">
-        <v>520</v>
+        <v>496</v>
       </c>
       <c r="I31">
         <v>2</v>
@@ -3815,7 +3938,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>85</v>
+        <v>78</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
@@ -3826,14 +3949,17 @@
       <c r="D32" t="b">
         <v>1</v>
       </c>
+      <c r="E32" t="s">
+        <v>787</v>
+      </c>
       <c r="F32" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
       </c>
       <c r="H32" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -3856,13 +3982,16 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>140</v>
+        <v>764</v>
+      </c>
+      <c r="F33" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>725</v>
+        <v>699</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -3873,7 +4002,7 @@
     </row>
     <row r="34" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>103</v>
+        <v>93</v>
       </c>
       <c r="B34" t="s">
         <v>1</v>
@@ -3885,13 +4014,16 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>104</v>
+        <v>765</v>
+      </c>
+      <c r="F34" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
       </c>
       <c r="H34" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
       <c r="I34">
         <v>1</v>
@@ -3902,7 +4034,7 @@
     </row>
     <row r="35" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>147</v>
+        <v>126</v>
       </c>
       <c r="B35" t="s">
         <v>1</v>
@@ -3914,13 +4046,16 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>150</v>
+        <v>766</v>
+      </c>
+      <c r="F35" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
       </c>
       <c r="H35" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="I35">
         <v>1</v>
@@ -3931,7 +4066,7 @@
     </row>
     <row r="36" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>82</v>
+        <v>75</v>
       </c>
       <c r="B36" t="s">
         <v>1</v>
@@ -3943,13 +4078,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>749</v>
+        <v>767</v>
+      </c>
+      <c r="F36" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>760</v>
+        <v>732</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -3960,7 +4098,7 @@
     </row>
     <row r="37" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>97</v>
+        <v>89</v>
       </c>
       <c r="B37" t="s">
         <v>1</v>
@@ -3972,13 +4110,16 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>98</v>
+        <v>768</v>
+      </c>
+      <c r="F37" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
       </c>
       <c r="H37" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
       <c r="I37">
         <v>2</v>
@@ -3989,7 +4130,7 @@
     </row>
     <row r="38" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>134</v>
+        <v>117</v>
       </c>
       <c r="B38" t="s">
         <v>1</v>
@@ -4001,13 +4142,16 @@
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>135</v>
+        <v>769</v>
+      </c>
+      <c r="F38" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
       </c>
       <c r="H38" t="s">
-        <v>727</v>
+        <v>701</v>
       </c>
       <c r="I38">
         <v>2</v>
@@ -4018,7 +4162,7 @@
     </row>
     <row r="39" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>139</v>
+        <v>120</v>
       </c>
       <c r="B39" t="s">
         <v>1</v>
@@ -4030,11 +4174,17 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>141</v>
+        <v>770</v>
+      </c>
+      <c r="F39" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
       </c>
+      <c r="H39" t="s">
+        <v>787</v>
+      </c>
       <c r="I39">
         <v>1</v>
       </c>
@@ -4043,8 +4193,8 @@
       </c>
     </row>
     <row r="40" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A40" t="s">
-        <v>151</v>
+      <c r="A40" s="2" t="s">
+        <v>129</v>
       </c>
       <c r="B40" t="s">
         <v>1</v>
@@ -4055,14 +4205,17 @@
       <c r="D40" t="b">
         <v>0</v>
       </c>
-      <c r="E40" t="s">
-        <v>715</v>
+      <c r="E40" s="14" t="s">
+        <v>771</v>
+      </c>
+      <c r="F40" s="16" t="s">
+        <v>787</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
       </c>
-      <c r="H40" t="s">
-        <v>517</v>
+      <c r="H40" s="14" t="s">
+        <v>493</v>
       </c>
       <c r="I40">
         <v>1</v>
@@ -4073,7 +4226,7 @@
     </row>
     <row r="41" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>99</v>
+        <v>90</v>
       </c>
       <c r="B41" t="s">
         <v>1</v>
@@ -4085,13 +4238,16 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>100</v>
+        <v>772</v>
+      </c>
+      <c r="F41" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
       </c>
       <c r="H41" t="s">
-        <v>737</v>
+        <v>711</v>
       </c>
       <c r="I41">
         <v>1</v>
@@ -4116,11 +4272,14 @@
       <c r="E42" t="s">
         <v>46</v>
       </c>
+      <c r="F42" s="15" t="s">
+        <v>787</v>
+      </c>
       <c r="G42" t="b">
         <v>1</v>
       </c>
       <c r="H42" t="s">
-        <v>510</v>
+        <v>486</v>
       </c>
       <c r="I42">
         <v>1</v>
@@ -4131,7 +4290,7 @@
     </row>
     <row r="43" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B43" t="s">
         <v>1</v>
@@ -4143,13 +4302,16 @@
         <v>0</v>
       </c>
       <c r="E43" t="s">
-        <v>63</v>
+        <v>773</v>
+      </c>
+      <c r="F43" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>756</v>
+        <v>728</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -4160,7 +4322,7 @@
     </row>
     <row r="44" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>89</v>
+        <v>82</v>
       </c>
       <c r="B44" t="s">
         <v>1</v>
@@ -4172,13 +4334,16 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>90</v>
+        <v>774</v>
+      </c>
+      <c r="F44" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
       </c>
       <c r="H44" t="s">
-        <v>734</v>
+        <v>708</v>
       </c>
       <c r="I44">
         <v>1</v>
@@ -4189,7 +4354,7 @@
     </row>
     <row r="45" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>154</v>
+        <v>131</v>
       </c>
       <c r="B45" t="s">
         <v>1</v>
@@ -4201,13 +4366,16 @@
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>153</v>
+        <v>786</v>
+      </c>
+      <c r="F45" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>759</v>
+        <v>731</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -4218,7 +4386,7 @@
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>110</v>
+        <v>98</v>
       </c>
       <c r="B46" t="s">
         <v>1</v>
@@ -4230,13 +4398,16 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>100</v>
+        <v>775</v>
+      </c>
+      <c r="F46" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
       </c>
       <c r="H46" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="I46">
         <v>1</v>
@@ -4259,13 +4430,16 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>50</v>
+        <v>776</v>
+      </c>
+      <c r="F47" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
       </c>
       <c r="H47" t="s">
-        <v>511</v>
+        <v>487</v>
       </c>
       <c r="I47">
         <v>2</v>
@@ -4276,7 +4450,7 @@
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>113</v>
+        <v>101</v>
       </c>
       <c r="B48" t="s">
         <v>1</v>
@@ -4288,13 +4462,16 @@
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>114</v>
+        <v>777</v>
+      </c>
+      <c r="F48" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
       </c>
       <c r="H48" t="s">
-        <v>729</v>
+        <v>703</v>
       </c>
       <c r="I48">
         <v>1</v>
@@ -4305,7 +4482,7 @@
     </row>
     <row r="49" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>142</v>
+        <v>121</v>
       </c>
       <c r="B49" t="s">
         <v>1</v>
@@ -4319,11 +4496,14 @@
       <c r="E49" t="s">
         <v>40</v>
       </c>
+      <c r="F49" s="15" t="s">
+        <v>787</v>
+      </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>766</v>
+        <v>738</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -4334,7 +4514,7 @@
     </row>
     <row r="50" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>126</v>
+        <v>110</v>
       </c>
       <c r="B50" t="s">
         <v>1</v>
@@ -4346,13 +4526,16 @@
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>127</v>
+        <v>778</v>
+      </c>
+      <c r="F50" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
       </c>
       <c r="H50" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
       <c r="I50">
         <v>2</v>
@@ -4363,7 +4546,7 @@
     </row>
     <row r="51" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="B51" t="s">
         <v>1</v>
@@ -4375,13 +4558,16 @@
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>50</v>
+        <v>776</v>
+      </c>
+      <c r="F51" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
       </c>
       <c r="H51" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
       <c r="I51">
         <v>2</v>
@@ -4392,7 +4578,7 @@
     </row>
     <row r="52" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>118</v>
+        <v>104</v>
       </c>
       <c r="B52" t="s">
         <v>1</v>
@@ -4404,13 +4590,16 @@
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>119</v>
+        <v>779</v>
+      </c>
+      <c r="F52" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>763</v>
+        <v>735</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -4421,7 +4610,7 @@
     </row>
     <row r="53" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>117</v>
+        <v>103</v>
       </c>
       <c r="B53" t="s">
         <v>1</v>
@@ -4433,13 +4622,16 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>116</v>
+        <v>780</v>
+      </c>
+      <c r="F53" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
       </c>
       <c r="H53" t="s">
-        <v>522</v>
+        <v>498</v>
       </c>
       <c r="I53">
         <v>1</v>
@@ -4462,13 +4654,16 @@
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>65</v>
+        <v>781</v>
+      </c>
+      <c r="F54" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
       </c>
       <c r="H54" t="s">
-        <v>508</v>
+        <v>484</v>
       </c>
       <c r="I54">
         <v>1</v>
@@ -4479,7 +4674,7 @@
     </row>
     <row r="55" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>168</v>
+        <v>145</v>
       </c>
       <c r="B55" t="s">
         <v>1</v>
@@ -4490,11 +4685,17 @@
       <c r="D55" t="b">
         <v>1</v>
       </c>
+      <c r="E55" t="s">
+        <v>787</v>
+      </c>
+      <c r="F55" s="15" t="s">
+        <v>787</v>
+      </c>
       <c r="G55" t="b">
         <v>0</v>
       </c>
       <c r="H55" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="I55">
         <v>1</v>
@@ -4517,13 +4718,16 @@
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>81</v>
+        <v>782</v>
+      </c>
+      <c r="F56" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
       </c>
       <c r="H56" t="s">
-        <v>723</v>
+        <v>697</v>
       </c>
       <c r="I56">
         <v>1</v>
@@ -4534,7 +4738,7 @@
     </row>
     <row r="57" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>124</v>
+        <v>108</v>
       </c>
       <c r="B57" t="s">
         <v>1</v>
@@ -4546,13 +4750,16 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>123</v>
+        <v>783</v>
+      </c>
+      <c r="F57" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
       </c>
       <c r="H57" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="I57">
         <v>1</v>
@@ -4563,7 +4770,7 @@
     </row>
     <row r="58" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>137</v>
+        <v>119</v>
       </c>
       <c r="B58" t="s">
         <v>1</v>
@@ -4575,13 +4782,16 @@
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>138</v>
+        <v>784</v>
+      </c>
+      <c r="F58" s="15" t="s">
+        <v>787</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
       </c>
       <c r="H58" t="s">
-        <v>735</v>
+        <v>709</v>
       </c>
       <c r="I58">
         <v>1</v>
@@ -4603,14 +4813,17 @@
       <c r="D59" t="b">
         <v>0</v>
       </c>
-      <c r="E59" t="s">
-        <v>40</v>
+      <c r="E59" s="14" t="s">
+        <v>788</v>
+      </c>
+      <c r="F59" s="16" t="s">
+        <v>787</v>
       </c>
       <c r="G59" t="b">
         <v>1</v>
       </c>
-      <c r="H59" t="s">
-        <v>506</v>
+      <c r="H59" s="14" t="s">
+        <v>789</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -4621,7 +4834,7 @@
     </row>
     <row r="60" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>152</v>
+        <v>130</v>
       </c>
       <c r="B60" t="s">
         <v>1</v>
@@ -4633,16 +4846,16 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>95</v>
+        <v>785</v>
       </c>
       <c r="F60" t="s">
-        <v>709</v>
+        <v>759</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
       </c>
       <c r="H60" t="s">
-        <v>523</v>
+        <v>499</v>
       </c>
       <c r="I60">
         <v>2</v>
@@ -4689,7 +4902,7 @@
         <v>9</v>
       </c>
       <c r="F1" s="7" t="s">
-        <v>86</v>
+        <v>79</v>
       </c>
       <c r="G1" s="7" t="s">
         <v>10</v>
@@ -4707,7 +4920,7 @@
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>181</v>
+        <v>158</v>
       </c>
       <c r="B2" t="s">
         <v>1</v>
@@ -4719,16 +4932,16 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>182</v>
+        <v>159</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>183</v>
+        <v>160</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
       </c>
       <c r="H2" s="1" t="s">
-        <v>184</v>
+        <v>161</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -4739,7 +4952,7 @@
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>185</v>
+        <v>162</v>
       </c>
       <c r="B3" t="s">
         <v>1</v>
@@ -4751,13 +4964,13 @@
         <v>0</v>
       </c>
       <c r="E3" s="3" t="s">
-        <v>186</v>
+        <v>163</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
       </c>
       <c r="H3" s="1" t="s">
-        <v>187</v>
+        <v>164</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -4768,7 +4981,7 @@
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>188</v>
+        <v>165</v>
       </c>
       <c r="B4" t="s">
         <v>1</v>
@@ -4780,13 +4993,13 @@
         <v>0</v>
       </c>
       <c r="E4" s="3" t="s">
-        <v>189</v>
+        <v>166</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
       </c>
       <c r="H4" s="2" t="s">
-        <v>522</v>
+        <v>498</v>
       </c>
       <c r="I4">
         <v>2</v>
@@ -4797,7 +5010,7 @@
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>190</v>
+        <v>167</v>
       </c>
       <c r="B5" t="s">
         <v>1</v>
@@ -4809,13 +5022,13 @@
         <v>0</v>
       </c>
       <c r="E5" s="3" t="s">
-        <v>191</v>
+        <v>168</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
       </c>
       <c r="H5" s="1" t="s">
-        <v>192</v>
+        <v>169</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -4826,7 +5039,7 @@
     </row>
     <row r="6" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>193</v>
+        <v>170</v>
       </c>
       <c r="B6" t="s">
         <v>1</v>
@@ -4838,13 +5051,13 @@
         <v>0</v>
       </c>
       <c r="E6" s="3" t="s">
-        <v>194</v>
+        <v>171</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
       </c>
       <c r="H6" s="1" t="s">
-        <v>195</v>
+        <v>172</v>
       </c>
       <c r="I6">
         <v>1</v>
@@ -4855,7 +5068,7 @@
     </row>
     <row r="7" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>196</v>
+        <v>173</v>
       </c>
       <c r="B7" t="s">
         <v>1</v>
@@ -4867,13 +5080,13 @@
         <v>0</v>
       </c>
       <c r="E7" s="3" t="s">
-        <v>199</v>
+        <v>176</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
       </c>
       <c r="H7" s="2" t="s">
-        <v>526</v>
+        <v>502</v>
       </c>
       <c r="I7">
         <v>1</v>
@@ -4884,7 +5097,7 @@
     </row>
     <row r="8" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>197</v>
+        <v>174</v>
       </c>
       <c r="B8" t="s">
         <v>1</v>
@@ -4896,13 +5109,13 @@
         <v>0</v>
       </c>
       <c r="E8" s="3" t="s">
-        <v>198</v>
+        <v>175</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
       </c>
       <c r="H8" s="2" t="s">
-        <v>517</v>
+        <v>493</v>
       </c>
       <c r="I8">
         <v>1</v>
@@ -4913,7 +5126,7 @@
     </row>
     <row r="9" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>169</v>
+        <v>146</v>
       </c>
       <c r="B9" t="s">
         <v>1</v>
@@ -4925,13 +5138,13 @@
         <v>0</v>
       </c>
       <c r="E9" s="3" t="s">
-        <v>170</v>
+        <v>147</v>
       </c>
       <c r="G9" t="b">
         <v>1</v>
       </c>
       <c r="H9" s="1" t="s">
-        <v>171</v>
+        <v>148</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -4942,7 +5155,7 @@
     </row>
     <row r="10" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>172</v>
+        <v>149</v>
       </c>
       <c r="B10" t="s">
         <v>1</v>
@@ -4954,13 +5167,13 @@
         <v>0</v>
       </c>
       <c r="E10" s="3" t="s">
-        <v>173</v>
+        <v>150</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
       </c>
       <c r="H10" s="2" t="s">
-        <v>515</v>
+        <v>491</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -4971,7 +5184,7 @@
     </row>
     <row r="11" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>174</v>
+        <v>151</v>
       </c>
       <c r="B11" t="s">
         <v>1</v>
@@ -4983,13 +5196,13 @@
         <v>0</v>
       </c>
       <c r="E11" s="3" t="s">
-        <v>175</v>
+        <v>152</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
       </c>
       <c r="H11" s="1" t="s">
-        <v>176</v>
+        <v>153</v>
       </c>
       <c r="I11">
         <v>1</v>
@@ -5000,7 +5213,7 @@
     </row>
     <row r="12" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>177</v>
+        <v>154</v>
       </c>
       <c r="B12" t="s">
         <v>1</v>
@@ -5012,13 +5225,13 @@
         <v>0</v>
       </c>
       <c r="E12" s="3" t="s">
-        <v>178</v>
+        <v>155</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
       </c>
       <c r="H12" s="2" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="I12">
         <v>1</v>
@@ -5029,7 +5242,7 @@
     </row>
     <row r="13" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>179</v>
+        <v>156</v>
       </c>
       <c r="B13" t="s">
         <v>1</v>
@@ -5041,13 +5254,13 @@
         <v>0</v>
       </c>
       <c r="E13" s="3" t="s">
-        <v>180</v>
+        <v>157</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
       </c>
       <c r="H13" s="2" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="I13">
         <v>1</v>
@@ -5070,7 +5283,7 @@
         <v>0</v>
       </c>
       <c r="E14" s="1" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -5095,7 +5308,7 @@
         <v>0</v>
       </c>
       <c r="E15" s="6" t="s">
-        <v>707</v>
+        <v>683</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -5108,7 +5321,7 @@
     </row>
     <row r="16" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>72</v>
+        <v>68</v>
       </c>
       <c r="B16" t="s">
         <v>1</v>
@@ -5120,20 +5333,20 @@
         <v>0</v>
       </c>
       <c r="E16" s="1" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
       </c>
       <c r="H16" s="3" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="I16" s="4"/>
       <c r="J16" s="4"/>
     </row>
     <row r="17" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>94</v>
+        <v>86</v>
       </c>
       <c r="B17" t="s">
         <v>1</v>
@@ -5145,13 +5358,13 @@
         <v>0</v>
       </c>
       <c r="E17" t="s">
-        <v>95</v>
+        <v>87</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
       </c>
       <c r="H17" s="3" t="s">
-        <v>96</v>
+        <v>88</v>
       </c>
       <c r="I17">
         <v>2</v>
@@ -5162,7 +5375,7 @@
     </row>
     <row r="18" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>145</v>
+        <v>124</v>
       </c>
       <c r="B18" t="s">
         <v>1</v>
@@ -5174,13 +5387,13 @@
         <v>0</v>
       </c>
       <c r="E18" s="3" t="s">
-        <v>144</v>
+        <v>123</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
       </c>
       <c r="H18" s="2" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="I18">
         <v>1</v>
@@ -5191,7 +5404,7 @@
     </row>
     <row r="19" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>157</v>
+        <v>134</v>
       </c>
       <c r="B19" t="s">
         <v>1</v>
@@ -5203,13 +5416,13 @@
         <v>0</v>
       </c>
       <c r="E19" s="3" t="s">
-        <v>708</v>
+        <v>684</v>
       </c>
       <c r="G19" t="b">
         <v>0</v>
       </c>
       <c r="H19" s="2" t="s">
-        <v>518</v>
+        <v>494</v>
       </c>
       <c r="I19">
         <v>1</v>
@@ -5220,7 +5433,7 @@
     </row>
     <row r="20" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>115</v>
+        <v>102</v>
       </c>
       <c r="B20" t="s">
         <v>1</v>
@@ -5232,13 +5445,13 @@
         <v>0</v>
       </c>
       <c r="E20" s="2" t="s">
-        <v>704</v>
+        <v>680</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20" s="3" t="s">
-        <v>525</v>
+        <v>501</v>
       </c>
       <c r="I20">
         <v>2</v>
@@ -5249,7 +5462,7 @@
     </row>
     <row r="21" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="B21" t="s">
         <v>1</v>
@@ -5261,16 +5474,16 @@
         <v>0</v>
       </c>
       <c r="E21" s="3" t="s">
-        <v>706</v>
+        <v>682</v>
       </c>
       <c r="F21" s="3" t="s">
-        <v>164</v>
+        <v>141</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21" s="3" t="s">
-        <v>163</v>
+        <v>140</v>
       </c>
       <c r="I21">
         <v>2</v>
@@ -5281,7 +5494,7 @@
     </row>
     <row r="22" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>74</v>
+        <v>70</v>
       </c>
       <c r="B22" t="s">
         <v>1</v>
@@ -5293,13 +5506,13 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>76</v>
+        <v>72</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
       </c>
       <c r="H22" s="3" t="s">
-        <v>73</v>
+        <v>69</v>
       </c>
       <c r="I22">
         <v>1</v>
@@ -5310,7 +5523,7 @@
     </row>
     <row r="23" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>121</v>
+        <v>106</v>
       </c>
       <c r="B23" t="s">
         <v>1</v>
@@ -5322,13 +5535,13 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>750</v>
+        <v>722</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
       </c>
       <c r="H23" s="3" t="s">
-        <v>122</v>
+        <v>107</v>
       </c>
       <c r="I23">
         <v>1</v>
@@ -5339,7 +5552,7 @@
     </row>
     <row r="24" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>148</v>
+        <v>127</v>
       </c>
       <c r="B24" t="s">
         <v>1</v>
@@ -5354,7 +5567,7 @@
         <v>1</v>
       </c>
       <c r="H24" s="1" t="s">
-        <v>524</v>
+        <v>500</v>
       </c>
       <c r="I24">
         <v>1</v>
@@ -5365,7 +5578,7 @@
     </row>
     <row r="25" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>155</v>
+        <v>132</v>
       </c>
       <c r="B25" t="s">
         <v>1</v>
@@ -5377,13 +5590,13 @@
         <v>0</v>
       </c>
       <c r="E25" s="2" t="s">
-        <v>91</v>
+        <v>83</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25" s="3" t="s">
-        <v>156</v>
+        <v>133</v>
       </c>
       <c r="I25">
         <v>1</v>
@@ -5394,7 +5607,7 @@
     </row>
     <row r="26" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>165</v>
+        <v>142</v>
       </c>
       <c r="B26" t="s">
         <v>1</v>
@@ -5406,13 +5619,13 @@
         <v>0</v>
       </c>
       <c r="E26" t="s">
-        <v>166</v>
+        <v>143</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
       </c>
       <c r="H26" s="3" t="s">
-        <v>167</v>
+        <v>144</v>
       </c>
       <c r="I26">
         <v>1</v>
@@ -5423,7 +5636,7 @@
     </row>
     <row r="27" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>83</v>
+        <v>76</v>
       </c>
       <c r="B27" t="s">
         <v>1</v>
@@ -5435,13 +5648,13 @@
         <v>0</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>755</v>
+        <v>727</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>721</v>
+        <v>695</v>
       </c>
       <c r="I27">
         <v>1</v>
@@ -5452,7 +5665,7 @@
     </row>
     <row r="28" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>158</v>
+        <v>135</v>
       </c>
       <c r="B28" t="s">
         <v>1</v>
@@ -5468,7 +5681,7 @@
         <v>1</v>
       </c>
       <c r="H28" s="3" t="s">
-        <v>159</v>
+        <v>136</v>
       </c>
       <c r="I28">
         <v>1</v>
@@ -5479,7 +5692,7 @@
     </row>
     <row r="29" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>132</v>
+        <v>115</v>
       </c>
       <c r="B29" t="s">
         <v>1</v>
@@ -5491,14 +5704,14 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>130</v>
+        <v>113</v>
       </c>
       <c r="F29" s="2"/>
       <c r="G29" t="b">
         <v>1</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>131</v>
+        <v>114</v>
       </c>
       <c r="I29">
         <v>1</v>
@@ -5509,7 +5722,7 @@
     </row>
     <row r="30" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>109</v>
+        <v>97</v>
       </c>
       <c r="B30" t="s">
         <v>1</v>
@@ -5521,13 +5734,13 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>75</v>
+        <v>71</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
       </c>
       <c r="H30" s="3" t="s">
-        <v>108</v>
+        <v>96</v>
       </c>
       <c r="I30">
         <v>1</v>
@@ -5538,7 +5751,7 @@
     </row>
     <row r="31" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>146</v>
+        <v>125</v>
       </c>
       <c r="B31" t="s">
         <v>1</v>
@@ -5550,13 +5763,13 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>149</v>
+        <v>128</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
       </c>
       <c r="H31" s="1" t="s">
-        <v>728</v>
+        <v>702</v>
       </c>
       <c r="I31">
         <v>1</v>
@@ -5567,7 +5780,7 @@
     </row>
     <row r="32" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>69</v>
+        <v>65</v>
       </c>
       <c r="B32" t="s">
         <v>1</v>
@@ -5579,13 +5792,13 @@
         <v>0</v>
       </c>
       <c r="E32" t="s">
-        <v>751</v>
+        <v>723</v>
       </c>
       <c r="G32" t="b">
         <v>1</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>761</v>
+        <v>733</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -5596,7 +5809,7 @@
     </row>
     <row r="33" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>160</v>
+        <v>137</v>
       </c>
       <c r="B33" t="s">
         <v>1</v>
@@ -5608,13 +5821,13 @@
         <v>1</v>
       </c>
       <c r="E33" s="1" t="s">
-        <v>161</v>
+        <v>138</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
       </c>
       <c r="H33" t="s">
-        <v>512</v>
+        <v>488</v>
       </c>
       <c r="I33">
         <v>1</v>
@@ -5655,420 +5868,420 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>348</v>
+        <v>325</v>
       </c>
       <c r="B2" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>351</v>
+        <v>328</v>
       </c>
       <c r="B3" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>405</v>
+        <v>382</v>
       </c>
       <c r="B4" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>350</v>
+        <v>327</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>352</v>
+        <v>329</v>
       </c>
       <c r="B5" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>353</v>
+        <v>330</v>
       </c>
       <c r="B6" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>354</v>
+        <v>331</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>355</v>
+        <v>332</v>
       </c>
       <c r="B7" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>356</v>
+        <v>333</v>
       </c>
       <c r="B8" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>67</v>
+        <v>63</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>357</v>
+        <v>334</v>
       </c>
       <c r="B9" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>358</v>
+        <v>335</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>359</v>
+        <v>336</v>
       </c>
       <c r="B10" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>360</v>
+        <v>337</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>361</v>
+        <v>338</v>
       </c>
       <c r="B11" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>362</v>
+        <v>339</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>363</v>
+        <v>340</v>
       </c>
       <c r="B12" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>364</v>
+        <v>341</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>365</v>
+        <v>342</v>
       </c>
       <c r="B13" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>366</v>
+        <v>343</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>367</v>
+        <v>344</v>
       </c>
       <c r="B14" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>368</v>
+        <v>345</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>369</v>
+        <v>346</v>
       </c>
       <c r="B15" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>370</v>
+        <v>347</v>
       </c>
       <c r="B16" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>371</v>
+        <v>348</v>
       </c>
       <c r="B17" t="s">
+        <v>326</v>
+      </c>
+      <c r="C17" s="3" t="s">
         <v>349</v>
-      </c>
-      <c r="C17" s="3" t="s">
-        <v>372</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>373</v>
+        <v>350</v>
       </c>
       <c r="B18" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>374</v>
+        <v>351</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>375</v>
+        <v>352</v>
       </c>
       <c r="B19" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>376</v>
+        <v>353</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>377</v>
+        <v>354</v>
       </c>
       <c r="B20" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>378</v>
+        <v>355</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>379</v>
+        <v>356</v>
       </c>
       <c r="B21" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>380</v>
+        <v>357</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>381</v>
+        <v>358</v>
       </c>
       <c r="B22" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>382</v>
+        <v>359</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>383</v>
+        <v>360</v>
       </c>
       <c r="B23" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>384</v>
+        <v>361</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>385</v>
+        <v>362</v>
       </c>
       <c r="B24" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>386</v>
+        <v>363</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>387</v>
+        <v>364</v>
       </c>
       <c r="B25" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>388</v>
+        <v>365</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>389</v>
+        <v>366</v>
       </c>
       <c r="B26" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>390</v>
+        <v>367</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>391</v>
+        <v>368</v>
       </c>
       <c r="B27" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>392</v>
+        <v>369</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>393</v>
+        <v>370</v>
       </c>
       <c r="B28" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>394</v>
+        <v>371</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>395</v>
+        <v>372</v>
       </c>
       <c r="B29" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>396</v>
+        <v>373</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>397</v>
+        <v>374</v>
       </c>
       <c r="B30" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>398</v>
+        <v>375</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>399</v>
+        <v>376</v>
       </c>
       <c r="B31" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>400</v>
+        <v>377</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>401</v>
+        <v>378</v>
       </c>
       <c r="B32" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>402</v>
+        <v>379</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>403</v>
+        <v>380</v>
       </c>
       <c r="B33" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>404</v>
+        <v>381</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>406</v>
+        <v>383</v>
       </c>
       <c r="B34" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>407</v>
+        <v>384</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>408</v>
+        <v>385</v>
       </c>
       <c r="B35" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>409</v>
+        <v>386</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>411</v>
+        <v>388</v>
       </c>
       <c r="B36" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>410</v>
+        <v>387</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>412</v>
+        <v>389</v>
       </c>
       <c r="B37" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>413</v>
+        <v>390</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>414</v>
+        <v>391</v>
       </c>
       <c r="B38" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>415</v>
+        <v>392</v>
       </c>
       <c r="B39" t="s">
-        <v>349</v>
+        <v>326</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>416</v>
+        <v>393</v>
       </c>
     </row>
   </sheetData>
@@ -6121,7 +6334,7 @@
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>200</v>
+        <v>177</v>
       </c>
       <c r="B3" t="s">
         <v>35</v>
@@ -6135,7 +6348,7 @@
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>201</v>
+        <v>178</v>
       </c>
       <c r="B4" t="s">
         <v>35</v>
@@ -6149,7 +6362,7 @@
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>202</v>
+        <v>179</v>
       </c>
       <c r="B5" t="s">
         <v>35</v>
@@ -6163,7 +6376,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>203</v>
+        <v>180</v>
       </c>
       <c r="B6" t="s">
         <v>35</v>
@@ -6177,7 +6390,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>204</v>
+        <v>181</v>
       </c>
       <c r="B7" t="s">
         <v>35</v>
@@ -6186,12 +6399,12 @@
         <v>27</v>
       </c>
       <c r="D7" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>206</v>
+        <v>183</v>
       </c>
       <c r="B8" t="s">
         <v>35</v>
@@ -6200,12 +6413,12 @@
         <v>27</v>
       </c>
       <c r="D8" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>207</v>
+        <v>184</v>
       </c>
       <c r="B9" t="s">
         <v>35</v>
@@ -6214,12 +6427,12 @@
         <v>27</v>
       </c>
       <c r="D9" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>208</v>
+        <v>185</v>
       </c>
       <c r="B10" t="s">
         <v>35</v>
@@ -6228,12 +6441,12 @@
         <v>27</v>
       </c>
       <c r="D10" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>209</v>
+        <v>186</v>
       </c>
       <c r="B11" t="s">
         <v>35</v>
@@ -6242,82 +6455,82 @@
         <v>27</v>
       </c>
       <c r="D11" t="s">
-        <v>205</v>
+        <v>182</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>212</v>
+        <v>189</v>
       </c>
       <c r="B12" t="s">
         <v>35</v>
       </c>
       <c r="C12" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="D12" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>213</v>
+        <v>190</v>
       </c>
       <c r="B13" t="s">
         <v>35</v>
       </c>
       <c r="C13" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="D13" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>214</v>
+        <v>191</v>
       </c>
       <c r="B14" t="s">
         <v>35</v>
       </c>
       <c r="C14" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="D14" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>215</v>
+        <v>192</v>
       </c>
       <c r="B15" t="s">
         <v>35</v>
       </c>
       <c r="C15" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="D15" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>216</v>
+        <v>193</v>
       </c>
       <c r="B16" t="s">
         <v>35</v>
       </c>
       <c r="C16" t="s">
-        <v>210</v>
+        <v>187</v>
       </c>
       <c r="D16" t="s">
-        <v>211</v>
+        <v>188</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>217</v>
+        <v>194</v>
       </c>
       <c r="B17" t="s">
         <v>35</v>
@@ -6326,12 +6539,12 @@
         <v>31</v>
       </c>
       <c r="D17" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>219</v>
+        <v>196</v>
       </c>
       <c r="B18" t="s">
         <v>35</v>
@@ -6340,12 +6553,12 @@
         <v>31</v>
       </c>
       <c r="D18" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>220</v>
+        <v>197</v>
       </c>
       <c r="B19" t="s">
         <v>35</v>
@@ -6354,12 +6567,12 @@
         <v>31</v>
       </c>
       <c r="D19" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>221</v>
+        <v>198</v>
       </c>
       <c r="B20" t="s">
         <v>35</v>
@@ -6368,12 +6581,12 @@
         <v>31</v>
       </c>
       <c r="D20" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>222</v>
+        <v>199</v>
       </c>
       <c r="B21" t="s">
         <v>35</v>
@@ -6382,77 +6595,77 @@
         <v>31</v>
       </c>
       <c r="D21" t="s">
-        <v>218</v>
+        <v>195</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>223</v>
+        <v>200</v>
       </c>
       <c r="B22" t="s">
         <v>35</v>
       </c>
       <c r="C22" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="D22" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>224</v>
+        <v>201</v>
       </c>
       <c r="B23" t="s">
         <v>35</v>
       </c>
       <c r="C23" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="D23" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>225</v>
+        <v>202</v>
       </c>
       <c r="B24" t="s">
         <v>35</v>
       </c>
       <c r="C24" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="D24" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>226</v>
+        <v>203</v>
       </c>
       <c r="B25" t="s">
         <v>35</v>
       </c>
       <c r="C25" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="D25" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>227</v>
+        <v>204</v>
       </c>
       <c r="B26" t="s">
         <v>35</v>
       </c>
       <c r="C26" t="s">
-        <v>228</v>
+        <v>205</v>
       </c>
       <c r="D26" t="s">
-        <v>229</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -6487,352 +6700,352 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="B2" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="C2" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="D2" t="s">
-        <v>238</v>
+        <v>215</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>233</v>
+        <v>210</v>
       </c>
       <c r="B3" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="C3" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="D3" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>234</v>
+        <v>211</v>
       </c>
       <c r="B4" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="C4" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="D4" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>235</v>
+        <v>212</v>
       </c>
       <c r="B5" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="C5" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="D5" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>236</v>
+        <v>213</v>
       </c>
       <c r="B6" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="C6" t="s">
-        <v>231</v>
+        <v>208</v>
       </c>
       <c r="D6" t="s">
-        <v>237</v>
+        <v>214</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>240</v>
+        <v>217</v>
       </c>
       <c r="B7" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="C7" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="D7" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>241</v>
+        <v>218</v>
       </c>
       <c r="B8" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="C8" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="D8" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>242</v>
+        <v>219</v>
       </c>
       <c r="B9" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="C9" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="D9" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>243</v>
+        <v>220</v>
       </c>
       <c r="B10" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="C10" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="D10" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>244</v>
+        <v>221</v>
       </c>
       <c r="B11" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="C11" t="s">
-        <v>239</v>
+        <v>216</v>
       </c>
       <c r="D11" t="s">
-        <v>245</v>
+        <v>222</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>246</v>
+        <v>223</v>
       </c>
       <c r="B12" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="C12" t="s">
         <v>29</v>
       </c>
       <c r="D12" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>247</v>
+        <v>224</v>
       </c>
       <c r="B13" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="C13" t="s">
         <v>29</v>
       </c>
       <c r="D13" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
     </row>
     <row r="14" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>248</v>
+        <v>225</v>
       </c>
       <c r="B14" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="C14" t="s">
         <v>29</v>
       </c>
       <c r="D14" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>249</v>
+        <v>226</v>
       </c>
       <c r="B15" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="C15" t="s">
         <v>29</v>
       </c>
       <c r="D15" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>250</v>
+        <v>227</v>
       </c>
       <c r="B16" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="C16" t="s">
         <v>29</v>
       </c>
       <c r="D16" t="s">
-        <v>251</v>
+        <v>228</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>253</v>
+        <v>230</v>
       </c>
       <c r="B17" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="C17" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="D17" t="s">
-        <v>258</v>
+        <v>235</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>254</v>
+        <v>231</v>
       </c>
       <c r="B18" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="C18" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="D18" t="s">
-        <v>259</v>
+        <v>236</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>255</v>
+        <v>232</v>
       </c>
       <c r="B19" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="C19" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="D19" t="s">
-        <v>260</v>
+        <v>237</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>256</v>
+        <v>233</v>
       </c>
       <c r="B20" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="C20" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="D20" t="s">
-        <v>261</v>
+        <v>238</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>257</v>
+        <v>234</v>
       </c>
       <c r="B21" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="C21" t="s">
-        <v>252</v>
+        <v>229</v>
       </c>
       <c r="D21" t="s">
-        <v>262</v>
+        <v>239</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>264</v>
+        <v>241</v>
       </c>
       <c r="B22" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="C22" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="D22" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>265</v>
+        <v>242</v>
       </c>
       <c r="B23" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="C23" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="D23" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>266</v>
+        <v>243</v>
       </c>
       <c r="B24" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="C24" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="D24" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>267</v>
+        <v>244</v>
       </c>
       <c r="B25" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="C25" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="D25" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>268</v>
+        <v>245</v>
       </c>
       <c r="B26" t="s">
-        <v>230</v>
+        <v>207</v>
       </c>
       <c r="C26" t="s">
-        <v>263</v>
+        <v>240</v>
       </c>
       <c r="D26" t="s">
-        <v>269</v>
+        <v>246</v>
       </c>
     </row>
   </sheetData>
@@ -6869,519 +7082,519 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>270</v>
+        <v>247</v>
       </c>
       <c r="B2" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="C2" s="1" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>271</v>
+        <v>248</v>
       </c>
       <c r="B3" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="C3" s="1" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>272</v>
+        <v>249</v>
       </c>
       <c r="B4" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="C4" s="1" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>273</v>
+        <v>250</v>
       </c>
       <c r="B5" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="C5" s="1" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>274</v>
+        <v>251</v>
       </c>
       <c r="B6" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="C6" s="1" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>275</v>
+        <v>252</v>
       </c>
       <c r="B7" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="C7" s="1" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>276</v>
+        <v>253</v>
       </c>
       <c r="B8" t="s">
-        <v>280</v>
+        <v>257</v>
       </c>
       <c r="C8" s="1" t="s">
-        <v>277</v>
+        <v>254</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>278</v>
+        <v>255</v>
       </c>
       <c r="B9" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="C9" s="1" t="s">
-        <v>283</v>
+        <v>260</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>281</v>
+        <v>258</v>
       </c>
       <c r="B10" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="C10" s="1" t="s">
-        <v>282</v>
+        <v>259</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>285</v>
+        <v>262</v>
       </c>
       <c r="B11" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="C11" s="1" t="s">
-        <v>284</v>
+        <v>261</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="B12" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="C12" s="1" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>286</v>
+        <v>263</v>
       </c>
       <c r="B13" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="C13" s="1" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>288</v>
+        <v>265</v>
       </c>
       <c r="B14" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="C14" s="1" t="s">
-        <v>705</v>
+        <v>681</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>335</v>
+        <v>312</v>
       </c>
       <c r="B15" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="C15" s="1" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>289</v>
+        <v>266</v>
       </c>
       <c r="B16" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="C16" s="1" t="s">
-        <v>287</v>
+        <v>264</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>290</v>
+        <v>267</v>
       </c>
       <c r="B17" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="C17" s="1" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>291</v>
+        <v>268</v>
       </c>
       <c r="B18" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="C18" s="1" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>292</v>
+        <v>269</v>
       </c>
       <c r="B19" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="C19" s="1" t="s">
-        <v>293</v>
+        <v>270</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>294</v>
+        <v>271</v>
       </c>
       <c r="B20" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="C20" s="1" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>296</v>
+        <v>273</v>
       </c>
       <c r="B21" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="C21" s="1" t="s">
-        <v>295</v>
+        <v>272</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>298</v>
+        <v>275</v>
       </c>
       <c r="B22" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="C22" s="1" t="s">
-        <v>297</v>
+        <v>274</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>299</v>
+        <v>276</v>
       </c>
       <c r="B23" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="C23" s="1" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>300</v>
+        <v>277</v>
       </c>
       <c r="B24" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="C24" s="1" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>301</v>
+        <v>278</v>
       </c>
       <c r="B25" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="C25" s="1" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>302</v>
+        <v>279</v>
       </c>
       <c r="B26" t="s">
-        <v>303</v>
+        <v>280</v>
       </c>
       <c r="C26" s="1" t="s">
-        <v>304</v>
+        <v>281</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>305</v>
+        <v>282</v>
       </c>
       <c r="B27" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="C27" s="1" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>306</v>
+        <v>283</v>
       </c>
       <c r="B28" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="C28" s="1" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>307</v>
+        <v>284</v>
       </c>
       <c r="B29" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="C29" s="1" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>308</v>
+        <v>285</v>
       </c>
       <c r="B30" t="s">
-        <v>309</v>
+        <v>286</v>
       </c>
       <c r="C30" s="1" t="s">
-        <v>310</v>
+        <v>287</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>313</v>
+        <v>290</v>
       </c>
       <c r="B31" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>314</v>
+        <v>291</v>
       </c>
       <c r="B32" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="C32" s="3" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>315</v>
+        <v>292</v>
       </c>
       <c r="B33" t="s">
-        <v>311</v>
+        <v>288</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>312</v>
+        <v>289</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="B34" t="s">
-        <v>316</v>
+        <v>293</v>
       </c>
       <c r="C34" s="3" t="s">
-        <v>317</v>
+        <v>294</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="B35" t="s">
-        <v>318</v>
+        <v>295</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>319</v>
+        <v>296</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>320</v>
+        <v>297</v>
       </c>
       <c r="B36" t="s">
         <v>26</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>321</v>
+        <v>298</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>322</v>
+        <v>299</v>
       </c>
       <c r="B37" t="s">
         <v>26</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>323</v>
+        <v>300</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>324</v>
+        <v>301</v>
       </c>
       <c r="B38" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="C38" s="3" t="s">
-        <v>325</v>
+        <v>302</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>326</v>
+        <v>303</v>
       </c>
       <c r="B39" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>327</v>
+        <v>304</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>328</v>
+        <v>305</v>
       </c>
       <c r="B40" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="C40" s="3" t="s">
-        <v>329</v>
+        <v>306</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>330</v>
+        <v>307</v>
       </c>
       <c r="B41" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>331</v>
+        <v>308</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>333</v>
+        <v>310</v>
       </c>
       <c r="B42" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>334</v>
+        <v>311</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>336</v>
+        <v>313</v>
       </c>
       <c r="B43" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>337</v>
+        <v>314</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>338</v>
+        <v>315</v>
       </c>
       <c r="B44" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>339</v>
+        <v>316</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>340</v>
+        <v>317</v>
       </c>
       <c r="B45" t="s">
         <v>26</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>341</v>
+        <v>318</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>342</v>
+        <v>319</v>
       </c>
       <c r="B46" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="C46" s="3" t="s">
-        <v>343</v>
+        <v>320</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>344</v>
+        <v>321</v>
       </c>
       <c r="B47" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="C47" s="3" t="s">
-        <v>345</v>
+        <v>322</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>346</v>
+        <v>323</v>
       </c>
       <c r="B48" t="s">
-        <v>279</v>
+        <v>256</v>
       </c>
       <c r="C48" s="3" t="s">
-        <v>347</v>
+        <v>324</v>
       </c>
     </row>
   </sheetData>
@@ -7438,15 +7651,15 @@
         <v>20</v>
       </c>
       <c r="J1" t="s">
-        <v>629</v>
+        <v>605</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>417</v>
+        <v>394</v>
       </c>
       <c r="B2" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C2" t="s">
         <v>21</v>
@@ -7455,21 +7668,21 @@
         <v>0</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="I2">
         <v>500</v>
       </c>
       <c r="J2" t="s">
-        <v>738</v>
+        <v>712</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>418</v>
+        <v>395</v>
       </c>
       <c r="B3" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C3" t="s">
         <v>21</v>
@@ -7478,21 +7691,21 @@
         <v>0</v>
       </c>
       <c r="H3" s="3" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="I3">
         <v>500</v>
       </c>
       <c r="J3" t="s">
-        <v>739</v>
+        <v>713</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>419</v>
+        <v>396</v>
       </c>
       <c r="B4" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C4" t="s">
         <v>21</v>
@@ -7501,7 +7714,7 @@
         <v>0</v>
       </c>
       <c r="H4" s="3" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="I4">
         <v>500</v>
@@ -7509,10 +7722,10 @@
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>420</v>
+        <v>397</v>
       </c>
       <c r="B5" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C5" t="s">
         <v>21</v>
@@ -7521,7 +7734,7 @@
         <v>0</v>
       </c>
       <c r="H5" s="3" t="s">
-        <v>421</v>
+        <v>398</v>
       </c>
       <c r="I5">
         <v>500</v>
@@ -7529,10 +7742,10 @@
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>422</v>
+        <v>399</v>
       </c>
       <c r="B6" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C6" t="s">
         <v>21</v>
@@ -7546,10 +7759,10 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>423</v>
+        <v>400</v>
       </c>
       <c r="B7" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C7" t="s">
         <v>21</v>
@@ -7563,10 +7776,10 @@
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>424</v>
+        <v>401</v>
       </c>
       <c r="B8" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C8" t="s">
         <v>21</v>
@@ -7580,10 +7793,10 @@
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>425</v>
+        <v>402</v>
       </c>
       <c r="B9" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C9" t="s">
         <v>21</v>
@@ -7597,10 +7810,10 @@
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>426</v>
+        <v>403</v>
       </c>
       <c r="B10" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C10" t="s">
         <v>21</v>
@@ -7614,10 +7827,10 @@
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>427</v>
+        <v>404</v>
       </c>
       <c r="B11" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C11" t="s">
         <v>21</v>
@@ -7631,10 +7844,10 @@
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>428</v>
+        <v>405</v>
       </c>
       <c r="B12" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C12" t="s">
         <v>21</v>
@@ -7648,10 +7861,10 @@
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>429</v>
+        <v>406</v>
       </c>
       <c r="B13" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C13" t="s">
         <v>21</v>
@@ -7665,10 +7878,10 @@
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>430</v>
+        <v>407</v>
       </c>
       <c r="B14" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C14" t="s">
         <v>21</v>
@@ -7682,10 +7895,10 @@
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>431</v>
+        <v>408</v>
       </c>
       <c r="B15" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C15" t="s">
         <v>21</v>
@@ -7699,10 +7912,10 @@
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>432</v>
+        <v>409</v>
       </c>
       <c r="B16" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C16" t="s">
         <v>21</v>
@@ -7716,10 +7929,10 @@
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>433</v>
+        <v>410</v>
       </c>
       <c r="B17" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C17" t="s">
         <v>21</v>
@@ -7733,10 +7946,10 @@
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>434</v>
+        <v>411</v>
       </c>
       <c r="B18" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C18" t="s">
         <v>21</v>
@@ -7750,10 +7963,10 @@
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>435</v>
+        <v>412</v>
       </c>
       <c r="B19" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C19" t="s">
         <v>21</v>
@@ -7770,7 +7983,7 @@
         <v>24</v>
       </c>
       <c r="B20" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C20" t="s">
         <v>21</v>
@@ -7787,7 +8000,7 @@
         <v>22</v>
       </c>
       <c r="B21" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C21" t="s">
         <v>21</v>
@@ -7801,10 +8014,10 @@
     </row>
     <row r="22" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>436</v>
+        <v>413</v>
       </c>
       <c r="B22" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C22" t="s">
         <v>21</v>
@@ -7813,15 +8026,15 @@
         <v>0</v>
       </c>
       <c r="H22" s="1" t="s">
-        <v>437</v>
+        <v>414</v>
       </c>
     </row>
     <row r="23" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>438</v>
+        <v>415</v>
       </c>
       <c r="B23" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C23" t="s">
         <v>21</v>
@@ -7830,15 +8043,15 @@
         <v>0</v>
       </c>
       <c r="H23" s="1" t="s">
-        <v>439</v>
+        <v>416</v>
       </c>
     </row>
     <row r="24" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>440</v>
+        <v>417</v>
       </c>
       <c r="B24" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C24" t="s">
         <v>21</v>
@@ -7847,7 +8060,7 @@
         <v>0</v>
       </c>
       <c r="E24" s="3" t="s">
-        <v>441</v>
+        <v>418</v>
       </c>
       <c r="H24" s="1" t="s">
         <v>23</v>
@@ -7855,10 +8068,10 @@
     </row>
     <row r="25" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>442</v>
+        <v>419</v>
       </c>
       <c r="B25" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C25" t="s">
         <v>21</v>
@@ -7867,7 +8080,7 @@
         <v>0</v>
       </c>
       <c r="E25" s="3" t="s">
-        <v>443</v>
+        <v>420</v>
       </c>
       <c r="H25" s="1" t="s">
         <v>23</v>
@@ -7875,10 +8088,10 @@
     </row>
     <row r="26" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>444</v>
+        <v>421</v>
       </c>
       <c r="B26" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C26" t="s">
         <v>21</v>
@@ -7887,7 +8100,7 @@
         <v>0</v>
       </c>
       <c r="E26" s="3" t="s">
-        <v>445</v>
+        <v>422</v>
       </c>
       <c r="H26" s="1" t="s">
         <v>23</v>
@@ -7895,10 +8108,10 @@
     </row>
     <row r="27" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>448</v>
+        <v>425</v>
       </c>
       <c r="B27" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C27" t="s">
         <v>21</v>
@@ -7907,18 +8120,18 @@
         <v>0</v>
       </c>
       <c r="E27" s="3" t="s">
-        <v>446</v>
+        <v>423</v>
       </c>
       <c r="H27" s="3" t="s">
-        <v>447</v>
+        <v>424</v>
       </c>
     </row>
     <row r="28" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>449</v>
+        <v>426</v>
       </c>
       <c r="B28" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C28" t="s">
         <v>21</v>
@@ -7927,7 +8140,7 @@
         <v>0</v>
       </c>
       <c r="E28" s="3" t="s">
-        <v>443</v>
+        <v>420</v>
       </c>
       <c r="H28" s="1" t="s">
         <v>23</v>
@@ -7935,10 +8148,10 @@
     </row>
     <row r="29" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>451</v>
+        <v>428</v>
       </c>
       <c r="B29" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C29" t="s">
         <v>21</v>
@@ -7947,15 +8160,15 @@
         <v>0</v>
       </c>
       <c r="H29" s="1" t="s">
-        <v>450</v>
+        <v>427</v>
       </c>
     </row>
     <row r="30" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>452</v>
+        <v>429</v>
       </c>
       <c r="B30" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C30" t="s">
         <v>21</v>
@@ -7972,10 +8185,10 @@
     </row>
     <row r="31" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>454</v>
+        <v>431</v>
       </c>
       <c r="B31" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C31" t="s">
         <v>21</v>
@@ -7987,7 +8200,7 @@
         <v>2</v>
       </c>
       <c r="H31" s="3" t="s">
-        <v>453</v>
+        <v>430</v>
       </c>
       <c r="I31">
         <v>100</v>
@@ -7995,10 +8208,10 @@
     </row>
     <row r="32" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>455</v>
+        <v>432</v>
       </c>
       <c r="B32" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C32" t="s">
         <v>21</v>
@@ -8015,10 +8228,10 @@
     </row>
     <row r="33" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>456</v>
+        <v>433</v>
       </c>
       <c r="B33" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C33" t="s">
         <v>21</v>
@@ -8035,10 +8248,10 @@
     </row>
     <row r="34" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>457</v>
+        <v>434</v>
       </c>
       <c r="B34" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C34" t="s">
         <v>21</v>
@@ -8055,10 +8268,10 @@
     </row>
     <row r="35" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>458</v>
+        <v>435</v>
       </c>
       <c r="B35" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C35" t="s">
         <v>21</v>
@@ -8070,7 +8283,7 @@
         <v>3</v>
       </c>
       <c r="H35" s="3" t="s">
-        <v>713</v>
+        <v>688</v>
       </c>
       <c r="I35">
         <v>300</v>
@@ -8078,10 +8291,10 @@
     </row>
     <row r="36" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>459</v>
+        <v>436</v>
       </c>
       <c r="B36" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C36" t="s">
         <v>21</v>
@@ -8098,10 +8311,10 @@
     </row>
     <row r="37" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>460</v>
+        <v>437</v>
       </c>
       <c r="B37" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C37" t="s">
         <v>21</v>
@@ -8118,10 +8331,10 @@
     </row>
     <row r="38" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>461</v>
+        <v>438</v>
       </c>
       <c r="B38" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C38" t="s">
         <v>21</v>
@@ -8138,10 +8351,10 @@
     </row>
     <row r="39" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>462</v>
+        <v>439</v>
       </c>
       <c r="B39" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C39" t="s">
         <v>21</v>
@@ -8158,10 +8371,10 @@
     </row>
     <row r="40" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>463</v>
+        <v>440</v>
       </c>
       <c r="B40" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C40" t="s">
         <v>21</v>
@@ -8181,10 +8394,10 @@
     </row>
     <row r="41" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>464</v>
+        <v>441</v>
       </c>
       <c r="B41" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C41" t="s">
         <v>21</v>
@@ -8201,10 +8414,10 @@
     </row>
     <row r="42" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>465</v>
+        <v>442</v>
       </c>
       <c r="B42" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C42" t="s">
         <v>21</v>
@@ -8221,10 +8434,10 @@
     </row>
     <row r="43" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>591</v>
+        <v>567</v>
       </c>
       <c r="B43" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C43" t="s">
         <v>21</v>
@@ -8241,10 +8454,10 @@
     </row>
     <row r="44" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>466</v>
+        <v>443</v>
       </c>
       <c r="B44" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C44" t="s">
         <v>21</v>
@@ -8261,10 +8474,10 @@
     </row>
     <row r="45" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>467</v>
+        <v>444</v>
       </c>
       <c r="B45" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C45" t="s">
         <v>21</v>
@@ -8281,10 +8494,10 @@
     </row>
     <row r="46" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>468</v>
+        <v>445</v>
       </c>
       <c r="B46" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C46" t="s">
         <v>21</v>
@@ -8301,10 +8514,10 @@
     </row>
     <row r="47" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>469</v>
+        <v>446</v>
       </c>
       <c r="B47" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C47" t="s">
         <v>21</v>
@@ -8316,7 +8529,7 @@
         <v>2</v>
       </c>
       <c r="H47" s="3" t="s">
-        <v>470</v>
+        <v>447</v>
       </c>
       <c r="I47">
         <v>100</v>
@@ -8324,10 +8537,10 @@
     </row>
     <row r="48" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>714</v>
+        <v>689</v>
       </c>
       <c r="B48" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C48" t="s">
         <v>21</v>
@@ -8347,7 +8560,7 @@
         <v>32</v>
       </c>
       <c r="B49" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C49" t="s">
         <v>21</v>
@@ -8367,7 +8580,7 @@
         <v>25</v>
       </c>
       <c r="B50" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C50" t="s">
         <v>21</v>
@@ -8384,10 +8597,10 @@
     </row>
     <row r="51" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>472</v>
+        <v>449</v>
       </c>
       <c r="B51" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C51" t="s">
         <v>18</v>
@@ -8396,7 +8609,7 @@
         <v>0</v>
       </c>
       <c r="E51" s="3" t="s">
-        <v>471</v>
+        <v>448</v>
       </c>
       <c r="F51">
         <v>4</v>
@@ -8410,10 +8623,10 @@
     </row>
     <row r="52" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>473</v>
+        <v>450</v>
       </c>
       <c r="B52" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C52" t="s">
         <v>18</v>
@@ -8428,7 +8641,7 @@
         <v>1</v>
       </c>
       <c r="H52" s="3" t="s">
-        <v>474</v>
+        <v>451</v>
       </c>
       <c r="I52">
         <v>400</v>
@@ -8436,10 +8649,10 @@
     </row>
     <row r="53" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>475</v>
+        <v>452</v>
       </c>
       <c r="B53" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C53" t="s">
         <v>18</v>
@@ -8448,7 +8661,7 @@
         <v>0</v>
       </c>
       <c r="E53" s="3" t="s">
-        <v>477</v>
+        <v>454</v>
       </c>
       <c r="F53">
         <v>3</v>
@@ -8457,7 +8670,7 @@
         <v>1</v>
       </c>
       <c r="H53" s="3" t="s">
-        <v>476</v>
+        <v>453</v>
       </c>
       <c r="I53">
         <v>500</v>
@@ -8468,7 +8681,7 @@
         <v>33</v>
       </c>
       <c r="B54" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C54" t="s">
         <v>18</v>
@@ -8488,10 +8701,10 @@
     </row>
     <row r="55" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>479</v>
+        <v>456</v>
       </c>
       <c r="B55" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C55" t="s">
         <v>18</v>
@@ -8500,7 +8713,7 @@
         <v>0</v>
       </c>
       <c r="E55" s="3" t="s">
-        <v>478</v>
+        <v>455</v>
       </c>
       <c r="F55">
         <v>4</v>
@@ -8514,10 +8727,10 @@
     </row>
     <row r="56" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>480</v>
+        <v>457</v>
       </c>
       <c r="B56" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C56" t="s">
         <v>18</v>
@@ -8526,7 +8739,7 @@
         <v>0</v>
       </c>
       <c r="E56" s="3" t="s">
-        <v>481</v>
+        <v>458</v>
       </c>
       <c r="F56">
         <v>3</v>
@@ -8540,10 +8753,10 @@
     </row>
     <row r="57" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>482</v>
+        <v>459</v>
       </c>
       <c r="B57" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C57" t="s">
         <v>18</v>
@@ -8558,7 +8771,7 @@
         <v>1</v>
       </c>
       <c r="H57" s="3" t="s">
-        <v>483</v>
+        <v>460</v>
       </c>
       <c r="I57">
         <v>0</v>
@@ -8566,10 +8779,10 @@
     </row>
     <row r="58" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>485</v>
+        <v>462</v>
       </c>
       <c r="B58" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C58" t="s">
         <v>18</v>
@@ -8578,7 +8791,7 @@
         <v>0</v>
       </c>
       <c r="E58" s="3" t="s">
-        <v>484</v>
+        <v>461</v>
       </c>
       <c r="F58">
         <v>3</v>
@@ -8592,10 +8805,10 @@
     </row>
     <row r="59" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>486</v>
+        <v>463</v>
       </c>
       <c r="B59" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C59" t="s">
         <v>18</v>
@@ -8618,7 +8831,7 @@
         <v>28</v>
       </c>
       <c r="B60" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C60" t="s">
         <v>18</v>
@@ -8627,7 +8840,7 @@
         <v>0</v>
       </c>
       <c r="E60" s="3" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="F60">
         <v>3</v>
@@ -8644,7 +8857,7 @@
         <v>30</v>
       </c>
       <c r="B61" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C61" t="s">
         <v>18</v>
@@ -8653,7 +8866,7 @@
         <v>0</v>
       </c>
       <c r="E61" s="3" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="F61">
         <v>3</v>
@@ -8667,10 +8880,10 @@
     </row>
     <row r="62" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>489</v>
+        <v>466</v>
       </c>
       <c r="B62" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C62" t="s">
         <v>18</v>
@@ -8679,7 +8892,7 @@
         <v>0</v>
       </c>
       <c r="E62" s="3" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="F62">
         <v>4</v>
@@ -8693,10 +8906,10 @@
     </row>
     <row r="63" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>490</v>
+        <v>467</v>
       </c>
       <c r="B63" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C63" t="s">
         <v>18</v>
@@ -8716,10 +8929,10 @@
     </row>
     <row r="64" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>492</v>
+        <v>469</v>
       </c>
       <c r="B64" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C64" t="s">
         <v>18</v>
@@ -8728,7 +8941,7 @@
         <v>0</v>
       </c>
       <c r="E64" s="3" t="s">
-        <v>491</v>
+        <v>468</v>
       </c>
       <c r="F64">
         <v>5</v>
@@ -8742,10 +8955,10 @@
     </row>
     <row r="65" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>493</v>
+        <v>470</v>
       </c>
       <c r="B65" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C65" t="s">
         <v>18</v>
@@ -8765,10 +8978,10 @@
     </row>
     <row r="66" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>495</v>
+        <v>472</v>
       </c>
       <c r="B66" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C66" t="s">
         <v>18</v>
@@ -8777,7 +8990,7 @@
         <v>1</v>
       </c>
       <c r="E66" s="3" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="F66">
         <v>4</v>
@@ -8791,10 +9004,10 @@
     </row>
     <row r="67" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>496</v>
+        <v>473</v>
       </c>
       <c r="B67" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C67" t="s">
         <v>18</v>
@@ -8803,7 +9016,7 @@
         <v>0</v>
       </c>
       <c r="E67" s="3" t="s">
-        <v>497</v>
+        <v>474</v>
       </c>
       <c r="F67">
         <v>5</v>
@@ -8817,10 +9030,10 @@
     </row>
     <row r="68" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>498</v>
+        <v>475</v>
       </c>
       <c r="B68" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C68" t="s">
         <v>18</v>
@@ -8829,7 +9042,7 @@
         <v>0</v>
       </c>
       <c r="E68" s="3" t="s">
-        <v>488</v>
+        <v>465</v>
       </c>
       <c r="F68">
         <v>3</v>
@@ -8843,10 +9056,10 @@
     </row>
     <row r="69" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>499</v>
+        <v>476</v>
       </c>
       <c r="B69" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C69" t="s">
         <v>18</v>
@@ -8866,10 +9079,10 @@
     </row>
     <row r="70" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>500</v>
+        <v>477</v>
       </c>
       <c r="B70" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C70" t="s">
         <v>18</v>
@@ -8878,7 +9091,7 @@
         <v>1</v>
       </c>
       <c r="E70" s="3" t="s">
-        <v>478</v>
+        <v>455</v>
       </c>
       <c r="F70">
         <v>4</v>
@@ -8892,10 +9105,10 @@
     </row>
     <row r="71" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>501</v>
+        <v>478</v>
       </c>
       <c r="B71" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C71" t="s">
         <v>18</v>
@@ -8904,7 +9117,7 @@
         <v>0</v>
       </c>
       <c r="E71" s="3" t="s">
-        <v>494</v>
+        <v>471</v>
       </c>
       <c r="F71">
         <v>3</v>
@@ -8918,10 +9131,10 @@
     </row>
     <row r="72" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>502</v>
+        <v>479</v>
       </c>
       <c r="B72" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C72" t="s">
         <v>18</v>
@@ -8930,7 +9143,7 @@
         <v>0</v>
       </c>
       <c r="E72" s="3" t="s">
-        <v>503</v>
+        <v>480</v>
       </c>
       <c r="F72">
         <v>5</v>
@@ -8944,10 +9157,10 @@
     </row>
     <row r="73" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>505</v>
+        <v>482</v>
       </c>
       <c r="B73" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C73" t="s">
         <v>18</v>
@@ -8956,7 +9169,7 @@
         <v>1</v>
       </c>
       <c r="E73" s="3" t="s">
-        <v>504</v>
+        <v>481</v>
       </c>
       <c r="F73">
         <v>4</v>
@@ -8970,10 +9183,10 @@
     </row>
     <row r="74" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>530</v>
+        <v>506</v>
       </c>
       <c r="B74" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C74" t="s">
         <v>18</v>
@@ -8982,7 +9195,7 @@
         <v>0</v>
       </c>
       <c r="E74" s="3" t="s">
-        <v>529</v>
+        <v>505</v>
       </c>
       <c r="F74">
         <v>3</v>
@@ -8996,10 +9209,10 @@
     </row>
     <row r="75" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>531</v>
+        <v>507</v>
       </c>
       <c r="B75" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C75" t="s">
         <v>18</v>
@@ -9019,10 +9232,10 @@
     </row>
     <row r="76" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>532</v>
+        <v>508</v>
       </c>
       <c r="B76" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C76" t="s">
         <v>18</v>
@@ -9031,7 +9244,7 @@
         <v>1</v>
       </c>
       <c r="E76" s="3" t="s">
-        <v>533</v>
+        <v>509</v>
       </c>
       <c r="F76">
         <v>5</v>
@@ -9045,10 +9258,10 @@
     </row>
     <row r="77" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>534</v>
+        <v>510</v>
       </c>
       <c r="B77" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C77" t="s">
         <v>18</v>
@@ -9057,7 +9270,7 @@
         <v>0</v>
       </c>
       <c r="E77" s="3" t="s">
-        <v>497</v>
+        <v>474</v>
       </c>
       <c r="F77">
         <v>4</v>
@@ -9071,10 +9284,10 @@
     </row>
     <row r="78" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>536</v>
+        <v>512</v>
       </c>
       <c r="B78" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C78" t="s">
         <v>18</v>
@@ -9083,7 +9296,7 @@
         <v>0</v>
       </c>
       <c r="E78" s="3" t="s">
-        <v>535</v>
+        <v>511</v>
       </c>
       <c r="F78">
         <v>3</v>
@@ -9097,10 +9310,10 @@
     </row>
     <row r="79" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>537</v>
+        <v>513</v>
       </c>
       <c r="B79" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C79" t="s">
         <v>18</v>
@@ -9115,7 +9328,7 @@
         <v>1</v>
       </c>
       <c r="H79" s="3" t="s">
-        <v>538</v>
+        <v>514</v>
       </c>
       <c r="I79">
         <v>800</v>
@@ -9123,10 +9336,10 @@
     </row>
     <row r="80" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>539</v>
+        <v>515</v>
       </c>
       <c r="B80" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C80" t="s">
         <v>18</v>
@@ -9135,7 +9348,7 @@
         <v>0</v>
       </c>
       <c r="E80" s="3" t="s">
-        <v>540</v>
+        <v>516</v>
       </c>
       <c r="F80">
         <v>1</v>
@@ -9144,7 +9357,7 @@
         <v>0</v>
       </c>
       <c r="H80" s="3" t="s">
-        <v>541</v>
+        <v>517</v>
       </c>
       <c r="I80">
         <v>100</v>
@@ -9152,10 +9365,10 @@
     </row>
     <row r="81" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>542</v>
+        <v>518</v>
       </c>
       <c r="B81" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C81" t="s">
         <v>18</v>
@@ -9170,7 +9383,7 @@
         <v>1</v>
       </c>
       <c r="H81" s="3" t="s">
-        <v>543</v>
+        <v>519</v>
       </c>
       <c r="I81">
         <v>300</v>
@@ -9178,10 +9391,10 @@
     </row>
     <row r="82" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>544</v>
+        <v>520</v>
       </c>
       <c r="B82" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C82" t="s">
         <v>18</v>
@@ -9196,7 +9409,7 @@
         <v>2</v>
       </c>
       <c r="H82" s="3" t="s">
-        <v>545</v>
+        <v>521</v>
       </c>
       <c r="I82">
         <v>1200</v>
@@ -9204,10 +9417,10 @@
     </row>
     <row r="83" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>548</v>
+        <v>524</v>
       </c>
       <c r="B83" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C83" t="s">
         <v>18</v>
@@ -9222,7 +9435,7 @@
         <v>1</v>
       </c>
       <c r="H83" s="3" t="s">
-        <v>546</v>
+        <v>522</v>
       </c>
       <c r="I83">
         <v>400</v>
@@ -9230,10 +9443,10 @@
     </row>
     <row r="84" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>547</v>
+        <v>523</v>
       </c>
       <c r="B84" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C84" t="s">
         <v>18</v>
@@ -9248,7 +9461,7 @@
         <v>2</v>
       </c>
       <c r="H84" s="3" t="s">
-        <v>549</v>
+        <v>525</v>
       </c>
       <c r="I84">
         <v>700</v>
@@ -9256,10 +9469,10 @@
     </row>
     <row r="85" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>598</v>
+        <v>574</v>
       </c>
       <c r="B85" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C85" t="s">
         <v>18</v>
@@ -9274,7 +9487,7 @@
         <v>0</v>
       </c>
       <c r="H85" s="3" t="s">
-        <v>599</v>
+        <v>575</v>
       </c>
       <c r="I85">
         <v>800</v>
@@ -9282,13 +9495,13 @@
     </row>
     <row r="86" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>552</v>
+        <v>528</v>
       </c>
       <c r="B86" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C86" t="s">
-        <v>550</v>
+        <v>526</v>
       </c>
       <c r="D86" t="b">
         <v>0</v>
@@ -9297,7 +9510,7 @@
         <v>1</v>
       </c>
       <c r="H86" s="3" t="s">
-        <v>551</v>
+        <v>527</v>
       </c>
       <c r="I86">
         <v>600</v>
@@ -9305,13 +9518,13 @@
     </row>
     <row r="87" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>553</v>
+        <v>529</v>
       </c>
       <c r="B87" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C87" t="s">
-        <v>550</v>
+        <v>526</v>
       </c>
       <c r="D87" t="b">
         <v>0</v>
@@ -9325,19 +9538,19 @@
     </row>
     <row r="88" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>554</v>
+        <v>530</v>
       </c>
       <c r="B88" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C88" t="s">
-        <v>550</v>
+        <v>526</v>
       </c>
       <c r="D88" t="b">
         <v>0</v>
       </c>
       <c r="E88" s="3" t="s">
-        <v>555</v>
+        <v>531</v>
       </c>
       <c r="F88">
         <v>3</v>
@@ -9348,19 +9561,19 @@
     </row>
     <row r="89" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>556</v>
+        <v>532</v>
       </c>
       <c r="B89" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C89" t="s">
-        <v>550</v>
+        <v>526</v>
       </c>
       <c r="D89" t="b">
         <v>0</v>
       </c>
       <c r="E89" s="3" t="s">
-        <v>557</v>
+        <v>533</v>
       </c>
       <c r="F89">
         <v>3</v>
@@ -9371,13 +9584,13 @@
     </row>
     <row r="90" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>558</v>
+        <v>534</v>
       </c>
       <c r="B90" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C90" t="s">
-        <v>550</v>
+        <v>526</v>
       </c>
       <c r="D90" t="b">
         <v>0</v>
@@ -9386,7 +9599,7 @@
         <v>2</v>
       </c>
       <c r="H90" s="3" t="s">
-        <v>559</v>
+        <v>535</v>
       </c>
       <c r="I90">
         <v>400</v>
@@ -9394,13 +9607,13 @@
     </row>
     <row r="91" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>560</v>
+        <v>536</v>
       </c>
       <c r="B91" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C91" t="s">
-        <v>550</v>
+        <v>526</v>
       </c>
       <c r="D91" t="b">
         <v>0</v>
@@ -9409,7 +9622,7 @@
         <v>0</v>
       </c>
       <c r="H91" s="3" t="s">
-        <v>561</v>
+        <v>537</v>
       </c>
       <c r="I91">
         <v>800</v>
@@ -9417,13 +9630,13 @@
     </row>
     <row r="92" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>579</v>
+        <v>555</v>
       </c>
       <c r="B92" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C92" t="s">
-        <v>550</v>
+        <v>526</v>
       </c>
       <c r="D92" t="b">
         <v>0</v>
@@ -9432,7 +9645,7 @@
         <v>2</v>
       </c>
       <c r="H92" s="3" t="s">
-        <v>576</v>
+        <v>552</v>
       </c>
       <c r="I92">
         <v>400</v>
@@ -9440,13 +9653,13 @@
     </row>
     <row r="93" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>562</v>
+        <v>538</v>
       </c>
       <c r="B93" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C93" t="s">
-        <v>550</v>
+        <v>526</v>
       </c>
       <c r="D93" t="b">
         <v>0</v>
@@ -9455,7 +9668,7 @@
         <v>2</v>
       </c>
       <c r="H93" s="3" t="s">
-        <v>563</v>
+        <v>539</v>
       </c>
       <c r="I93">
         <v>600</v>
@@ -9463,13 +9676,13 @@
     </row>
     <row r="94" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>564</v>
+        <v>540</v>
       </c>
       <c r="B94" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C94" t="s">
-        <v>550</v>
+        <v>526</v>
       </c>
       <c r="D94" t="b">
         <v>0</v>
@@ -9478,7 +9691,7 @@
         <v>2</v>
       </c>
       <c r="H94" s="3" t="s">
-        <v>565</v>
+        <v>541</v>
       </c>
       <c r="I94">
         <v>900</v>
@@ -9486,19 +9699,19 @@
     </row>
     <row r="95" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>568</v>
+        <v>544</v>
       </c>
       <c r="B95" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C95" t="s">
-        <v>566</v>
+        <v>542</v>
       </c>
       <c r="D95" t="b">
         <v>1</v>
       </c>
       <c r="E95" s="3" t="s">
-        <v>567</v>
+        <v>543</v>
       </c>
       <c r="F95">
         <v>3</v>
@@ -9509,13 +9722,13 @@
     </row>
     <row r="96" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>569</v>
+        <v>545</v>
       </c>
       <c r="B96" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C96" t="s">
-        <v>566</v>
+        <v>542</v>
       </c>
       <c r="D96" t="b">
         <v>0</v>
@@ -9530,13 +9743,13 @@
     </row>
     <row r="97" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>570</v>
+        <v>546</v>
       </c>
       <c r="B97" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C97" t="s">
-        <v>566</v>
+        <v>542</v>
       </c>
       <c r="D97" t="b">
         <v>0</v>
@@ -9550,13 +9763,13 @@
     </row>
     <row r="98" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>571</v>
+        <v>547</v>
       </c>
       <c r="B98" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C98" t="s">
-        <v>566</v>
+        <v>542</v>
       </c>
       <c r="D98" t="b">
         <v>0</v>
@@ -9571,13 +9784,13 @@
     </row>
     <row r="99" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>572</v>
+        <v>548</v>
       </c>
       <c r="B99" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C99" t="s">
-        <v>566</v>
+        <v>542</v>
       </c>
       <c r="D99" t="b">
         <v>0</v>
@@ -9591,19 +9804,19 @@
     </row>
     <row r="100" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>574</v>
+        <v>550</v>
       </c>
       <c r="B100" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C100" t="s">
-        <v>566</v>
+        <v>542</v>
       </c>
       <c r="D100" t="b">
         <v>0</v>
       </c>
       <c r="E100" s="3" t="s">
-        <v>573</v>
+        <v>549</v>
       </c>
       <c r="F100">
         <v>3</v>
@@ -9614,25 +9827,25 @@
     </row>
     <row r="101" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>575</v>
+        <v>551</v>
       </c>
       <c r="B101" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C101" t="s">
-        <v>566</v>
+        <v>542</v>
       </c>
       <c r="D101" t="b">
         <v>0</v>
       </c>
       <c r="E101" s="3" t="s">
-        <v>491</v>
+        <v>468</v>
       </c>
       <c r="F101">
         <v>4</v>
       </c>
       <c r="H101" s="3" t="s">
-        <v>576</v>
+        <v>552</v>
       </c>
       <c r="I101">
         <v>600</v>
@@ -9640,13 +9853,13 @@
     </row>
     <row r="102" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>578</v>
+        <v>554</v>
       </c>
       <c r="B102" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C102" t="s">
-        <v>566</v>
+        <v>542</v>
       </c>
       <c r="D102" t="b">
         <v>0</v>
@@ -9655,7 +9868,7 @@
         <v>0</v>
       </c>
       <c r="H102" s="3" t="s">
-        <v>577</v>
+        <v>553</v>
       </c>
       <c r="I102">
         <v>100</v>
@@ -9663,13 +9876,13 @@
     </row>
     <row r="103" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>581</v>
+        <v>557</v>
       </c>
       <c r="B103" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C103" t="s">
-        <v>580</v>
+        <v>556</v>
       </c>
       <c r="D103" t="b">
         <v>0</v>
@@ -9683,13 +9896,13 @@
     </row>
     <row r="104" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>582</v>
+        <v>558</v>
       </c>
       <c r="B104" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C104" t="s">
-        <v>580</v>
+        <v>556</v>
       </c>
       <c r="D104" t="b">
         <v>0</v>
@@ -9698,7 +9911,7 @@
         <v>0</v>
       </c>
       <c r="H104" s="3" t="s">
-        <v>583</v>
+        <v>559</v>
       </c>
       <c r="I104">
         <v>400</v>
@@ -9706,13 +9919,13 @@
     </row>
     <row r="105" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>584</v>
+        <v>560</v>
       </c>
       <c r="B105" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C105" t="s">
-        <v>580</v>
+        <v>556</v>
       </c>
       <c r="D105" t="b">
         <v>0</v>
@@ -9721,7 +9934,7 @@
         <v>0</v>
       </c>
       <c r="H105" s="3" t="s">
-        <v>585</v>
+        <v>561</v>
       </c>
       <c r="I105">
         <v>700</v>
@@ -9729,25 +9942,25 @@
     </row>
     <row r="106" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>588</v>
+        <v>564</v>
       </c>
       <c r="B106" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C106" t="s">
-        <v>580</v>
+        <v>556</v>
       </c>
       <c r="D106" t="b">
         <v>0</v>
       </c>
       <c r="E106" s="3" t="s">
-        <v>586</v>
+        <v>562</v>
       </c>
       <c r="F106">
         <v>4</v>
       </c>
       <c r="H106" s="3" t="s">
-        <v>587</v>
+        <v>563</v>
       </c>
       <c r="I106">
         <v>200</v>
@@ -9755,13 +9968,13 @@
     </row>
     <row r="107" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>589</v>
+        <v>565</v>
       </c>
       <c r="B107" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C107" t="s">
-        <v>580</v>
+        <v>556</v>
       </c>
       <c r="D107" t="b">
         <v>0</v>
@@ -9770,7 +9983,7 @@
         <v>0</v>
       </c>
       <c r="H107" s="3" t="s">
-        <v>590</v>
+        <v>566</v>
       </c>
       <c r="I107">
         <v>600</v>
@@ -9778,44 +9991,44 @@
     </row>
     <row r="108" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>592</v>
+        <v>568</v>
       </c>
       <c r="B108" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C108" t="s">
-        <v>593</v>
+        <v>569</v>
       </c>
       <c r="F108">
         <v>1</v>
       </c>
       <c r="H108" s="3" t="s">
-        <v>595</v>
+        <v>571</v>
       </c>
     </row>
     <row r="109" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>594</v>
+        <v>570</v>
       </c>
       <c r="B109" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C109" t="s">
-        <v>593</v>
+        <v>569</v>
       </c>
       <c r="F109">
         <v>1</v>
       </c>
       <c r="H109" s="3" t="s">
-        <v>595</v>
+        <v>571</v>
       </c>
     </row>
     <row r="110" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A110" t="s">
-        <v>596</v>
+        <v>572</v>
       </c>
       <c r="B110" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C110" t="s">
         <v>26</v>
@@ -9824,15 +10037,15 @@
         <v>3</v>
       </c>
       <c r="H110" s="3" t="s">
-        <v>597</v>
+        <v>573</v>
       </c>
     </row>
     <row r="111" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A111" t="s">
-        <v>602</v>
+        <v>578</v>
       </c>
       <c r="B111" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C111" t="s">
         <v>21</v>
@@ -9844,7 +10057,7 @@
         <v>0</v>
       </c>
       <c r="H111" s="3" t="s">
-        <v>603</v>
+        <v>579</v>
       </c>
       <c r="I111">
         <v>100</v>
@@ -9852,10 +10065,10 @@
     </row>
     <row r="112" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A112" t="s">
-        <v>605</v>
+        <v>581</v>
       </c>
       <c r="B112" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C112" t="s">
         <v>21</v>
@@ -9867,15 +10080,15 @@
         <v>2</v>
       </c>
       <c r="H112" s="3" t="s">
-        <v>608</v>
+        <v>584</v>
       </c>
     </row>
     <row r="113" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A113" t="s">
-        <v>606</v>
+        <v>582</v>
       </c>
       <c r="B113" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C113" t="s">
         <v>21</v>
@@ -9887,15 +10100,15 @@
         <v>2</v>
       </c>
       <c r="H113" s="3" t="s">
-        <v>604</v>
+        <v>580</v>
       </c>
     </row>
     <row r="114" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A114" t="s">
-        <v>607</v>
+        <v>583</v>
       </c>
       <c r="B114" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C114" t="s">
         <v>21</v>
@@ -9907,15 +10120,15 @@
         <v>2</v>
       </c>
       <c r="H114" s="3" t="s">
-        <v>604</v>
+        <v>580</v>
       </c>
     </row>
     <row r="115" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A115" t="s">
-        <v>601</v>
+        <v>577</v>
       </c>
       <c r="B115" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C115" t="s">
         <v>26</v>
@@ -9927,7 +10140,7 @@
         <v>2</v>
       </c>
       <c r="H115" s="3" t="s">
-        <v>600</v>
+        <v>576</v>
       </c>
       <c r="I115">
         <v>500</v>
@@ -9935,10 +10148,10 @@
     </row>
     <row r="116" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A116" t="s">
-        <v>610</v>
+        <v>586</v>
       </c>
       <c r="B116" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C116" t="s">
         <v>26</v>
@@ -9947,7 +10160,7 @@
         <v>0</v>
       </c>
       <c r="E116" s="3" t="s">
-        <v>609</v>
+        <v>585</v>
       </c>
       <c r="F116">
         <v>3</v>
@@ -9958,10 +10171,10 @@
     </row>
     <row r="117" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A117" t="s">
-        <v>611</v>
+        <v>587</v>
       </c>
       <c r="B117" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C117" t="s">
         <v>26</v>
@@ -9973,7 +10186,7 @@
         <v>2</v>
       </c>
       <c r="H117" s="3" t="s">
-        <v>612</v>
+        <v>588</v>
       </c>
       <c r="I117">
         <v>1000</v>
@@ -9981,10 +10194,10 @@
     </row>
     <row r="118" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A118" t="s">
-        <v>613</v>
+        <v>589</v>
       </c>
       <c r="B118" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C118" t="s">
         <v>26</v>
@@ -9996,7 +10209,7 @@
         <v>2</v>
       </c>
       <c r="H118" s="3" t="s">
-        <v>614</v>
+        <v>590</v>
       </c>
       <c r="I118">
         <v>600</v>
@@ -10004,10 +10217,10 @@
     </row>
     <row r="119" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A119" t="s">
-        <v>615</v>
+        <v>591</v>
       </c>
       <c r="B119" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C119" t="s">
         <v>26</v>
@@ -10016,7 +10229,7 @@
         <v>0</v>
       </c>
       <c r="E119" s="3" t="s">
-        <v>616</v>
+        <v>592</v>
       </c>
       <c r="F119">
         <v>2</v>
@@ -10027,10 +10240,10 @@
     </row>
     <row r="120" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A120" t="s">
-        <v>617</v>
+        <v>593</v>
       </c>
       <c r="B120" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C120" t="s">
         <v>26</v>
@@ -10039,7 +10252,7 @@
         <v>1</v>
       </c>
       <c r="E120" s="3" t="s">
-        <v>471</v>
+        <v>448</v>
       </c>
       <c r="F120">
         <v>3</v>
@@ -10050,10 +10263,10 @@
     </row>
     <row r="121" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A121" t="s">
-        <v>618</v>
+        <v>594</v>
       </c>
       <c r="B121" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C121" t="s">
         <v>26</v>
@@ -10070,10 +10283,10 @@
     </row>
     <row r="122" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A122" t="s">
-        <v>619</v>
+        <v>595</v>
       </c>
       <c r="B122" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C122" t="s">
         <v>26</v>
@@ -10082,7 +10295,7 @@
         <v>1</v>
       </c>
       <c r="E122" s="3" t="s">
-        <v>620</v>
+        <v>596</v>
       </c>
       <c r="F122">
         <v>3</v>
@@ -10093,10 +10306,10 @@
     </row>
     <row r="123" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A123" t="s">
-        <v>622</v>
+        <v>598</v>
       </c>
       <c r="B123" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C123" t="s">
         <v>26</v>
@@ -10105,7 +10318,7 @@
         <v>0</v>
       </c>
       <c r="E123" s="3" t="s">
-        <v>621</v>
+        <v>597</v>
       </c>
       <c r="F123">
         <v>3</v>
@@ -10116,10 +10329,10 @@
     </row>
     <row r="124" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A124" t="s">
-        <v>623</v>
+        <v>599</v>
       </c>
       <c r="B124" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C124" t="s">
         <v>26</v>
@@ -10128,7 +10341,7 @@
         <v>0</v>
       </c>
       <c r="E124" s="3" t="s">
-        <v>487</v>
+        <v>464</v>
       </c>
       <c r="F124">
         <v>4</v>
@@ -10139,10 +10352,10 @@
     </row>
     <row r="125" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A125" t="s">
-        <v>624</v>
+        <v>600</v>
       </c>
       <c r="B125" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C125" t="s">
         <v>26</v>
@@ -10159,10 +10372,10 @@
     </row>
     <row r="126" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A126" t="s">
-        <v>625</v>
+        <v>601</v>
       </c>
       <c r="B126" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C126" t="s">
         <v>26</v>
@@ -10171,7 +10384,7 @@
         <v>0</v>
       </c>
       <c r="E126" s="3" t="s">
-        <v>626</v>
+        <v>602</v>
       </c>
       <c r="F126">
         <v>3</v>
@@ -10182,10 +10395,10 @@
     </row>
     <row r="127" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A127" t="s">
-        <v>627</v>
+        <v>603</v>
       </c>
       <c r="B127" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C127" t="s">
         <v>26</v>
@@ -10197,7 +10410,7 @@
         <v>4</v>
       </c>
       <c r="H127" s="3" t="s">
-        <v>628</v>
+        <v>604</v>
       </c>
       <c r="I127">
         <v>400</v>
@@ -10205,10 +10418,10 @@
     </row>
     <row r="128" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A128" t="s">
-        <v>630</v>
+        <v>606</v>
       </c>
       <c r="B128" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C128" t="s">
         <v>26</v>
@@ -10217,7 +10430,7 @@
         <v>0</v>
       </c>
       <c r="H128" s="3" t="s">
-        <v>631</v>
+        <v>607</v>
       </c>
       <c r="I128">
         <v>200</v>
@@ -10225,10 +10438,10 @@
     </row>
     <row r="129" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A129" t="s">
-        <v>632</v>
+        <v>608</v>
       </c>
       <c r="B129" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C129" t="s">
         <v>26</v>
@@ -10240,7 +10453,7 @@
         <v>2</v>
       </c>
       <c r="H129" s="3" t="s">
-        <v>633</v>
+        <v>609</v>
       </c>
       <c r="I129">
         <v>600</v>
@@ -10248,10 +10461,10 @@
     </row>
     <row r="130" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A130" t="s">
-        <v>634</v>
+        <v>610</v>
       </c>
       <c r="B130" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C130" t="s">
         <v>26</v>
@@ -10260,10 +10473,10 @@
         <v>0</v>
       </c>
       <c r="E130" t="s">
-        <v>636</v>
+        <v>612</v>
       </c>
       <c r="H130" s="3" t="s">
-        <v>635</v>
+        <v>611</v>
       </c>
       <c r="I130">
         <v>600</v>
@@ -10271,10 +10484,10 @@
     </row>
     <row r="131" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A131" t="s">
-        <v>637</v>
+        <v>613</v>
       </c>
       <c r="B131" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C131" t="s">
         <v>26</v>
@@ -10283,7 +10496,7 @@
         <v>1</v>
       </c>
       <c r="H131" s="3" t="s">
-        <v>638</v>
+        <v>614</v>
       </c>
       <c r="I131">
         <v>800</v>
@@ -10291,10 +10504,10 @@
     </row>
     <row r="132" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A132" t="s">
-        <v>639</v>
+        <v>615</v>
       </c>
       <c r="B132" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C132" t="s">
         <v>26</v>
@@ -10303,7 +10516,7 @@
         <v>0</v>
       </c>
       <c r="H132" s="3" t="s">
-        <v>640</v>
+        <v>616</v>
       </c>
       <c r="I132">
         <v>600</v>
@@ -10311,10 +10524,10 @@
     </row>
     <row r="133" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A133" t="s">
-        <v>641</v>
+        <v>617</v>
       </c>
       <c r="B133" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C133" t="s">
         <v>26</v>
@@ -10323,7 +10536,7 @@
         <v>0</v>
       </c>
       <c r="H133" s="3" t="s">
-        <v>643</v>
+        <v>619</v>
       </c>
       <c r="I133">
         <v>100</v>
@@ -10331,10 +10544,10 @@
     </row>
     <row r="134" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A134" t="s">
-        <v>642</v>
+        <v>618</v>
       </c>
       <c r="B134" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C134" t="s">
         <v>26</v>
@@ -10343,7 +10556,7 @@
         <v>0</v>
       </c>
       <c r="H134" s="3" t="s">
-        <v>644</v>
+        <v>620</v>
       </c>
       <c r="I134">
         <v>100</v>
@@ -10351,10 +10564,10 @@
     </row>
     <row r="135" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A135" t="s">
-        <v>645</v>
+        <v>621</v>
       </c>
       <c r="B135" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C135" t="s">
         <v>21</v>
@@ -10363,18 +10576,18 @@
         <v>0</v>
       </c>
       <c r="E135" s="3" t="s">
-        <v>698</v>
+        <v>674</v>
       </c>
       <c r="H135" s="3" t="s">
-        <v>646</v>
+        <v>622</v>
       </c>
     </row>
     <row r="136" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A136" t="s">
-        <v>649</v>
+        <v>625</v>
       </c>
       <c r="B136" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C136" t="s">
         <v>21</v>
@@ -10383,10 +10596,10 @@
         <v>0</v>
       </c>
       <c r="E136" s="3" t="s">
-        <v>698</v>
+        <v>674</v>
       </c>
       <c r="H136" s="3" t="s">
-        <v>647</v>
+        <v>623</v>
       </c>
       <c r="I136">
         <v>300</v>
@@ -10394,10 +10607,10 @@
     </row>
     <row r="137" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A137" t="s">
-        <v>660</v>
+        <v>636</v>
       </c>
       <c r="B137" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C137" t="s">
         <v>21</v>
@@ -10406,15 +10619,15 @@
         <v>0</v>
       </c>
       <c r="H137" s="3" t="s">
-        <v>654</v>
+        <v>630</v>
       </c>
     </row>
     <row r="138" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A138" t="s">
-        <v>651</v>
+        <v>627</v>
       </c>
       <c r="B138" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C138" t="s">
         <v>21</v>
@@ -10423,7 +10636,7 @@
         <v>0</v>
       </c>
       <c r="H138" s="3" t="s">
-        <v>654</v>
+        <v>630</v>
       </c>
       <c r="I138">
         <v>300</v>
@@ -10431,10 +10644,10 @@
     </row>
     <row r="139" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A139" t="s">
-        <v>652</v>
+        <v>628</v>
       </c>
       <c r="B139" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C139" t="s">
         <v>21</v>
@@ -10443,7 +10656,7 @@
         <v>0</v>
       </c>
       <c r="H139" s="3" t="s">
-        <v>654</v>
+        <v>630</v>
       </c>
       <c r="I139">
         <v>300</v>
@@ -10451,10 +10664,10 @@
     </row>
     <row r="140" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A140" t="s">
-        <v>653</v>
+        <v>629</v>
       </c>
       <c r="B140" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C140" t="s">
         <v>21</v>
@@ -10463,7 +10676,7 @@
         <v>0</v>
       </c>
       <c r="H140" s="3" t="s">
-        <v>654</v>
+        <v>630</v>
       </c>
       <c r="I140">
         <v>300</v>
@@ -10471,10 +10684,10 @@
     </row>
     <row r="141" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A141" t="s">
-        <v>655</v>
+        <v>631</v>
       </c>
       <c r="B141" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C141" t="s">
         <v>21</v>
@@ -10483,7 +10696,7 @@
         <v>0</v>
       </c>
       <c r="H141" s="3" t="s">
-        <v>654</v>
+        <v>630</v>
       </c>
       <c r="I141">
         <v>300</v>
@@ -10491,10 +10704,10 @@
     </row>
     <row r="142" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A142" t="s">
-        <v>659</v>
+        <v>635</v>
       </c>
       <c r="B142" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C142" t="s">
         <v>21</v>
@@ -10503,7 +10716,7 @@
         <v>0</v>
       </c>
       <c r="H142" s="3" t="s">
-        <v>658</v>
+        <v>634</v>
       </c>
       <c r="I142">
         <v>100</v>
@@ -10511,10 +10724,10 @@
     </row>
     <row r="143" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A143" t="s">
-        <v>650</v>
+        <v>626</v>
       </c>
       <c r="B143" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C143" t="s">
         <v>21</v>
@@ -10523,7 +10736,7 @@
         <v>0</v>
       </c>
       <c r="H143" s="3" t="s">
-        <v>648</v>
+        <v>624</v>
       </c>
       <c r="I143">
         <v>300</v>
@@ -10531,10 +10744,10 @@
     </row>
     <row r="144" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A144" t="s">
-        <v>661</v>
+        <v>637</v>
       </c>
       <c r="B144" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C144" t="s">
         <v>21</v>
@@ -10543,7 +10756,7 @@
         <v>0</v>
       </c>
       <c r="H144" s="3" t="s">
-        <v>662</v>
+        <v>638</v>
       </c>
       <c r="I144">
         <v>300</v>
@@ -10551,10 +10764,10 @@
     </row>
     <row r="145" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A145" t="s">
-        <v>664</v>
+        <v>640</v>
       </c>
       <c r="B145" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C145" t="s">
         <v>21</v>
@@ -10563,7 +10776,7 @@
         <v>0</v>
       </c>
       <c r="H145" s="3" t="s">
-        <v>663</v>
+        <v>639</v>
       </c>
       <c r="I145">
         <v>300</v>
@@ -10571,10 +10784,10 @@
     </row>
     <row r="146" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A146" t="s">
-        <v>666</v>
+        <v>642</v>
       </c>
       <c r="B146" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C146" t="s">
         <v>21</v>
@@ -10583,10 +10796,10 @@
         <v>0</v>
       </c>
       <c r="E146" s="3" t="s">
-        <v>698</v>
+        <v>674</v>
       </c>
       <c r="H146" s="3" t="s">
-        <v>665</v>
+        <v>641</v>
       </c>
       <c r="I146">
         <v>200</v>
@@ -10594,10 +10807,10 @@
     </row>
     <row r="147" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A147" t="s">
-        <v>656</v>
+        <v>632</v>
       </c>
       <c r="B147" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C147" t="s">
         <v>21</v>
@@ -10606,7 +10819,7 @@
         <v>0</v>
       </c>
       <c r="H147" s="3" t="s">
-        <v>657</v>
+        <v>633</v>
       </c>
       <c r="I147">
         <v>200</v>
@@ -10614,10 +10827,10 @@
     </row>
     <row r="148" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A148" t="s">
-        <v>667</v>
+        <v>643</v>
       </c>
       <c r="B148" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C148" t="s">
         <v>21</v>
@@ -10626,15 +10839,15 @@
         <v>0</v>
       </c>
       <c r="H148" s="3" t="s">
-        <v>668</v>
+        <v>644</v>
       </c>
     </row>
     <row r="149" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A149" t="s">
-        <v>669</v>
+        <v>645</v>
       </c>
       <c r="B149" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C149" t="s">
         <v>21</v>
@@ -10643,7 +10856,7 @@
         <v>0</v>
       </c>
       <c r="H149" s="3" t="s">
-        <v>671</v>
+        <v>647</v>
       </c>
       <c r="I149">
         <v>1300</v>
@@ -10651,10 +10864,10 @@
     </row>
     <row r="150" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A150" t="s">
-        <v>672</v>
+        <v>648</v>
       </c>
       <c r="B150" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C150" t="s">
         <v>21</v>
@@ -10663,7 +10876,7 @@
         <v>0</v>
       </c>
       <c r="H150" s="3" t="s">
-        <v>670</v>
+        <v>646</v>
       </c>
       <c r="I150">
         <v>1000</v>
@@ -10671,10 +10884,10 @@
     </row>
     <row r="151" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A151" t="s">
-        <v>673</v>
+        <v>649</v>
       </c>
       <c r="B151" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C151" t="s">
         <v>21</v>
@@ -10683,10 +10896,10 @@
         <v>0</v>
       </c>
       <c r="E151" s="3" t="s">
-        <v>698</v>
+        <v>674</v>
       </c>
       <c r="H151" s="3" t="s">
-        <v>674</v>
+        <v>650</v>
       </c>
       <c r="I151">
         <v>500</v>
@@ -10694,10 +10907,10 @@
     </row>
     <row r="152" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A152" t="s">
-        <v>686</v>
+        <v>662</v>
       </c>
       <c r="B152" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C152" t="s">
         <v>21</v>
@@ -10706,10 +10919,10 @@
         <v>0</v>
       </c>
       <c r="E152" s="3" t="s">
-        <v>697</v>
+        <v>673</v>
       </c>
       <c r="H152" s="3" t="s">
-        <v>685</v>
+        <v>661</v>
       </c>
       <c r="I152">
         <v>200</v>
@@ -10717,10 +10930,10 @@
     </row>
     <row r="153" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A153" t="s">
-        <v>675</v>
+        <v>651</v>
       </c>
       <c r="B153" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C153" t="s">
         <v>21</v>
@@ -10729,15 +10942,15 @@
         <v>0</v>
       </c>
       <c r="H153" s="5" t="s">
-        <v>676</v>
+        <v>652</v>
       </c>
     </row>
     <row r="154" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A154" t="s">
-        <v>677</v>
+        <v>653</v>
       </c>
       <c r="B154" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C154" t="s">
         <v>21</v>
@@ -10746,7 +10959,7 @@
         <v>0</v>
       </c>
       <c r="H154" s="5" t="s">
-        <v>678</v>
+        <v>654</v>
       </c>
       <c r="I154">
         <v>300</v>
@@ -10754,10 +10967,10 @@
     </row>
     <row r="155" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A155" t="s">
-        <v>679</v>
+        <v>655</v>
       </c>
       <c r="B155" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C155" t="s">
         <v>21</v>
@@ -10766,7 +10979,7 @@
         <v>0</v>
       </c>
       <c r="H155" s="5" t="s">
-        <v>680</v>
+        <v>656</v>
       </c>
       <c r="I155">
         <v>0</v>
@@ -10774,10 +10987,10 @@
     </row>
     <row r="156" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A156" t="s">
-        <v>681</v>
+        <v>657</v>
       </c>
       <c r="B156" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C156" t="s">
         <v>21</v>
@@ -10786,15 +10999,15 @@
         <v>0</v>
       </c>
       <c r="H156" s="5" t="s">
-        <v>682</v>
+        <v>658</v>
       </c>
     </row>
     <row r="157" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A157" t="s">
-        <v>683</v>
+        <v>659</v>
       </c>
       <c r="B157" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C157" t="s">
         <v>21</v>
@@ -10803,15 +11016,15 @@
         <v>0</v>
       </c>
       <c r="H157" s="5" t="s">
-        <v>684</v>
+        <v>660</v>
       </c>
     </row>
     <row r="158" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A158" t="s">
-        <v>687</v>
+        <v>663</v>
       </c>
       <c r="B158" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C158" t="s">
         <v>21</v>
@@ -10820,15 +11033,15 @@
         <v>0</v>
       </c>
       <c r="H158" s="5" t="s">
-        <v>688</v>
+        <v>664</v>
       </c>
     </row>
     <row r="159" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A159" t="s">
-        <v>689</v>
+        <v>665</v>
       </c>
       <c r="B159" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C159" t="s">
         <v>21</v>
@@ -10837,15 +11050,15 @@
         <v>0</v>
       </c>
       <c r="H159" s="5" t="s">
-        <v>690</v>
+        <v>666</v>
       </c>
     </row>
     <row r="160" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A160" t="s">
-        <v>691</v>
+        <v>667</v>
       </c>
       <c r="B160" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C160" t="s">
         <v>21</v>
@@ -10854,15 +11067,15 @@
         <v>0</v>
       </c>
       <c r="H160" s="5" t="s">
-        <v>692</v>
+        <v>668</v>
       </c>
     </row>
     <row r="161" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A161" t="s">
-        <v>693</v>
+        <v>669</v>
       </c>
       <c r="B161" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C161" t="s">
         <v>21</v>
@@ -10871,15 +11084,15 @@
         <v>0</v>
       </c>
       <c r="H161" s="5" t="s">
-        <v>695</v>
+        <v>671</v>
       </c>
     </row>
     <row r="162" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A162" t="s">
-        <v>694</v>
+        <v>670</v>
       </c>
       <c r="B162" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C162" t="s">
         <v>21</v>
@@ -10888,18 +11101,18 @@
         <v>0</v>
       </c>
       <c r="E162" s="3" t="s">
-        <v>696</v>
+        <v>672</v>
       </c>
       <c r="H162" s="5" t="s">
-        <v>699</v>
+        <v>675</v>
       </c>
     </row>
     <row r="163" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A163" t="s">
-        <v>700</v>
+        <v>676</v>
       </c>
       <c r="B163" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C163" t="s">
         <v>21</v>
@@ -10908,7 +11121,7 @@
         <v>0</v>
       </c>
       <c r="H163" s="5" t="s">
-        <v>701</v>
+        <v>677</v>
       </c>
       <c r="I163">
         <v>1100</v>
@@ -10916,10 +11129,10 @@
     </row>
     <row r="164" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A164" t="s">
-        <v>702</v>
+        <v>678</v>
       </c>
       <c r="B164" t="s">
-        <v>740</v>
+        <v>714</v>
       </c>
       <c r="C164" t="s">
         <v>21</v>
@@ -10928,7 +11141,7 @@
         <v>0</v>
       </c>
       <c r="H164" s="5" t="s">
-        <v>703</v>
+        <v>679</v>
       </c>
     </row>
   </sheetData>
@@ -10963,57 +11176,57 @@
         <v>19</v>
       </c>
       <c r="D1" t="s">
-        <v>741</v>
+        <v>715</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>745</v>
+        <v>719</v>
       </c>
       <c r="D2" t="s">
-        <v>742</v>
+        <v>716</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>747</v>
+        <v>721</v>
       </c>
       <c r="D3" t="s">
-        <v>742</v>
+        <v>716</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>752</v>
+        <v>724</v>
       </c>
       <c r="C4" t="s">
-        <v>754</v>
+        <v>726</v>
       </c>
       <c r="D4" t="s">
-        <v>753</v>
+        <v>725</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>757</v>
+        <v>729</v>
       </c>
       <c r="D5" t="s">
-        <v>758</v>
+        <v>730</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D10" t="s">
-        <v>742</v>
+        <v>716</v>
       </c>
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D11" t="s">
-        <v>743</v>
+        <v>717</v>
       </c>
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.25">
       <c r="D12" t="s">
-        <v>744</v>
+        <v>718</v>
       </c>
     </row>
   </sheetData>
@@ -11033,60 +11246,60 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>332</v>
+        <v>309</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>514</v>
+        <v>490</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>521</v>
+        <v>497</v>
       </c>
       <c r="I3" t="s">
-        <v>731</v>
+        <v>705</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
       <c r="I4" t="s">
-        <v>732</v>
+        <v>706</v>
       </c>
     </row>
     <row r="7" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>710</v>
+        <v>685</v>
       </c>
     </row>
     <row r="8" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>711</v>
+        <v>686</v>
       </c>
     </row>
     <row r="9" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>716</v>
+        <v>690</v>
       </c>
     </row>
     <row r="10" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>717</v>
+        <v>691</v>
       </c>
     </row>
     <row r="11" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>718</v>
+        <v>692</v>
       </c>
     </row>
     <row r="17" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>720</v>
+        <v>694</v>
       </c>
     </row>
     <row r="18" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>719</v>
+        <v>693</v>
       </c>
     </row>
   </sheetData>

--- a/example.xlsx
+++ b/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\MunchkinML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{48B1F16D-F11D-4D67-960B-378019A95FBA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222151C8-9BE4-4C52-AA40-625A899746D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{756F23DA-8B2B-43D1-941C-E221060CE055}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{756F23DA-8B2B-43D1-941C-E221060CE055}"/>
   </bookViews>
   <sheets>
     <sheet name="monsters" sheetId="1" r:id="rId1"/>
@@ -45,7 +45,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1589" uniqueCount="790">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1590" uniqueCount="791">
   <si>
     <t>were_turtle</t>
   </si>
@@ -2248,9 +2248,6 @@
     <t>never</t>
   </si>
   <si>
-    <t>agains all grasses -10</t>
-  </si>
-  <si>
     <t>self.player.add_status('fight_level_only')</t>
   </si>
   <si>
@@ -2389,9 +2386,6 @@
     <t>self.monster.update_level(+5) if 'halfling'  in self.player.race else ''</t>
   </si>
   <si>
-    <t>self.monster.update_level(+5) if 'orc' in self.player.race else '';self.monster.update_level(+5) if 'warrior'  in self.player.plcass else ''</t>
-  </si>
-  <si>
     <t>self.monster.update_level(+3) if len(self.player.pclass)==0 else ''</t>
   </si>
   <si>
@@ -2438,6 +2432,15 @@
   </si>
   <si>
     <t>self.player.update_pclass_race('race', n=-1, make_decision=True)</t>
+  </si>
+  <si>
+    <t>status</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+5) if 'orc' in self.player.race else '';self.monster.update_level(+5) if 'warrior' in self.player.pclass else ''</t>
+  </si>
+  <si>
+    <t>self.monster.update_level(+10) if self.monster.name in GLOBAL_MONSTER_GRASS else ''</t>
   </si>
 </sst>
 </file>
@@ -2926,8 +2929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835D834E-D9E6-49F6-98E3-A07AA920BC51}">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="G51" sqref="G51"/>
+    <sheetView topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E47" sqref="E47"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -2990,10 +2993,10 @@
         <v>0</v>
       </c>
       <c r="E2" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="F2" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G2" t="b">
         <v>1</v>
@@ -3022,10 +3025,10 @@
         <v>0</v>
       </c>
       <c r="E3" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="F3" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G3" t="b">
         <v>1</v>
@@ -3054,16 +3057,16 @@
         <v>0</v>
       </c>
       <c r="E4" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F4" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G4" t="b">
         <v>1</v>
       </c>
       <c r="H4" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="I4">
         <v>1</v>
@@ -3086,10 +3089,10 @@
         <v>0</v>
       </c>
       <c r="E5" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
       <c r="F5" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G5" t="b">
         <v>1</v>
@@ -3118,10 +3121,10 @@
         <v>0</v>
       </c>
       <c r="E6" t="s">
-        <v>746</v>
+        <v>745</v>
       </c>
       <c r="F6" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G6" t="b">
         <v>1</v>
@@ -3150,10 +3153,10 @@
         <v>0</v>
       </c>
       <c r="E7" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
       <c r="F7" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G7" t="b">
         <v>1</v>
@@ -3182,10 +3185,10 @@
         <v>0</v>
       </c>
       <c r="E8" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
       <c r="F8" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G8" t="b">
         <v>1</v>
@@ -3214,16 +3217,16 @@
         <v>0</v>
       </c>
       <c r="E9" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F9" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G9" t="b">
         <v>0</v>
       </c>
       <c r="H9" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="I9">
         <v>1</v>
@@ -3246,16 +3249,16 @@
         <v>0</v>
       </c>
       <c r="E10" t="s">
-        <v>747</v>
+        <v>746</v>
       </c>
       <c r="F10" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G10" t="b">
         <v>1</v>
       </c>
       <c r="H10" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="I10">
         <v>1</v>
@@ -3278,10 +3281,10 @@
         <v>0</v>
       </c>
       <c r="E11" t="s">
-        <v>748</v>
+        <v>747</v>
       </c>
       <c r="F11" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G11" t="b">
         <v>1</v>
@@ -3310,10 +3313,10 @@
         <v>0</v>
       </c>
       <c r="E12" t="s">
-        <v>749</v>
+        <v>748</v>
       </c>
       <c r="F12" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G12" t="b">
         <v>1</v>
@@ -3342,10 +3345,10 @@
         <v>0</v>
       </c>
       <c r="E13" t="s">
-        <v>750</v>
+        <v>749</v>
       </c>
       <c r="F13" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G13" t="b">
         <v>1</v>
@@ -3374,10 +3377,10 @@
         <v>0</v>
       </c>
       <c r="E14" t="s">
-        <v>751</v>
+        <v>750</v>
       </c>
       <c r="F14" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G14" t="b">
         <v>1</v>
@@ -3409,7 +3412,7 @@
         <v>52</v>
       </c>
       <c r="F15" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G15" t="b">
         <v>1</v>
@@ -3441,7 +3444,7 @@
         <v>720</v>
       </c>
       <c r="F16" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G16" t="b">
         <v>1</v>
@@ -3473,7 +3476,7 @@
         <v>51</v>
       </c>
       <c r="F17" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G17" t="b">
         <v>1</v>
@@ -3502,10 +3505,10 @@
         <v>0</v>
       </c>
       <c r="E18" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="F18" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G18" t="b">
         <v>1</v>
@@ -3534,10 +3537,10 @@
         <v>0</v>
       </c>
       <c r="E19" t="s">
-        <v>752</v>
+        <v>751</v>
       </c>
       <c r="F19" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G19" t="b">
         <v>1</v>
@@ -3566,16 +3569,16 @@
         <v>0</v>
       </c>
       <c r="E20" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F20" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G20" t="b">
         <v>1</v>
       </c>
       <c r="H20" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="I20">
         <v>1</v>
@@ -3598,16 +3601,16 @@
         <v>0</v>
       </c>
       <c r="E21" t="s">
-        <v>753</v>
+        <v>752</v>
       </c>
       <c r="F21" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G21" t="b">
         <v>1</v>
       </c>
       <c r="H21" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="I21">
         <v>1</v>
@@ -3630,10 +3633,10 @@
         <v>0</v>
       </c>
       <c r="E22" t="s">
-        <v>754</v>
+        <v>753</v>
       </c>
       <c r="F22" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G22" t="b">
         <v>1</v>
@@ -3662,10 +3665,10 @@
         <v>0</v>
       </c>
       <c r="E23" t="s">
-        <v>755</v>
+        <v>754</v>
       </c>
       <c r="F23" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G23" t="b">
         <v>1</v>
@@ -3694,10 +3697,10 @@
         <v>0</v>
       </c>
       <c r="E24" s="2" t="s">
-        <v>756</v>
+        <v>755</v>
       </c>
       <c r="F24" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G24" s="2" t="b">
         <v>1</v>
@@ -3726,16 +3729,16 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>757</v>
+        <v>756</v>
       </c>
       <c r="F25" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G25" t="b">
         <v>1</v>
       </c>
       <c r="H25" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
       <c r="I25">
         <v>2</v>
@@ -3761,7 +3764,7 @@
         <v>51</v>
       </c>
       <c r="F26" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G26" t="b">
         <v>1</v>
@@ -3790,10 +3793,10 @@
         <v>0</v>
       </c>
       <c r="E27" t="s">
-        <v>758</v>
+        <v>757</v>
       </c>
       <c r="F27" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
@@ -3822,10 +3825,10 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>760</v>
+        <v>759</v>
       </c>
       <c r="F28" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G28" t="b">
         <v>1</v>
@@ -3854,10 +3857,10 @@
         <v>0</v>
       </c>
       <c r="E29" t="s">
-        <v>761</v>
+        <v>760</v>
       </c>
       <c r="F29" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G29" t="b">
         <v>1</v>
@@ -3886,10 +3889,10 @@
         <v>0</v>
       </c>
       <c r="E30" t="s">
-        <v>762</v>
+        <v>761</v>
       </c>
       <c r="F30" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G30" t="b">
         <v>1</v>
@@ -3918,10 +3921,10 @@
         <v>0</v>
       </c>
       <c r="E31" t="s">
-        <v>763</v>
+        <v>762</v>
       </c>
       <c r="F31" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G31" t="b">
         <v>1</v>
@@ -3950,7 +3953,7 @@
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F32" t="s">
         <v>493</v>
@@ -3982,10 +3985,10 @@
         <v>0</v>
       </c>
       <c r="E33" t="s">
-        <v>764</v>
+        <v>763</v>
       </c>
       <c r="F33" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G33" t="b">
         <v>1</v>
@@ -4014,10 +4017,10 @@
         <v>0</v>
       </c>
       <c r="E34" t="s">
-        <v>765</v>
+        <v>764</v>
       </c>
       <c r="F34" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G34" t="b">
         <v>1</v>
@@ -4046,10 +4049,10 @@
         <v>0</v>
       </c>
       <c r="E35" t="s">
-        <v>766</v>
+        <v>765</v>
       </c>
       <c r="F35" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G35" t="b">
         <v>1</v>
@@ -4078,16 +4081,16 @@
         <v>0</v>
       </c>
       <c r="E36" t="s">
-        <v>767</v>
+        <v>766</v>
       </c>
       <c r="F36" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G36" t="b">
         <v>1</v>
       </c>
       <c r="H36" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="I36">
         <v>1</v>
@@ -4110,10 +4113,10 @@
         <v>0</v>
       </c>
       <c r="E37" t="s">
-        <v>768</v>
+        <v>767</v>
       </c>
       <c r="F37" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G37" t="b">
         <v>1</v>
@@ -4142,10 +4145,10 @@
         <v>0</v>
       </c>
       <c r="E38" t="s">
-        <v>769</v>
+        <v>768</v>
       </c>
       <c r="F38" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G38" t="b">
         <v>1</v>
@@ -4174,16 +4177,16 @@
         <v>0</v>
       </c>
       <c r="E39" t="s">
-        <v>770</v>
+        <v>769</v>
       </c>
       <c r="F39" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G39" t="b">
         <v>1</v>
       </c>
       <c r="H39" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="I39">
         <v>1</v>
@@ -4206,10 +4209,10 @@
         <v>0</v>
       </c>
       <c r="E40" s="14" t="s">
-        <v>771</v>
+        <v>770</v>
       </c>
       <c r="F40" s="16" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G40" t="b">
         <v>1</v>
@@ -4238,10 +4241,10 @@
         <v>0</v>
       </c>
       <c r="E41" t="s">
-        <v>772</v>
+        <v>771</v>
       </c>
       <c r="F41" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G41" t="b">
         <v>1</v>
@@ -4273,7 +4276,7 @@
         <v>46</v>
       </c>
       <c r="F42" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G42" t="b">
         <v>1</v>
@@ -4301,17 +4304,17 @@
       <c r="D43" t="b">
         <v>0</v>
       </c>
-      <c r="E43" t="s">
-        <v>773</v>
+      <c r="E43" s="14" t="s">
+        <v>789</v>
       </c>
       <c r="F43" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G43" t="b">
         <v>1</v>
       </c>
       <c r="H43" t="s">
-        <v>728</v>
+        <v>727</v>
       </c>
       <c r="I43">
         <v>1</v>
@@ -4334,10 +4337,10 @@
         <v>0</v>
       </c>
       <c r="E44" t="s">
-        <v>774</v>
+        <v>772</v>
       </c>
       <c r="F44" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G44" t="b">
         <v>1</v>
@@ -4366,16 +4369,16 @@
         <v>0</v>
       </c>
       <c r="E45" t="s">
-        <v>786</v>
+        <v>784</v>
       </c>
       <c r="F45" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G45" t="b">
         <v>1</v>
       </c>
       <c r="H45" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="I45">
         <v>1</v>
@@ -4398,10 +4401,10 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>775</v>
+        <v>773</v>
       </c>
       <c r="F46" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G46" t="b">
         <v>1</v>
@@ -4430,10 +4433,10 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F47" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G47" t="b">
         <v>1</v>
@@ -4462,10 +4465,10 @@
         <v>0</v>
       </c>
       <c r="E48" t="s">
-        <v>777</v>
+        <v>775</v>
       </c>
       <c r="F48" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G48" t="b">
         <v>1</v>
@@ -4497,13 +4500,13 @@
         <v>40</v>
       </c>
       <c r="F49" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G49" t="b">
         <v>1</v>
       </c>
       <c r="H49" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="I49">
         <v>1</v>
@@ -4526,10 +4529,10 @@
         <v>0</v>
       </c>
       <c r="E50" t="s">
-        <v>778</v>
+        <v>776</v>
       </c>
       <c r="F50" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G50" t="b">
         <v>1</v>
@@ -4558,10 +4561,10 @@
         <v>0</v>
       </c>
       <c r="E51" t="s">
-        <v>776</v>
+        <v>774</v>
       </c>
       <c r="F51" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G51" t="b">
         <v>1</v>
@@ -4590,16 +4593,16 @@
         <v>0</v>
       </c>
       <c r="E52" t="s">
-        <v>779</v>
+        <v>777</v>
       </c>
       <c r="F52" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G52" t="b">
         <v>1</v>
       </c>
       <c r="H52" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="I52">
         <v>1</v>
@@ -4622,10 +4625,10 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>780</v>
+        <v>778</v>
       </c>
       <c r="F53" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G53" t="b">
         <v>1</v>
@@ -4654,10 +4657,10 @@
         <v>0</v>
       </c>
       <c r="E54" t="s">
-        <v>781</v>
+        <v>779</v>
       </c>
       <c r="F54" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G54" t="b">
         <v>1</v>
@@ -4686,10 +4689,10 @@
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="F55" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G55" t="b">
         <v>0</v>
@@ -4718,10 +4721,10 @@
         <v>0</v>
       </c>
       <c r="E56" t="s">
-        <v>782</v>
+        <v>780</v>
       </c>
       <c r="F56" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G56" t="b">
         <v>1</v>
@@ -4750,10 +4753,10 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>783</v>
+        <v>781</v>
       </c>
       <c r="F57" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G57" t="b">
         <v>1</v>
@@ -4782,10 +4785,10 @@
         <v>0</v>
       </c>
       <c r="E58" t="s">
-        <v>784</v>
+        <v>782</v>
       </c>
       <c r="F58" s="15" t="s">
-        <v>787</v>
+        <v>785</v>
       </c>
       <c r="G58" t="b">
         <v>1</v>
@@ -4814,16 +4817,16 @@
         <v>0</v>
       </c>
       <c r="E59" s="14" t="s">
-        <v>788</v>
+        <v>786</v>
       </c>
       <c r="F59" s="16" t="s">
+        <v>785</v>
+      </c>
+      <c r="G59" t="b">
+        <v>1</v>
+      </c>
+      <c r="H59" s="14" t="s">
         <v>787</v>
-      </c>
-      <c r="G59" t="b">
-        <v>1</v>
-      </c>
-      <c r="H59" s="14" t="s">
-        <v>789</v>
       </c>
       <c r="I59">
         <v>1</v>
@@ -4846,10 +4849,10 @@
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>785</v>
+        <v>783</v>
       </c>
       <c r="F60" t="s">
-        <v>759</v>
+        <v>758</v>
       </c>
       <c r="G60" t="b">
         <v>1</v>
@@ -5648,7 +5651,7 @@
         <v>0</v>
       </c>
       <c r="E27" s="9" t="s">
-        <v>727</v>
+        <v>726</v>
       </c>
       <c r="G27" t="b">
         <v>1</v>
@@ -5798,7 +5801,7 @@
         <v>1</v>
       </c>
       <c r="H32" s="1" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="I32">
         <v>1</v>
@@ -11154,14 +11157,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3C047F-07FE-4D94-87CE-EE299E4A7559}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
-      <selection activeCell="B36" sqref="B35:B36"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="21.140625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="19" customWidth="1"/>
     <col min="4" max="4" width="15.85546875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
@@ -11181,37 +11184,40 @@
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>724</v>
+      </c>
+      <c r="B2" t="s">
+        <v>788</v>
+      </c>
+      <c r="C2" t="s">
+        <v>790</v>
+      </c>
+      <c r="D2" t="s">
+        <v>725</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>719</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D7" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A3" t="s">
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>721</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D8" t="s">
         <v>716</v>
       </c>
     </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A4" t="s">
-        <v>724</v>
-      </c>
-      <c r="C4" t="s">
-        <v>726</v>
-      </c>
-      <c r="D4" t="s">
-        <v>725</v>
-      </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="A5" t="s">
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>728</v>
+      </c>
+      <c r="D9" t="s">
         <v>729</v>
-      </c>
-      <c r="D5" t="s">
-        <v>730</v>
       </c>
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.25">

--- a/example.xlsx
+++ b/example.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Projects\MunchkinML\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{222151C8-9BE4-4C52-AA40-625A899746D2}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{1406CD45-C1E8-4723-B2E4-366F404D8D8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="7" xr2:uid="{756F23DA-8B2B-43D1-941C-E221060CE055}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{756F23DA-8B2B-43D1-941C-E221060CE055}"/>
   </bookViews>
   <sheets>
     <sheet name="monsters" sheetId="1" r:id="rId1"/>
@@ -2929,8 +2929,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{835D834E-D9E6-49F6-98E3-A07AA920BC51}">
   <dimension ref="A1:K60"/>
   <sheetViews>
-    <sheetView topLeftCell="A28" workbookViewId="0">
-      <selection activeCell="E47" sqref="E47"/>
+    <sheetView tabSelected="1" topLeftCell="A28" workbookViewId="0">
+      <selection activeCell="E33" sqref="E33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -4313,7 +4313,7 @@
       <c r="G43" t="b">
         <v>1</v>
       </c>
-      <c r="H43" t="s">
+      <c r="H43" s="14" t="s">
         <v>727</v>
       </c>
       <c r="I43">
@@ -11157,7 +11157,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{CE3C047F-07FE-4D94-87CE-EE299E4A7559}">
   <dimension ref="A1:D12"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C2" sqref="C2"/>
     </sheetView>
   </sheetViews>
